--- a/notebooks/user_data/response_book.xlsx
+++ b/notebooks/user_data/response_book.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="user_list" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="user_00" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="user_list" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="user_00" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -704,10 +704,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="5">
@@ -715,10 +715,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="5">

--- a/notebooks/user_data/response_book.xlsx
+++ b/notebooks/user_data/response_book.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="user_list" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="user_00" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="user_list" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="user_00" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="user_01" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -457,11 +458,11 @@
   </sheetPr>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="9.15" customWidth="1" style="3" min="1" max="1"/>
     <col width="26.9" customWidth="1" style="4" min="2" max="2"/>
@@ -495,6 +496,11 @@
       <c r="A3" s="3" t="inlineStr">
         <is>
           <t>01</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>richard attfield (beta test)</t>
         </is>
       </c>
     </row>
@@ -654,16 +660,16 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="9.4" customWidth="1" style="4" min="1" max="1"/>
     <col width="11.39" customWidth="1" style="4" min="2" max="2"/>
     <col width="12.05" customWidth="1" style="4" min="3" max="3"/>
-    <col width="16.9" customWidth="1" style="4" min="4" max="4"/>
+    <col width="16.89" customWidth="1" style="4" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="5">
@@ -731,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="5">
@@ -753,10 +759,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="5">
@@ -773,6 +779,196 @@
       </c>
       <c r="D10" s="4" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="5">
+      <c r="B11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="5">
+      <c r="B12" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="5">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>sect3 libB</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="5">
+      <c r="B15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="5">
+      <c r="B16" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1" s="5">
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Actual State</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Probed State</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Probed Confidence</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="5">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>sect1 libA</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="5">
+      <c r="B3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="5">
+      <c r="B4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="5">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>sect1 libB</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="5">
+      <c r="B7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="5">
+      <c r="B8" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="5">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>sect3 libA</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="5">

--- a/notebooks/user_data/response_book.xlsx
+++ b/notebooks/user_data/response_book.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t xml:space="preserve">user_ID</t>
   </si>
@@ -30,10 +30,16 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
+    <t xml:space="preserve">order</t>
+  </si>
+  <si>
     <t xml:space="preserve">00</t>
   </si>
   <si>
     <t xml:space="preserve">liam roy (beta test)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X – O</t>
   </si>
   <si>
     <t xml:space="preserve">01</t>
@@ -196,7 +202,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -206,6 +212,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -226,13 +236,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="26.9"/>
@@ -245,119 +255,131 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -382,7 +404,7 @@
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="9.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.39"/>
@@ -392,18 +414,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0</v>
@@ -439,7 +461,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0</v>
@@ -475,7 +497,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>0</v>
@@ -511,7 +533,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>0</v>
@@ -571,18 +593,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0</v>
@@ -618,7 +640,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0</v>
@@ -654,7 +676,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>0</v>
@@ -690,7 +712,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>0</v>

--- a/notebooks/user_data/response_book.xlsx
+++ b/notebooks/user_data/response_book.xlsx
@@ -20,6 +20,13 @@
     <sheet name="user_08" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="user_09" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="user_10" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="user_11" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="user_12" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="user_13" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="user_14" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="user_15" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="user_16" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="user_17" sheetId="19" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="36">
   <si>
     <t xml:space="preserve">user_ID</t>
   </si>
@@ -63,7 +70,7 @@
     <t xml:space="preserve">03</t>
   </si>
   <si>
-    <t xml:space="preserve">real </t>
+    <t xml:space="preserve">done</t>
   </si>
   <si>
     <t xml:space="preserve">04</t>
@@ -232,7 +239,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -257,15 +264,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -349,7 +348,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -413,7 +412,7 @@
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -427,7 +426,7 @@
       <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -441,7 +440,7 @@
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -455,7 +454,7 @@
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -469,7 +468,7 @@
       <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -483,7 +482,7 @@
       <c r="C10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -497,7 +496,7 @@
       <c r="C11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -511,7 +510,7 @@
       <c r="C12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -522,10 +521,10 @@
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -533,8 +532,13 @@
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="n">
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -542,8 +546,13 @@
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="n">
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -551,8 +560,13 @@
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="n">
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -560,8 +574,13 @@
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="n">
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -569,8 +588,13 @@
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="n">
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="6" t="n">
         <v>6</v>
       </c>
     </row>
@@ -578,8 +602,13 @@
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="n">
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -587,8 +616,8 @@
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="n">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -597,7 +626,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -605,26 +634,26 @@
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8" t="n">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -829,9 +858,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
@@ -842,7 +871,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -856,7 +885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="n">
         <v>1</v>
       </c>
@@ -867,7 +896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="n">
         <v>2</v>
       </c>
@@ -878,7 +907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -892,7 +921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="n">
         <v>1</v>
       </c>
@@ -903,7 +932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="n">
         <v>2</v>
       </c>
@@ -914,7 +943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -928,7 +957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="n">
         <v>1</v>
       </c>
@@ -939,7 +968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="2" t="n">
         <v>2</v>
       </c>
@@ -950,7 +979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -964,7 +993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="2" t="n">
         <v>1</v>
       </c>
@@ -975,7 +1004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="2" t="n">
         <v>2</v>
       </c>
@@ -1008,6 +1037,1080 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q16" activeCellId="0" sqref="Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1032,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1040,10 +2143,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1054,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1068,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1076,10 +2179,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1087,10 +2190,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1104,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1115,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1126,13 +2229,192 @@
         <v>2</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
       </c>
@@ -1151,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1162,7 +2444,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/user_data/response_book.xlsx
+++ b/notebooks/user_data/response_book.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="user_list" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,6 +27,15 @@
     <sheet name="user_15" sheetId="17" state="visible" r:id="rId18"/>
     <sheet name="user_16" sheetId="18" state="visible" r:id="rId19"/>
     <sheet name="user_17" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="user_18" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="user_19" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="user_20" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="user_21" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="user_22" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="user_23" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="user_24" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="user_25" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="user_26" sheetId="28" state="visible" r:id="rId29"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -38,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="36">
   <si>
     <t xml:space="preserve">user_ID</t>
   </si>
@@ -345,10 +354,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -616,7 +625,12 @@
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D20" s="6" t="n">
         <v>8</v>
       </c>
@@ -625,8 +639,13 @@
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="n">
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -634,27 +653,98 @@
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D22" s="6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5" t="n">
-        <v>10</v>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="n">
-        <v>10</v>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2111,9 +2201,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
@@ -2124,7 +2214,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -2138,7 +2228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="n">
         <v>1</v>
       </c>
@@ -2149,7 +2239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="n">
         <v>2</v>
       </c>
@@ -2160,7 +2250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -2174,7 +2264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="n">
         <v>1</v>
       </c>
@@ -2185,7 +2275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="n">
         <v>2</v>
       </c>
@@ -2196,7 +2286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -2210,7 +2300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="n">
         <v>1</v>
       </c>
@@ -2221,7 +2311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="2" t="n">
         <v>2</v>
       </c>
@@ -2232,7 +2322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -2246,7 +2336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="2" t="n">
         <v>1</v>
       </c>
@@ -2257,7 +2347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="2" t="n">
         <v>2</v>
       </c>
@@ -2290,9 +2380,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
@@ -2303,7 +2393,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -2317,7 +2407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="n">
         <v>1</v>
       </c>
@@ -2328,7 +2418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="n">
         <v>2</v>
       </c>
@@ -2339,7 +2429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -2353,7 +2443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="n">
         <v>1</v>
       </c>
@@ -2364,7 +2454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="n">
         <v>2</v>
       </c>
@@ -2375,7 +2465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -2389,7 +2479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="n">
         <v>1</v>
       </c>
@@ -2400,7 +2490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="2" t="n">
         <v>2</v>
       </c>
@@ -2411,39 +2501,39 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" s="0" t="n">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2643,6 +2733,1617 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R7" activeCellId="0" sqref="R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">

--- a/notebooks/user_data/response_book.xlsx
+++ b/notebooks/user_data/response_book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liamroy/Documents/Studies/Monash_31194990/PHD/repos/RL_audio/notebooks/user_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF2105C-AF80-724C-A49E-35A81FE40594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE650B84-8C6D-8C45-AB82-52CBF0DD761F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9482,10 +9482,10 @@
   <dimension ref="A1:BB38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AG3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AH3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AS21" sqref="AS21"/>
+      <selection pane="bottomRight" activeCell="AX20" sqref="AX20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>

--- a/notebooks/user_data/response_book.xlsx
+++ b/notebooks/user_data/response_book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liamroy/Documents/Studies/Monash_31194990/PHD/repos/RL_audio/notebooks/user_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE650B84-8C6D-8C45-AB82-52CBF0DD761F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE0E74D-35B5-8F41-9851-301D0EC6E662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user_list" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <sheet name="user_25" sheetId="27" r:id="rId29"/>
     <sheet name="user_26" sheetId="28" r:id="rId30"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="108">
   <si>
     <t>user_ID</t>
   </si>
@@ -272,9 +272,6 @@
   </si>
   <si>
     <t>23</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -549,7 +546,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -764,11 +761,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -826,13 +832,13 @@
     <xf numFmtId="1" fontId="1" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -847,16 +853,7 @@
     <xf numFmtId="2" fontId="4" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -877,16 +874,13 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -949,55 +943,7 @@
     <xf numFmtId="2" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1009,18 +955,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1029,21 +963,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1054,38 +973,14 @@
     <xf numFmtId="2" fontId="4" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1141,10 +1036,64 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1153,431 +1102,62 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -7673,8 +7253,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:38" ht="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>5</v>
@@ -9482,17 +9060,17 @@
   <dimension ref="A1:BB38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AH3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AX20" sqref="AX20"/>
+      <selection pane="bottomRight" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="15"/>
-    <col min="2" max="2" width="10.83203125" style="13"/>
-    <col min="3" max="3" width="14.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12" style="13" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="13" customWidth="1"/>
     <col min="4" max="4" width="12" style="13" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="41" width="12" style="13" customWidth="1"/>
@@ -9504,246 +9082,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="17" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="107" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="109" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="116"/>
+      <c r="X1" s="117" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="118"/>
+      <c r="AB1" s="118"/>
+      <c r="AC1" s="118"/>
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="119"/>
+      <c r="AG1" s="120" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH1" s="121"/>
+      <c r="AI1" s="121"/>
+      <c r="AJ1" s="121"/>
+      <c r="AK1" s="121"/>
+      <c r="AL1" s="121"/>
+      <c r="AM1" s="121"/>
+      <c r="AN1" s="121"/>
+      <c r="AO1" s="121"/>
+      <c r="AP1" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ1" s="90"/>
+      <c r="AR1" s="90"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="90"/>
+      <c r="AU1" s="91"/>
+      <c r="AV1" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW1" s="93"/>
+      <c r="AX1" s="93"/>
+      <c r="AY1" s="93"/>
+      <c r="AZ1" s="93"/>
+      <c r="BA1" s="94"/>
+    </row>
+    <row r="2" spans="1:54" s="40" customFormat="1" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="128" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="129"/>
-      <c r="F1" s="73" t="s">
+      <c r="C2" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="84" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ1" s="85"/>
-      <c r="AR1" s="85"/>
-      <c r="AS1" s="85"/>
-      <c r="AT1" s="85"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="76" t="s">
+      <c r="G2" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="V2" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="W2" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y2" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z2" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB2" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC2" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD2" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE2" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF2" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG2" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH2" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI2" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ2" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK2" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL2" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM2" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN2" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO2" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP2" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="77"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="78"/>
-    </row>
-    <row r="2" spans="1:54" s="44" customFormat="1" ht="45" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="123" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="124" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="M2" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="N2" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="P2" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q2" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="R2" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="S2" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="T2" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="U2" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="V2" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="W2" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="X2" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y2" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z2" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA2" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB2" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC2" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD2" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE2" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF2" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG2" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH2" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI2" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ2" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK2" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL2" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM2" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN2" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO2" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP2" s="45" t="s">
+      <c r="AQ2" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="AQ2" s="57" t="s">
+      <c r="AR2" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="AR2" s="58" t="s">
+      <c r="AS2" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="AS2" s="59" t="s">
+      <c r="AT2" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU2" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV2" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AT2" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU2" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV2" s="45" t="s">
+      <c r="AW2" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="AW2" s="57" t="s">
+      <c r="AX2" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="AX2" s="58" t="s">
+      <c r="AY2" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="AY2" s="59" t="s">
+      <c r="AZ2" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="AZ2" s="87" t="s">
+      <c r="BA2" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="BA2" s="88" t="s">
-        <v>103</v>
-      </c>
-      <c r="BB2" s="60"/>
+      <c r="BB2" s="56"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="41" t="s">
+      <c r="A3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="88" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="18">
@@ -9806,7 +9384,7 @@
       <c r="W3" s="19">
         <v>9</v>
       </c>
-      <c r="X3" s="101">
+      <c r="X3" s="70">
         <v>0</v>
       </c>
       <c r="Y3" s="21">
@@ -9910,13 +9488,13 @@
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="125" t="s">
+      <c r="B4" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="88" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="18">
@@ -9979,7 +9557,7 @@
       <c r="W4" s="19">
         <v>5</v>
       </c>
-      <c r="X4" s="101">
+      <c r="X4" s="70">
         <v>0</v>
       </c>
       <c r="Y4" s="21">
@@ -10058,19 +9636,19 @@
         <v>2</v>
       </c>
       <c r="AV4" s="22">
-        <f t="shared" ref="AV4:AV27" si="6">AVERAGE(H4,K4,N4)</f>
+        <f t="shared" ref="AV4:AV26" si="6">AVERAGE(H4,K4,N4)</f>
         <v>5.666666666666667</v>
       </c>
       <c r="AW4" s="23">
-        <f t="shared" ref="AW4:AW27" si="7">AVERAGE(Q4,T4,W4)</f>
+        <f t="shared" ref="AW4:AW26" si="7">AVERAGE(Q4,T4,W4)</f>
         <v>6.333333333333333</v>
       </c>
       <c r="AX4" s="23">
-        <f t="shared" ref="AX4:AX27" si="8">AVERAGE(Z4,AC4,AF4)</f>
+        <f t="shared" ref="AX4:AX26" si="8">AVERAGE(Z4,AC4,AF4)</f>
         <v>9</v>
       </c>
       <c r="AY4" s="23">
-        <f t="shared" ref="AY4:AY27" si="9">AVERAGE(AI4,AL4,AO4)</f>
+        <f t="shared" ref="AY4:AY26" si="9">AVERAGE(AI4,AL4,AO4)</f>
         <v>8.3333333333333339</v>
       </c>
       <c r="AZ4" s="23">
@@ -10083,13 +9661,13 @@
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="125" t="s">
+      <c r="B5" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="88" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="18">
@@ -10152,7 +9730,7 @@
       <c r="W5" s="19">
         <v>6</v>
       </c>
-      <c r="X5" s="101">
+      <c r="X5" s="70">
         <v>0</v>
       </c>
       <c r="Y5" s="21">
@@ -10256,13 +9834,13 @@
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="88" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="18">
@@ -10325,7 +9903,7 @@
       <c r="W6" s="19">
         <v>4</v>
       </c>
-      <c r="X6" s="101">
+      <c r="X6" s="70">
         <v>0</v>
       </c>
       <c r="Y6" s="21">
@@ -10429,13 +10007,13 @@
       </c>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="88" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="18">
@@ -10498,7 +10076,7 @@
       <c r="W7" s="19">
         <v>10</v>
       </c>
-      <c r="X7" s="101">
+      <c r="X7" s="70">
         <v>0</v>
       </c>
       <c r="Y7" s="21">
@@ -10602,13 +10180,13 @@
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="88" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="18">
@@ -10671,7 +10249,7 @@
       <c r="W8" s="19">
         <v>9</v>
       </c>
-      <c r="X8" s="101">
+      <c r="X8" s="70">
         <v>0</v>
       </c>
       <c r="Y8" s="21">
@@ -10775,13 +10353,13 @@
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="88" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="18">
@@ -10844,7 +10422,7 @@
       <c r="W9" s="19">
         <v>8</v>
       </c>
-      <c r="X9" s="101">
+      <c r="X9" s="70">
         <v>0</v>
       </c>
       <c r="Y9" s="21">
@@ -10948,13 +10526,13 @@
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="88" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="18">
@@ -11017,7 +10595,7 @@
       <c r="W10" s="19">
         <v>4</v>
       </c>
-      <c r="X10" s="101">
+      <c r="X10" s="70">
         <v>0</v>
       </c>
       <c r="Y10" s="21">
@@ -11121,13 +10699,13 @@
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A11" s="40">
+      <c r="A11" s="36">
         <v>22</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="88" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="18">
@@ -11190,7 +10768,7 @@
       <c r="W11" s="19">
         <v>8</v>
       </c>
-      <c r="X11" s="101">
+      <c r="X11" s="70">
         <v>0</v>
       </c>
       <c r="Y11" s="21">
@@ -11294,13 +10872,13 @@
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A12" s="40">
+      <c r="A12" s="36">
         <v>23</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="125" t="s">
+      <c r="C12" s="88" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="18">
@@ -11363,7 +10941,7 @@
       <c r="W12" s="19">
         <v>7</v>
       </c>
-      <c r="X12" s="101">
+      <c r="X12" s="70">
         <v>0</v>
       </c>
       <c r="Y12" s="21">
@@ -11467,13 +11045,13 @@
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A13" s="40">
+      <c r="A13" s="36">
         <v>24</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="125" t="s">
+      <c r="C13" s="88" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="18">
@@ -11536,7 +11114,7 @@
       <c r="W13" s="19">
         <v>9</v>
       </c>
-      <c r="X13" s="101">
+      <c r="X13" s="70">
         <v>0</v>
       </c>
       <c r="Y13" s="21">
@@ -11640,13 +11218,13 @@
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A14" s="40">
+      <c r="A14" s="36">
         <v>25</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="125" t="s">
+      <c r="C14" s="88" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="18">
@@ -11709,7 +11287,7 @@
       <c r="W14" s="19">
         <v>8</v>
       </c>
-      <c r="X14" s="101">
+      <c r="X14" s="70">
         <v>0</v>
       </c>
       <c r="Y14" s="21">
@@ -11813,13 +11391,13 @@
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="18">
@@ -11882,7 +11460,7 @@
       <c r="W15" s="19">
         <v>8</v>
       </c>
-      <c r="X15" s="101">
+      <c r="X15" s="70">
         <v>0</v>
       </c>
       <c r="Y15" s="21">
@@ -11986,13 +11564,13 @@
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="18">
@@ -12055,7 +11633,7 @@
       <c r="W16" s="19">
         <v>5</v>
       </c>
-      <c r="X16" s="101">
+      <c r="X16" s="70">
         <v>0</v>
       </c>
       <c r="Y16" s="21">
@@ -12159,13 +11737,13 @@
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="18">
@@ -12228,7 +11806,7 @@
       <c r="W17" s="19">
         <v>5</v>
       </c>
-      <c r="X17" s="101">
+      <c r="X17" s="70">
         <v>0</v>
       </c>
       <c r="Y17" s="21">
@@ -12332,13 +11910,13 @@
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="18">
@@ -12401,7 +11979,7 @@
       <c r="W18" s="19">
         <v>2</v>
       </c>
-      <c r="X18" s="101">
+      <c r="X18" s="70">
         <v>0</v>
       </c>
       <c r="Y18" s="21">
@@ -12505,13 +12083,13 @@
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="18">
@@ -12574,7 +12152,7 @@
       <c r="W19" s="19">
         <v>7</v>
       </c>
-      <c r="X19" s="101">
+      <c r="X19" s="70">
         <v>0</v>
       </c>
       <c r="Y19" s="21">
@@ -12678,13 +12256,13 @@
       </c>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="18">
@@ -12747,7 +12325,7 @@
       <c r="W20" s="19">
         <v>10</v>
       </c>
-      <c r="X20" s="101">
+      <c r="X20" s="70">
         <v>0</v>
       </c>
       <c r="Y20" s="21">
@@ -12851,13 +12429,13 @@
       </c>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="18">
@@ -12920,7 +12498,7 @@
       <c r="W21" s="19">
         <v>4</v>
       </c>
-      <c r="X21" s="101">
+      <c r="X21" s="70">
         <v>0</v>
       </c>
       <c r="Y21" s="21">
@@ -13024,13 +12602,13 @@
       </c>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="18">
@@ -13093,7 +12671,7 @@
       <c r="W22" s="19">
         <v>8</v>
       </c>
-      <c r="X22" s="101">
+      <c r="X22" s="70">
         <v>0</v>
       </c>
       <c r="Y22" s="21">
@@ -13197,13 +12775,13 @@
       </c>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D23" s="18">
@@ -13266,7 +12844,7 @@
       <c r="W23" s="19">
         <v>4</v>
       </c>
-      <c r="X23" s="101">
+      <c r="X23" s="70">
         <v>0</v>
       </c>
       <c r="Y23" s="21">
@@ -13370,13 +12948,13 @@
       </c>
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="18">
@@ -13439,7 +13017,7 @@
       <c r="W24" s="19">
         <v>5</v>
       </c>
-      <c r="X24" s="101">
+      <c r="X24" s="70">
         <v>0</v>
       </c>
       <c r="Y24" s="21">
@@ -13543,13 +13121,13 @@
       </c>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A25" s="40">
+      <c r="A25" s="36">
         <v>21</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="18">
@@ -13612,7 +13190,7 @@
       <c r="W25" s="19">
         <v>6</v>
       </c>
-      <c r="X25" s="101">
+      <c r="X25" s="70">
         <v>0</v>
       </c>
       <c r="Y25" s="21">
@@ -13716,13 +13294,13 @@
       </c>
     </row>
     <row r="26" spans="1:53" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40">
+      <c r="A26" s="36">
         <v>26</v>
       </c>
-      <c r="B26" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="42" t="s">
+      <c r="B26" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="18">
@@ -13785,7 +13363,7 @@
       <c r="W26" s="19">
         <v>9</v>
       </c>
-      <c r="X26" s="101">
+      <c r="X26" s="70">
         <v>0</v>
       </c>
       <c r="Y26" s="21">
@@ -13888,502 +13466,502 @@
         <v>0.66666666666666607</v>
       </c>
     </row>
-    <row r="27" spans="1:53" s="34" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="89"/>
-      <c r="C27" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="37">
+    <row r="27" spans="1:53" s="31" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="96"/>
+      <c r="C27" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="34">
         <f>SUM(D3:D26)</f>
         <v>964</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="31">
         <f>SUM(E3:E26)</f>
         <v>402</v>
       </c>
-      <c r="F27" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="34">
+      <c r="F27" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="31">
         <f>COUNTIF(G3:G26, "=0")</f>
         <v>21</v>
       </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="J27" s="34">
+      <c r="H27" s="35"/>
+      <c r="I27" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" s="31">
         <f>COUNTIF(J3:J26, "=1")</f>
         <v>11</v>
       </c>
-      <c r="K27" s="39"/>
-      <c r="L27" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="M27" s="34">
+      <c r="K27" s="35"/>
+      <c r="L27" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="M27" s="31">
         <f>COUNTIF(M3:M26, "=2")</f>
         <v>14</v>
       </c>
-      <c r="N27" s="39"/>
-      <c r="O27" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="P27" s="34">
+      <c r="N27" s="35"/>
+      <c r="O27" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" s="31">
         <f>COUNTIF(P3:P26, "=0")</f>
         <v>20</v>
       </c>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="S27" s="34">
+      <c r="Q27" s="35"/>
+      <c r="R27" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="S27" s="31">
         <f>COUNTIF(S3:S26, "=1")</f>
         <v>16</v>
       </c>
-      <c r="T27" s="39"/>
-      <c r="U27" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="V27" s="34">
+      <c r="T27" s="35"/>
+      <c r="U27" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="V27" s="31">
         <f>COUNTIF(V3:V26, "=2")</f>
         <v>16</v>
       </c>
-      <c r="W27" s="39"/>
-      <c r="X27" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y27" s="34">
+      <c r="W27" s="35"/>
+      <c r="X27" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y27" s="31">
         <f>COUNTIF(Y3:Y26, "=0")</f>
         <v>22</v>
       </c>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB27" s="34">
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB27" s="31">
         <f>COUNTIF(AB3:AB26, "=1")</f>
         <v>23</v>
       </c>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE27" s="34">
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE27" s="31">
         <f>COUNTIF(AE3:AE26, "=2")</f>
         <v>21</v>
       </c>
-      <c r="AF27" s="39"/>
-      <c r="AG27" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH27" s="34">
+      <c r="AF27" s="35"/>
+      <c r="AG27" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH27" s="31">
         <f>COUNTIF(AH3:AH26, "=0")</f>
         <v>21</v>
       </c>
-      <c r="AI27" s="39"/>
-      <c r="AJ27" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK27" s="34">
+      <c r="AI27" s="35"/>
+      <c r="AJ27" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK27" s="31">
         <f>COUNTIF(AK3:AK26, "=1")</f>
         <v>20</v>
       </c>
-      <c r="AL27" s="39"/>
-      <c r="AM27" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN27" s="34">
+      <c r="AL27" s="35"/>
+      <c r="AM27" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN27" s="31">
         <f>COUNTIF(AN3:AN26, "=2")</f>
         <v>24</v>
       </c>
-      <c r="AO27" s="39"/>
-      <c r="AP27" s="63">
+      <c r="AO27" s="35"/>
+      <c r="AP27" s="34">
         <f>SUM(AP3:AP26)</f>
         <v>46</v>
       </c>
-      <c r="AQ27" s="38">
+      <c r="AQ27" s="31">
         <f>SUM(AQ3:AQ26)</f>
         <v>52</v>
       </c>
-      <c r="AR27" s="38">
+      <c r="AR27" s="31">
         <f>SUM(AR3:AR26)</f>
         <v>66</v>
       </c>
-      <c r="AS27" s="38">
+      <c r="AS27" s="31">
         <f>SUM(AS3:AS26)</f>
         <v>65</v>
       </c>
-      <c r="AT27" s="119">
+      <c r="AT27" s="82">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="AU27" s="120">
+      <c r="AU27" s="83">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="AV27" s="64"/>
-      <c r="AW27" s="35"/>
-      <c r="AX27" s="35"/>
-      <c r="AY27" s="35"/>
-      <c r="AZ27" s="35"/>
-      <c r="BA27" s="39"/>
-    </row>
-    <row r="28" spans="1:53" s="34" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="90"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="94" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="117">
+      <c r="AV27" s="58"/>
+      <c r="AW27" s="32"/>
+      <c r="AX27" s="32"/>
+      <c r="AY27" s="32"/>
+      <c r="AZ27" s="32"/>
+      <c r="BA27" s="35"/>
+    </row>
+    <row r="28" spans="1:53" s="31" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="97"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="80">
         <f>AVERAGE(D3:D26)</f>
         <v>40.166666666666664</v>
       </c>
-      <c r="E28" s="118">
+      <c r="E28" s="81">
         <f>AVERAGE(E3:E26)</f>
         <v>16.75</v>
       </c>
-      <c r="F28" s="108"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="96">
+      <c r="F28" s="71"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="67">
         <f>AVERAGE(H3:H26)</f>
         <v>6.833333333333333</v>
       </c>
-      <c r="I28" s="108"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="96">
+      <c r="I28" s="71"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="67">
         <f>AVERAGE(K3:K26)</f>
         <v>4.416666666666667</v>
       </c>
-      <c r="L28" s="108"/>
-      <c r="M28" s="109"/>
-      <c r="N28" s="96">
+      <c r="L28" s="71"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="67">
         <f>AVERAGE(N3:N26)</f>
         <v>5.791666666666667</v>
       </c>
-      <c r="O28" s="108"/>
-      <c r="P28" s="109"/>
-      <c r="Q28" s="96">
+      <c r="O28" s="71"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="67">
         <f>AVERAGE(Q3:Q26)</f>
         <v>7.458333333333333</v>
       </c>
-      <c r="R28" s="108"/>
-      <c r="S28" s="109"/>
-      <c r="T28" s="96">
+      <c r="R28" s="71"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="67">
         <f>AVERAGE(T3:T26)</f>
         <v>6.583333333333333</v>
       </c>
-      <c r="U28" s="108"/>
-      <c r="V28" s="109"/>
-      <c r="W28" s="96">
+      <c r="U28" s="71"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="67">
         <f>AVERAGE(W3:W26)</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="X28" s="109"/>
-      <c r="Y28" s="109"/>
-      <c r="Z28" s="95">
+      <c r="X28" s="72"/>
+      <c r="Y28" s="72"/>
+      <c r="Z28" s="66">
         <f>AVERAGE(Z3:Z26)</f>
         <v>8.5416666666666661</v>
       </c>
-      <c r="AA28" s="108"/>
-      <c r="AB28" s="109"/>
-      <c r="AC28" s="96">
+      <c r="AA28" s="71"/>
+      <c r="AB28" s="72"/>
+      <c r="AC28" s="67">
         <f>AVERAGE(AC3:AC26)</f>
         <v>8.0416666666666661</v>
       </c>
-      <c r="AD28" s="108"/>
-      <c r="AE28" s="109"/>
-      <c r="AF28" s="96">
+      <c r="AD28" s="71"/>
+      <c r="AE28" s="72"/>
+      <c r="AF28" s="67">
         <f>AVERAGE(AF3:AF26)</f>
         <v>8.2083333333333339</v>
       </c>
-      <c r="AG28" s="108"/>
-      <c r="AH28" s="109"/>
-      <c r="AI28" s="96">
+      <c r="AG28" s="71"/>
+      <c r="AH28" s="72"/>
+      <c r="AI28" s="67">
         <f>AVERAGE(AI3:AI26)</f>
         <v>7.458333333333333</v>
       </c>
-      <c r="AJ28" s="108"/>
-      <c r="AK28" s="109"/>
-      <c r="AL28" s="96">
+      <c r="AJ28" s="71"/>
+      <c r="AK28" s="72"/>
+      <c r="AL28" s="67">
         <f>AVERAGE(AL3:AL26)</f>
         <v>8.4583333333333339</v>
       </c>
-      <c r="AM28" s="108"/>
-      <c r="AN28" s="109"/>
-      <c r="AO28" s="96">
+      <c r="AM28" s="71"/>
+      <c r="AN28" s="72"/>
+      <c r="AO28" s="67">
         <f>AVERAGE(AO3:AO26)</f>
         <v>8.5416666666666661</v>
       </c>
-      <c r="AP28" s="37">
+      <c r="AP28" s="34">
         <f>AVERAGE(AP3:AP26)</f>
         <v>1.9166666666666667</v>
       </c>
-      <c r="AQ28" s="34">
-        <f t="shared" ref="AQ28:AU30" si="12">AVERAGE(AQ3:AQ26)</f>
+      <c r="AQ28" s="31">
+        <f t="shared" ref="AQ28:AU28" si="12">AVERAGE(AQ3:AQ26)</f>
         <v>2.1666666666666665</v>
       </c>
-      <c r="AR28" s="34">
+      <c r="AR28" s="31">
         <f t="shared" si="12"/>
         <v>2.75</v>
       </c>
-      <c r="AS28" s="34">
+      <c r="AS28" s="31">
         <f t="shared" si="12"/>
         <v>2.7083333333333335</v>
       </c>
-      <c r="AT28" s="119">
+      <c r="AT28" s="82">
         <f t="shared" si="12"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AU28" s="120">
+      <c r="AU28" s="83">
         <f t="shared" si="12"/>
         <v>0.54166666666666663</v>
       </c>
-      <c r="AV28" s="37">
+      <c r="AV28" s="34">
         <f>AVERAGE(H28,K28,N28)</f>
         <v>5.6805555555555562</v>
       </c>
-      <c r="AW28" s="34">
+      <c r="AW28" s="31">
         <f>AVERAGE(Q28,T28,W28)</f>
         <v>6.9027777777777777</v>
       </c>
-      <c r="AX28" s="34">
+      <c r="AX28" s="31">
         <f>AVERAGE(Z28,AC28,AF28)</f>
         <v>8.2638888888888875</v>
       </c>
-      <c r="AY28" s="34">
+      <c r="AY28" s="31">
         <f>AVERAGE(AI28,AL28,AO28)</f>
         <v>8.1527777777777786</v>
       </c>
-      <c r="AZ28" s="119">
+      <c r="AZ28" s="82">
         <f>AX28-AV28</f>
         <v>2.5833333333333313</v>
       </c>
-      <c r="BA28" s="120">
+      <c r="BA28" s="83">
         <f>AY28-AW28</f>
         <v>1.2500000000000009</v>
       </c>
     </row>
-    <row r="29" spans="1:53" s="110" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="90"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="114">
+    <row r="29" spans="1:53" s="73" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="77">
         <f>AVERAGE(D3:D14)</f>
         <v>39.083333333333336</v>
       </c>
-      <c r="E29" s="115">
+      <c r="E29" s="78">
         <f>AVERAGE(E3:E14)</f>
         <v>15.583333333333334</v>
       </c>
-      <c r="F29" s="108"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="96">
+      <c r="F29" s="71"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="67">
         <f>AVERAGE(H3:H14)</f>
         <v>6.5</v>
       </c>
-      <c r="I29" s="108"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="96">
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="67">
         <f>AVERAGE(K3:K14)</f>
         <v>4.583333333333333</v>
       </c>
-      <c r="L29" s="108"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="96">
+      <c r="L29" s="71"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="67">
         <f>AVERAGE(N3:N14)</f>
         <v>6.583333333333333</v>
       </c>
-      <c r="O29" s="108"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="96">
+      <c r="O29" s="71"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="67">
         <f>AVERAGE(Q3:Q14)</f>
         <v>7.5</v>
       </c>
-      <c r="R29" s="108"/>
-      <c r="S29" s="109"/>
-      <c r="T29" s="96">
+      <c r="R29" s="71"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="67">
         <f>AVERAGE(T3:T14)</f>
         <v>6.75</v>
       </c>
-      <c r="U29" s="108"/>
-      <c r="V29" s="109"/>
-      <c r="W29" s="96">
+      <c r="U29" s="71"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="67">
         <f>AVERAGE(W3:W14)</f>
         <v>7.25</v>
       </c>
-      <c r="X29" s="109"/>
-      <c r="Y29" s="109"/>
-      <c r="Z29" s="95">
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="66">
         <f>AVERAGE(Z3:Z14)</f>
         <v>8.9166666666666661</v>
       </c>
-      <c r="AA29" s="108"/>
-      <c r="AB29" s="109"/>
-      <c r="AC29" s="96">
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="67">
         <f>AVERAGE(AC3:AC14)</f>
         <v>7.833333333333333</v>
       </c>
-      <c r="AD29" s="108"/>
-      <c r="AE29" s="109"/>
-      <c r="AF29" s="96">
+      <c r="AD29" s="71"/>
+      <c r="AE29" s="72"/>
+      <c r="AF29" s="67">
         <f>AVERAGE(AF3:AF14)</f>
         <v>8.5833333333333339</v>
       </c>
-      <c r="AG29" s="108"/>
-      <c r="AH29" s="109"/>
-      <c r="AI29" s="96">
+      <c r="AG29" s="71"/>
+      <c r="AH29" s="72"/>
+      <c r="AI29" s="67">
         <f>AVERAGE(AI3:AI14)</f>
         <v>8.6666666666666661</v>
       </c>
-      <c r="AJ29" s="108"/>
-      <c r="AK29" s="109"/>
-      <c r="AL29" s="96">
+      <c r="AJ29" s="71"/>
+      <c r="AK29" s="72"/>
+      <c r="AL29" s="67">
         <f>AVERAGE(AL3:AL14)</f>
         <v>8.8333333333333339</v>
       </c>
-      <c r="AM29" s="108"/>
-      <c r="AN29" s="109"/>
-      <c r="AO29" s="96">
+      <c r="AM29" s="71"/>
+      <c r="AN29" s="72"/>
+      <c r="AO29" s="67">
         <f>AVERAGE(AO3:AO14)</f>
         <v>9.25</v>
       </c>
-      <c r="AP29" s="108"/>
-      <c r="AQ29" s="109"/>
-      <c r="AR29" s="109"/>
-      <c r="AS29" s="109"/>
-      <c r="AT29" s="119">
+      <c r="AP29" s="71"/>
+      <c r="AQ29" s="72"/>
+      <c r="AR29" s="72"/>
+      <c r="AS29" s="72"/>
+      <c r="AT29" s="82">
         <f>AVERAGE(AT3:AT14)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AU29" s="120">
+      <c r="AU29" s="83">
         <f>AVERAGE(AU3:AU14)</f>
         <v>1</v>
       </c>
-      <c r="AV29" s="37">
+      <c r="AV29" s="34">
         <f t="shared" ref="AV29:AV30" si="13">AVERAGE(H29,K29,N29)</f>
         <v>5.8888888888888884</v>
       </c>
-      <c r="AW29" s="34">
+      <c r="AW29" s="31">
         <f t="shared" ref="AW29:AW30" si="14">AVERAGE(Q29,T29,W29)</f>
         <v>7.166666666666667</v>
       </c>
-      <c r="AX29" s="34">
+      <c r="AX29" s="31">
         <f t="shared" ref="AX29:AX30" si="15">AVERAGE(Z29,AC29,AF29)</f>
         <v>8.4444444444444446</v>
       </c>
-      <c r="AY29" s="34">
+      <c r="AY29" s="31">
         <f t="shared" ref="AY29:AY30" si="16">AVERAGE(AI29,AL29,AO29)</f>
         <v>8.9166666666666661</v>
       </c>
-      <c r="AZ29" s="119">
+      <c r="AZ29" s="82">
         <f t="shared" ref="AZ29:AZ30" si="17">AX29-AV29</f>
         <v>2.5555555555555562</v>
       </c>
-      <c r="BA29" s="120">
+      <c r="BA29" s="83">
         <f t="shared" ref="BA29:BA30" si="18">AY29-AW29</f>
         <v>1.7499999999999991</v>
       </c>
     </row>
-    <row r="30" spans="1:53" s="113" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="92"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="116">
+    <row r="30" spans="1:53" s="76" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="99"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="79">
         <f>AVERAGE(D15:D26)</f>
         <v>41.25</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E30" s="29">
         <f>AVERAGE(E15:E26)</f>
         <v>17.916666666666668</v>
       </c>
-      <c r="F30" s="111"/>
-      <c r="G30" s="112"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="75"/>
       <c r="H30" s="27">
         <f>AVERAGE(H15:H26)</f>
         <v>7.166666666666667</v>
       </c>
-      <c r="I30" s="111"/>
-      <c r="J30" s="112"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="75"/>
       <c r="K30" s="27">
         <f>AVERAGE(K15:K26)</f>
         <v>4.25</v>
       </c>
-      <c r="L30" s="111"/>
-      <c r="M30" s="112"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="75"/>
       <c r="N30" s="27">
         <f>AVERAGE(N15:N26)</f>
         <v>5</v>
       </c>
-      <c r="O30" s="111"/>
-      <c r="P30" s="112"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="75"/>
       <c r="Q30" s="27">
         <f>AVERAGE(Q15:Q26)</f>
         <v>7.416666666666667</v>
       </c>
-      <c r="R30" s="111"/>
-      <c r="S30" s="112"/>
+      <c r="R30" s="74"/>
+      <c r="S30" s="75"/>
       <c r="T30" s="27">
         <f>AVERAGE(T15:T26)</f>
         <v>6.416666666666667</v>
       </c>
-      <c r="U30" s="111"/>
-      <c r="V30" s="112"/>
+      <c r="U30" s="74"/>
+      <c r="V30" s="75"/>
       <c r="W30" s="27">
         <f>AVERAGE(W15:W26)</f>
         <v>6.083333333333333</v>
       </c>
-      <c r="X30" s="112"/>
-      <c r="Y30" s="112"/>
-      <c r="Z30" s="32">
+      <c r="X30" s="75"/>
+      <c r="Y30" s="75"/>
+      <c r="Z30" s="29">
         <f>AVERAGE(Z15:Z26)</f>
         <v>8.1666666666666661</v>
       </c>
-      <c r="AA30" s="111"/>
-      <c r="AB30" s="112"/>
+      <c r="AA30" s="74"/>
+      <c r="AB30" s="75"/>
       <c r="AC30" s="27">
         <f>AVERAGE(AC15:AC26)</f>
         <v>8.25</v>
       </c>
-      <c r="AD30" s="111"/>
-      <c r="AE30" s="112"/>
+      <c r="AD30" s="74"/>
+      <c r="AE30" s="75"/>
       <c r="AF30" s="27">
         <f>AVERAGE(AF15:AF26)</f>
         <v>7.833333333333333</v>
       </c>
-      <c r="AG30" s="111"/>
-      <c r="AH30" s="112"/>
+      <c r="AG30" s="74"/>
+      <c r="AH30" s="75"/>
       <c r="AI30" s="27">
         <f>AVERAGE(AI15:AI26)</f>
         <v>6.25</v>
       </c>
-      <c r="AJ30" s="111"/>
-      <c r="AK30" s="112"/>
+      <c r="AJ30" s="74"/>
+      <c r="AK30" s="75"/>
       <c r="AL30" s="27">
         <f>AVERAGE(AL15:AL26)</f>
         <v>8.0833333333333339</v>
       </c>
-      <c r="AM30" s="111"/>
-      <c r="AN30" s="112"/>
+      <c r="AM30" s="74"/>
+      <c r="AN30" s="75"/>
       <c r="AO30" s="27">
         <f>AVERAGE(AO15:AO26)</f>
         <v>7.833333333333333</v>
       </c>
-      <c r="AP30" s="111"/>
-      <c r="AQ30" s="112"/>
-      <c r="AR30" s="112"/>
-      <c r="AS30" s="112"/>
-      <c r="AT30" s="121">
+      <c r="AP30" s="74"/>
+      <c r="AQ30" s="75"/>
+      <c r="AR30" s="75"/>
+      <c r="AS30" s="75"/>
+      <c r="AT30" s="84">
         <f>AVERAGE(AT15:AT26)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AU30" s="122">
+      <c r="AU30" s="85">
         <f>AVERAGE(AU15:AU26)</f>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -14403,11 +13981,11 @@
         <f t="shared" si="16"/>
         <v>7.3888888888888893</v>
       </c>
-      <c r="AZ30" s="121">
+      <c r="AZ30" s="84">
         <f t="shared" si="17"/>
         <v>2.6111111111111098</v>
       </c>
-      <c r="BA30" s="122">
+      <c r="BA30" s="85">
         <f t="shared" si="18"/>
         <v>0.75</v>
       </c>
@@ -14415,65 +13993,97 @@
     <row r="31" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B31"/>
       <c r="C31"/>
-      <c r="AT31" s="97"/>
-      <c r="AU31" s="97"/>
+      <c r="AT31" s="68"/>
+      <c r="AU31" s="68"/>
     </row>
     <row r="32" spans="1:53" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
-      <c r="AT32" s="98"/>
-      <c r="AU32" s="98"/>
+      <c r="D32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="AH32"/>
+      <c r="AI32"/>
+      <c r="AT32" s="68"/>
+      <c r="AU32" s="68"/>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A33" s="126" t="s">
+      <c r="A33" s="122" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="123" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="124" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="AH33"/>
+      <c r="AI33"/>
+      <c r="AT33" s="101" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU33" s="102"/>
+    </row>
+    <row r="34" spans="1:47" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="125" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="126" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="126"/>
-      <c r="C33" s="127" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="127" t="s">
-        <v>37</v>
-      </c>
-      <c r="AT33" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU33" s="103"/>
-    </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A34" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="AT34" s="104"/>
-      <c r="AU34" s="105"/>
+      <c r="D34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
+      <c r="AT34" s="103"/>
+      <c r="AU34" s="104"/>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="AT35" s="104"/>
-      <c r="AU35" s="105"/>
+      <c r="D35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
+      <c r="AT35" s="103"/>
+      <c r="AU35" s="104"/>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="AT36" s="104"/>
-      <c r="AU36" s="105"/>
+      <c r="D36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+      <c r="AT36" s="103"/>
+      <c r="AU36" s="104"/>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="AT37" s="104"/>
-      <c r="AU37" s="105"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="AT37" s="103"/>
+      <c r="AU37" s="104"/>
     </row>
     <row r="38" spans="1:47" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AT38" s="106"/>
-      <c r="AU38" s="107"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="AT38" s="105"/>
+      <c r="AU38" s="106"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="10">
     <mergeCell ref="AP1:AU1"/>
     <mergeCell ref="AV1:BA1"/>
     <mergeCell ref="A27:B30"/>
@@ -14484,8 +14094,6 @@
     <mergeCell ref="O1:W1"/>
     <mergeCell ref="X1:AF1"/>
     <mergeCell ref="AG1:AO1"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="AT3:AU26 AZ3:BA27">
@@ -14501,13 +14109,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT3:AU26 AZ3:BA26">
-    <cfRule type="cellIs" dxfId="44" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/notebooks/user_data/response_book.xlsx
+++ b/notebooks/user_data/response_book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liamroy/Documents/Studies/Monash_31194990/PHD/repos/RL_audio/notebooks/user_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE0E74D-35B5-8F41-9851-301D0EC6E662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA992278-0075-D543-BF92-AE32AF92D2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/notebooks/user_data/response_book.xlsx
+++ b/notebooks/user_data/response_book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liamroy/Documents/Studies/Monash_31194990/PHD/repos/RL_audio/notebooks/user_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9BAA95-F15E-2C49-8BCA-6FC8150F320D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F2EF81-5F7B-714D-9DA9-A0ACE0C17737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="-1140" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35840" yWindow="-640" windowWidth="38400" windowHeight="21100" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="extra_box_plots" sheetId="40" r:id="rId1"/>
@@ -50,26 +50,37 @@
     <sheet name="user_26" sheetId="28" r:id="rId35"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'results no ref'!$Q$38:$Q$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'results no ref'!$R$38:$R$106</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'results no ref'!$Q$38:$Q$106</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'results no ref'!$R$38:$R$106</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'results no ref'!$I$38:$I$85</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'results no ref'!$J$38:$J$85</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'results no ref'!$C$38:$C$133</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'results no ref'!$D$38:$D$133</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'results no ref'!$I$38:$I$85</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'results no ref'!$J$38:$J$85</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'results no ref'!$I$38:$I$85</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'results no ref'!$J$38:$J$85</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'results no ref'!$Q$38:$Q$106</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'results no ref'!$R$38:$R$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'results no ref'!$Q$38:$Q$106</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'results no ref'!$R$38:$R$106</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'results no ref'!$Q$38:$Q$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'results no ref'!$R$38:$R$106</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'results no ref'!$I$38:$I$85</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'results no ref'!$J$38:$J$85</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'results no ref'!$AN$40:$AN$183</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'results no ref'!$AO$40:$AO$183</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'results no ref'!$R$37:$R$108</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'results no ref'!$R$37:$R$38</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'results no ref'!$R$37:$R$43</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'results no ref'!$R$38:$R$108</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'results no ref'!$S$37:$S$43</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'results no ref'!$AN$40:$AN$183</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'results no ref'!$AO$40:$AO$183</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'results no ref'!$Q$37:$Q$108</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'results no ref'!$R$37:$R$108</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'results no ref'!$Q$37:$Q$108</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'results no ref'!$Q$37:$Q$108</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'results no ref'!$R$37:$R$108</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'results no ref'!$AN$40:$AN$183</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'results no ref'!$AO$40:$AO$183</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'results no ref'!$Q$37:$Q$108</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'results no ref'!$R$37:$R$108</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'results no ref'!$I$38:$I$85</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'results no ref'!$J$38:$J$85</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'results no ref'!$C$38:$C$133</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'results no ref'!$D$38:$D$133</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'results no ref'!$I$38:$I$85</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'results no ref'!$R$37:$R$108</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'results no ref'!$J$38:$J$85</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'results no ref'!$Q$37:$Q$108</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'results no ref'!$R$37:$R$108</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'results no ref'!$Q$37:$Q$108</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'results no ref'!$Q$37:$Q$38</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'results no ref'!$Q$37:$Q$43</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'results no ref'!$Q$38:$Q$108</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="131">
   <si>
     <t>user_ID</t>
   </si>
@@ -474,12 +485,39 @@
   <si>
     <t>Spot (1B/3B)</t>
   </si>
+  <si>
+    <t>Jackal (1A/3A)
+Before</t>
+  </si>
+  <si>
+    <t>Spot (1B/3B)
+Before</t>
+  </si>
+  <si>
+    <t>Average 
+Before</t>
+  </si>
+  <si>
+    <t>Average 
+After</t>
+  </si>
+  <si>
+    <t>Jackal (1A/3A)
+After</t>
+  </si>
+  <si>
+    <t>Spot (1B/3B)
+After</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -533,6 +571,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="22">
@@ -903,7 +947,7 @@
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1231,6 +1275,12 @@
     <xf numFmtId="10" fontId="1" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1330,11 +1380,14 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1343,37 +1396,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1475,12 +1498,12 @@
     </indexedColors>
     <mruColors>
       <color rgb="FFC11AFF"/>
+      <color rgb="FFFDFF84"/>
       <color rgb="FFE2A2FF"/>
       <color rgb="FFDAA40E"/>
       <color rgb="FF6BE2C8"/>
       <color rgb="FFC4B100"/>
       <color rgb="FF00C7E3"/>
-      <color rgb="FFFDFF84"/>
       <color rgb="FF98A1FF"/>
       <color rgb="FF98C3FF"/>
       <color rgb="FFEABFFF"/>
@@ -1839,7 +1862,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'results no ref'!$AT$3:$AT$27</c:f>
+              <c:f>'results no ref'!$AV$3:$AV$27</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2028,7 +2051,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'results no ref'!$AU$3:$AU$27</c:f>
+              <c:f>'results no ref'!$AW$3:$AW$27</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2217,7 +2240,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'results no ref'!$AV$3:$AV$27</c:f>
+              <c:f>'results no ref'!$AX$3:$AX$27</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2803,7 +2826,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'results no ref'!$BD$3:$BD$27</c:f>
+              <c:f>'results no ref'!$BF$3:$BF$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2992,7 +3015,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'results no ref'!$BE$3:$BE$27</c:f>
+              <c:f>'results no ref'!$BG$3:$BG$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3181,7 +3204,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'results no ref'!$BF$3:$BF$27</c:f>
+              <c:f>'results no ref'!$BH$3:$BH$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3591,10 +3614,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.26</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3759,10 +3782,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3779,7 +3802,7 @@
                 <a:effectLst/>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>   Change in Correctly Identified</a:t>
+              <a:t>     Delta Correctly Identified</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3801,7 +3824,7 @@
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{B1C06F72-06CB-7046-B84E-A9BFCC8CD1CC}">
+        <cx:series layoutId="boxWhisker" uniqueId="{59E77C95-CC12-BF4B-BFD3-F8FABC1099EE}">
           <cx:spPr>
             <a:solidFill>
               <a:srgbClr val="C11AFF"/>
@@ -3814,7 +3837,6 @@
           </cx:spPr>
           <cx:dataId val="0"/>
           <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -3851,10 +3873,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr rtl="0">
-                  <a:defRPr sz="2400"/>
+                  <a:defRPr sz="2400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-CA" sz="2300" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
                     <a:effectLst/>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
@@ -3862,6 +3891,9 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-CA" sz="2300" b="0" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
                     <a:effectLst/>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
@@ -3870,9 +3902,16 @@
               </a:p>
               <a:p>
                 <a:pPr rtl="0">
-                  <a:defRPr sz="2400"/>
+                  <a:defRPr sz="2400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-CA" sz="1000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                 </a:endParaRPr>
@@ -3913,10 +3952,160 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="3200" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>   Number of Correctly Identified</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr rtl="0"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="3200" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>      States in Sect 1 and Sect 3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA" sz="3200">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{9AB52B0A-F845-B24E-9759-49B29D73D397}">
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" nonoutliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr rtl="0">
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="2100" b="0" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Total Correctly Identified States</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr lvl="1" rtl="0">
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-CA" sz="1000">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:minorTickMarks type="in"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.27</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.28</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4062,15 +4251,15 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.30</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4413,6 +4602,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6513,7 +6742,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6524,7 +6753,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -6547,7 +6776,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -6570,7 +6799,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6578,11 +6807,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -6607,36 +6836,53 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6651,10 +6897,8 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -6662,9 +6906,12 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -6674,13 +6921,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6699,18 +6946,16 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -6781,12 +7026,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -6818,8 +7057,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6874,7 +7113,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -6902,7 +7141,18 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -6912,12 +7162,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
+          <a:srgbClr val="D9D9D9"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -6933,7 +7180,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6949,7 +7196,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6963,7 +7210,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -6996,7 +7243,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -7005,12 +7252,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -7518,11 +7759,514 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{39CCC346-9133-AE4A-AC60-C6A401C2F677}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="171" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="167" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7533,7 +8277,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3EB709A1-F884-AD42-AF7A-DC99FC76498A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="171" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="167" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7544,7 +8288,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BFF20DC5-A0A0-3D46-89C4-37F7EEDF5A53}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="171" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="167" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7566,16 +8310,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>187739</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>174487</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>176695</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>53009</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>769453</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>28713</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>693530</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>94974</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -7611,8 +8355,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9298609" y="3366052"/>
-              <a:ext cx="5551279" cy="5486400"/>
+              <a:off x="11772347" y="9252226"/>
+              <a:ext cx="5486400" cy="5486400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7644,16 +8388,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>97990</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>13290</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>385121</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>35377</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>700964</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>55255</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>530895</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>77342</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -7689,8 +8433,86 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="15006686" y="3392594"/>
-              <a:ext cx="6400800" cy="5486400"/>
+              <a:off x="5354686" y="9234594"/>
+              <a:ext cx="5943600" cy="5486400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>408609</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>700157</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>141357</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Chart 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5AD2E2D-C40E-644E-9A21-F1EDA7805ABE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5378174" y="3666435"/>
+              <a:ext cx="11887200" cy="5486400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7793,7 +8615,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DD2BD46-1692-22FD-83AA-D0107A509731}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A419778-B618-9A07-B7CB-B3CCDEE7355A}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -7904,7 +8726,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F4812D-4BAC-D4D5-31A4-FA467E5CBC48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CE0683A-2880-00CE-91FF-90273CF738EF}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -7949,7 +8771,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674620" cy="6283158"/>
+    <xdr:ext cx="8669461" cy="6281557"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8310,8 +9132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689A3AC2-F3FD-CC43-AE33-71A4AAE7341C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="J16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O52" sqref="O52"/>
+    <sheetView topLeftCell="D30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W60" sqref="W60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12293,7 +13115,7 @@
   <dimension ref="A1:AL32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AL21" sqref="AL21"/>
@@ -16162,13 +16984,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371632C3-F948-294F-B34F-AE31BF1D8D0A}">
-  <dimension ref="A1:BF133"/>
+  <dimension ref="A1:BH204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AO17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="AM8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AR34" sqref="AR34"/>
+      <selection pane="bottomRight" activeCell="AL161" sqref="AL161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -16179,87 +17001,89 @@
     <col min="4" max="4" width="12" style="13" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="41" width="12" style="13" customWidth="1"/>
-    <col min="42" max="45" width="13.33203125" style="13" customWidth="1"/>
-    <col min="46" max="48" width="14.33203125" style="13" customWidth="1"/>
-    <col min="49" max="52" width="13.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="53" max="55" width="12.83203125" style="13" customWidth="1"/>
-    <col min="56" max="16384" width="10.83203125" style="13"/>
+    <col min="42" max="47" width="13.33203125" style="13" customWidth="1"/>
+    <col min="48" max="50" width="14.33203125" style="13" customWidth="1"/>
+    <col min="51" max="54" width="13.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="12.83203125" style="13" customWidth="1"/>
+    <col min="58" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="17" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:60" s="17" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="131" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="132"/>
-      <c r="F1" s="133" t="s">
+      <c r="E1" s="134"/>
+      <c r="F1" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="136" t="s">
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="138"/>
-      <c r="X1" s="139" t="s">
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="140"/>
+      <c r="X1" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="140"/>
-      <c r="AA1" s="140"/>
-      <c r="AB1" s="140"/>
-      <c r="AC1" s="140"/>
-      <c r="AD1" s="140"/>
-      <c r="AE1" s="140"/>
-      <c r="AF1" s="141"/>
-      <c r="AG1" s="142" t="s">
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="142"/>
+      <c r="AA1" s="142"/>
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="142"/>
+      <c r="AD1" s="142"/>
+      <c r="AE1" s="142"/>
+      <c r="AF1" s="143"/>
+      <c r="AG1" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="AH1" s="143"/>
-      <c r="AI1" s="143"/>
-      <c r="AJ1" s="143"/>
-      <c r="AK1" s="143"/>
-      <c r="AL1" s="143"/>
-      <c r="AM1" s="143"/>
-      <c r="AN1" s="143"/>
-      <c r="AO1" s="143"/>
-      <c r="AP1" s="111" t="s">
+      <c r="AH1" s="145"/>
+      <c r="AI1" s="145"/>
+      <c r="AJ1" s="145"/>
+      <c r="AK1" s="145"/>
+      <c r="AL1" s="145"/>
+      <c r="AM1" s="145"/>
+      <c r="AN1" s="145"/>
+      <c r="AO1" s="145"/>
+      <c r="AP1" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="AQ1" s="112"/>
-      <c r="AR1" s="112"/>
-      <c r="AS1" s="112"/>
-      <c r="AT1" s="112"/>
-      <c r="AU1" s="113"/>
-      <c r="AV1" s="89"/>
-      <c r="AW1" s="114" t="s">
+      <c r="AQ1" s="114"/>
+      <c r="AR1" s="114"/>
+      <c r="AS1" s="114"/>
+      <c r="AT1" s="114"/>
+      <c r="AU1" s="114"/>
+      <c r="AV1" s="114"/>
+      <c r="AW1" s="115"/>
+      <c r="AX1" s="89"/>
+      <c r="AY1" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="AX1" s="115"/>
-      <c r="AY1" s="115"/>
-      <c r="AZ1" s="115"/>
-      <c r="BA1" s="115"/>
-      <c r="BB1" s="116"/>
-      <c r="BC1" s="101"/>
-    </row>
-    <row r="2" spans="1:58" s="40" customFormat="1" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AZ1" s="117"/>
+      <c r="BA1" s="117"/>
+      <c r="BB1" s="117"/>
+      <c r="BC1" s="117"/>
+      <c r="BD1" s="118"/>
+      <c r="BE1" s="101"/>
+    </row>
+    <row r="2" spans="1:60" s="40" customFormat="1" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>79</v>
       </c>
@@ -16389,45 +17213,51 @@
       <c r="AQ2" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="AR2" s="54" t="s">
+      <c r="AR2" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS2" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="AS2" s="55" t="s">
+      <c r="AT2" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="AT2" s="62" t="s">
+      <c r="AU2" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV2" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="AU2" s="69" t="s">
+      <c r="AW2" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="AV2" s="97" t="s">
+      <c r="AX2" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="AW2" s="41" t="s">
+      <c r="AY2" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AX2" s="53" t="s">
+      <c r="AZ2" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="AY2" s="54" t="s">
+      <c r="BA2" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="AZ2" s="55" t="s">
+      <c r="BB2" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="BA2" s="63" t="s">
+      <c r="BC2" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="BB2" s="64" t="s">
+      <c r="BD2" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="BC2" s="102" t="s">
+      <c r="BE2" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="BD2" s="56"/>
-    </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BF2" s="56"/>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
         <v>9</v>
       </c>
@@ -16559,68 +17389,76 @@
         <f>COUNTIF(P3,"=0")+COUNTIF(S3,"=1")+COUNTIF(V3,"=2")</f>
         <v>3</v>
       </c>
-      <c r="AR3" s="21">
+      <c r="AR3" s="146">
+        <f>AVERAGE(AP3:AQ3)</f>
+        <v>3</v>
+      </c>
+      <c r="AS3" s="21">
         <f>COUNTIF(Y3,"=0")+COUNTIF(AB3,"=1")+COUNTIF(AE3,"=2")</f>
         <v>3</v>
       </c>
-      <c r="AS3" s="21">
+      <c r="AT3" s="21">
         <f>COUNTIF(AH3,"=0")+COUNTIF(AK3,"=1")+COUNTIF(AN3,"=2")</f>
         <v>3</v>
       </c>
-      <c r="AT3" s="21">
-        <f>AR3-AP3</f>
-        <v>0</v>
-      </c>
-      <c r="AU3" s="19">
-        <f>AS3-AQ3</f>
-        <v>0</v>
-      </c>
-      <c r="AV3" s="19">
-        <f>SUM(AT3, AU3)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AW3" s="22">
+      <c r="AU3" s="146">
+        <f>AVERAGE(AS3:AT3)</f>
+        <v>3</v>
+      </c>
+      <c r="AV3" s="21">
+        <f>AS3-AP3</f>
+        <v>0</v>
+      </c>
+      <c r="AW3" s="19">
+        <f>AT3-AQ3</f>
+        <v>0</v>
+      </c>
+      <c r="AX3" s="19">
+        <f>SUM(AV3, AW3)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AY3" s="22">
         <f>AVERAGE(H3,K3,N3)</f>
         <v>7.333333333333333</v>
       </c>
-      <c r="AX3" s="23">
+      <c r="AZ3" s="23">
         <f>AVERAGE(Q3,T3,W3)</f>
         <v>7.666666666666667</v>
       </c>
-      <c r="AY3" s="23">
+      <c r="BA3" s="23">
         <f>AVERAGE(Z3,AC3,AF3)</f>
         <v>9.6666666666666661</v>
       </c>
-      <c r="AZ3" s="23">
+      <c r="BB3" s="23">
         <f>AVERAGE(AI3,AL3,AO3)</f>
         <v>9.6666666666666661</v>
       </c>
-      <c r="BA3" s="23">
-        <f>AY3-AW3</f>
+      <c r="BC3" s="23">
+        <f>BA3-AY3</f>
         <v>2.333333333333333</v>
       </c>
-      <c r="BB3" s="24">
-        <f>AZ3-AX3</f>
+      <c r="BD3" s="24">
+        <f>BB3-AZ3</f>
         <v>1.9999999999999991</v>
       </c>
-      <c r="BC3" s="103">
-        <f>AVERAGE(BA3:BB3)</f>
+      <c r="BE3" s="103">
+        <f>AVERAGE(BC3:BD3)</f>
         <v>2.1666666666666661</v>
       </c>
-      <c r="BD3" s="110">
-        <f>BA3/10</f>
+      <c r="BF3" s="110">
+        <f>BC3/10</f>
         <v>0.23333333333333331</v>
       </c>
-      <c r="BE3" s="110">
-        <f t="shared" ref="BE3:BF18" si="0">BB3/10</f>
+      <c r="BG3" s="110">
+        <f t="shared" ref="BG3:BH18" si="0">BD3/10</f>
         <v>0.1999999999999999</v>
       </c>
-      <c r="BF3" s="110">
+      <c r="BH3" s="110">
         <f t="shared" si="0"/>
         <v>0.21666666666666662</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
         <v>11</v>
       </c>
@@ -16752,68 +17590,76 @@
         <f t="shared" ref="AQ4:AQ26" si="2">COUNTIF(P4,"=0")+COUNTIF(S4,"=1")+COUNTIF(V4,"=2")</f>
         <v>1</v>
       </c>
-      <c r="AR4" s="21">
-        <f t="shared" ref="AR4:AR26" si="3">COUNTIF(Y4,"=0")+COUNTIF(AB4,"=1")+COUNTIF(AE4,"=2")</f>
+      <c r="AR4" s="146">
+        <f t="shared" ref="AR4:AR26" si="3">AVERAGE(AP4:AQ4)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AS4" s="21">
+        <f t="shared" ref="AS4:AS26" si="4">COUNTIF(Y4,"=0")+COUNTIF(AB4,"=1")+COUNTIF(AE4,"=2")</f>
         <v>3</v>
       </c>
-      <c r="AS4" s="21">
-        <f t="shared" ref="AS4:AS26" si="4">COUNTIF(AH4,"=0")+COUNTIF(AK4,"=1")+COUNTIF(AN4,"=2")</f>
+      <c r="AT4" s="21">
+        <f t="shared" ref="AT4:AT26" si="5">COUNTIF(AH4,"=0")+COUNTIF(AK4,"=1")+COUNTIF(AN4,"=2")</f>
         <v>3</v>
       </c>
-      <c r="AT4" s="21">
-        <f t="shared" ref="AT4:AT28" si="5">AR4-AP4</f>
-        <v>1</v>
-      </c>
-      <c r="AU4" s="19">
-        <f t="shared" ref="AU4:AU28" si="6">AS4-AQ4</f>
-        <v>2</v>
-      </c>
-      <c r="AV4" s="19">
-        <f t="shared" ref="AV4:AV26" si="7">SUM(AT4, AU4)/2</f>
+      <c r="AU4" s="146">
+        <f t="shared" ref="AU4:AU26" si="6">AVERAGE(AS4:AT4)</f>
+        <v>3</v>
+      </c>
+      <c r="AV4" s="21">
+        <f t="shared" ref="AV4:AV28" si="7">AS4-AP4</f>
+        <v>1</v>
+      </c>
+      <c r="AW4" s="19">
+        <f t="shared" ref="AW4:AW28" si="8">AT4-AQ4</f>
+        <v>2</v>
+      </c>
+      <c r="AX4" s="19">
+        <f t="shared" ref="AX4:AX26" si="9">SUM(AV4, AW4)/2</f>
         <v>1.5</v>
       </c>
-      <c r="AW4" s="22">
-        <f t="shared" ref="AW4:AW26" si="8">AVERAGE(H4,K4,N4)</f>
+      <c r="AY4" s="22">
+        <f t="shared" ref="AY4:AY26" si="10">AVERAGE(H4,K4,N4)</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="AX4" s="23">
-        <f t="shared" ref="AX4:AX26" si="9">AVERAGE(Q4,T4,W4)</f>
+      <c r="AZ4" s="23">
+        <f t="shared" ref="AZ4:AZ26" si="11">AVERAGE(Q4,T4,W4)</f>
         <v>6.333333333333333</v>
       </c>
-      <c r="AY4" s="23">
-        <f t="shared" ref="AY4:AY26" si="10">AVERAGE(Z4,AC4,AF4)</f>
+      <c r="BA4" s="23">
+        <f t="shared" ref="BA4:BA26" si="12">AVERAGE(Z4,AC4,AF4)</f>
         <v>9</v>
       </c>
-      <c r="AZ4" s="23">
-        <f t="shared" ref="AZ4:AZ26" si="11">AVERAGE(AI4,AL4,AO4)</f>
+      <c r="BB4" s="23">
+        <f t="shared" ref="BB4:BB26" si="13">AVERAGE(AI4,AL4,AO4)</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="BA4" s="23">
-        <f t="shared" ref="BA4:BA26" si="12">AY4-AW4</f>
+      <c r="BC4" s="23">
+        <f t="shared" ref="BC4:BC26" si="14">BA4-AY4</f>
         <v>3.333333333333333</v>
       </c>
-      <c r="BB4" s="24">
-        <f t="shared" ref="BB4:BB26" si="13">AZ4-AX4</f>
+      <c r="BD4" s="24">
+        <f t="shared" ref="BD4:BD26" si="15">BB4-AZ4</f>
         <v>2.0000000000000009</v>
       </c>
-      <c r="BC4" s="103">
-        <f t="shared" ref="BC4:BC27" si="14">AVERAGE(BA4:BB4)</f>
+      <c r="BE4" s="103">
+        <f t="shared" ref="BE4:BE27" si="16">AVERAGE(BC4:BD4)</f>
         <v>2.666666666666667</v>
       </c>
-      <c r="BD4" s="110">
-        <f t="shared" ref="BD4:BD27" si="15">BA4/10</f>
+      <c r="BF4" s="110">
+        <f t="shared" ref="BF4:BF27" si="17">BC4/10</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="BE4" s="110">
+      <c r="BG4" s="110">
         <f t="shared" si="0"/>
         <v>0.20000000000000009</v>
       </c>
-      <c r="BF4" s="110">
+      <c r="BH4" s="110">
         <f t="shared" si="0"/>
         <v>0.26666666666666672</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>12</v>
       </c>
@@ -16945,9 +17791,9 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AR5" s="21">
+      <c r="AR5" s="146">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS5" s="21">
         <f t="shared" si="4"/>
@@ -16955,58 +17801,66 @@
       </c>
       <c r="AT5" s="21">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AU5" s="19">
+        <v>3</v>
+      </c>
+      <c r="AU5" s="146">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AV5" s="19">
+        <v>3</v>
+      </c>
+      <c r="AV5" s="21">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AW5" s="22">
+        <v>2</v>
+      </c>
+      <c r="AW5" s="19">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AX5" s="19">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY5" s="22">
+        <f t="shared" si="10"/>
         <v>3.6666666666666665</v>
-      </c>
-      <c r="AX5" s="23">
-        <f t="shared" si="9"/>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="AY5" s="23">
-        <f t="shared" si="10"/>
-        <v>6</v>
       </c>
       <c r="AZ5" s="23">
         <f t="shared" si="11"/>
-        <v>8.6666666666666661</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="BA5" s="23">
         <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="BB5" s="23">
+        <f t="shared" si="13"/>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="BC5" s="23">
+        <f t="shared" si="14"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="BB5" s="24">
-        <f t="shared" si="13"/>
+      <c r="BD5" s="24">
+        <f t="shared" si="15"/>
         <v>1.333333333333333</v>
       </c>
-      <c r="BC5" s="103">
-        <f t="shared" si="14"/>
+      <c r="BE5" s="103">
+        <f t="shared" si="16"/>
         <v>1.8333333333333333</v>
       </c>
-      <c r="BD5" s="110">
-        <f t="shared" si="15"/>
+      <c r="BF5" s="110">
+        <f t="shared" si="17"/>
         <v>0.23333333333333334</v>
       </c>
-      <c r="BE5" s="110">
+      <c r="BG5" s="110">
         <f t="shared" si="0"/>
         <v>0.1333333333333333</v>
       </c>
-      <c r="BF5" s="110">
+      <c r="BH5" s="110">
         <f t="shared" si="0"/>
         <v>0.18333333333333332</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
         <v>13</v>
       </c>
@@ -17138,68 +17992,76 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AR6" s="21">
+      <c r="AR6" s="146">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AS6" s="21">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT6" s="21">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AU6" s="19">
+        <v>3</v>
+      </c>
+      <c r="AU6" s="146">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AV6" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="AV6" s="21">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AW6" s="22">
+      <c r="AW6" s="19">
         <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AX6" s="19">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY6" s="22">
+        <f t="shared" si="10"/>
         <v>4.666666666666667</v>
-      </c>
-      <c r="AX6" s="23">
-        <f t="shared" si="9"/>
-        <v>5.333333333333333</v>
-      </c>
-      <c r="AY6" s="23">
-        <f t="shared" si="10"/>
-        <v>6.333333333333333</v>
       </c>
       <c r="AZ6" s="23">
         <f t="shared" si="11"/>
-        <v>9.6666666666666661</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="BA6" s="23">
         <f t="shared" si="12"/>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="BB6" s="23">
+        <f t="shared" si="13"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="BC6" s="23">
+        <f t="shared" si="14"/>
         <v>1.6666666666666661</v>
       </c>
-      <c r="BB6" s="24">
-        <f t="shared" si="13"/>
+      <c r="BD6" s="24">
+        <f t="shared" si="15"/>
         <v>4.333333333333333</v>
       </c>
-      <c r="BC6" s="103">
-        <f t="shared" si="14"/>
+      <c r="BE6" s="103">
+        <f t="shared" si="16"/>
         <v>2.9999999999999996</v>
       </c>
-      <c r="BD6" s="110">
-        <f t="shared" si="15"/>
+      <c r="BF6" s="110">
+        <f t="shared" si="17"/>
         <v>0.1666666666666666</v>
       </c>
-      <c r="BE6" s="110">
+      <c r="BG6" s="110">
         <f t="shared" si="0"/>
         <v>0.43333333333333329</v>
       </c>
-      <c r="BF6" s="110">
+      <c r="BH6" s="110">
         <f t="shared" si="0"/>
         <v>0.29999999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
         <v>14</v>
       </c>
@@ -17331,9 +18193,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AR7" s="21">
+      <c r="AR7" s="146">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AS7" s="21">
         <f t="shared" si="4"/>
@@ -17341,58 +18203,66 @@
       </c>
       <c r="AT7" s="21">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AU7" s="19">
+        <v>3</v>
+      </c>
+      <c r="AU7" s="146">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AV7" s="19">
+        <v>3</v>
+      </c>
+      <c r="AV7" s="21">
         <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AW7" s="19">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AX7" s="19">
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="AW7" s="22">
-        <f t="shared" si="8"/>
+      <c r="AY7" s="22">
+        <f t="shared" si="10"/>
         <v>6.333333333333333</v>
-      </c>
-      <c r="AX7" s="23">
-        <f t="shared" si="9"/>
-        <v>8.6666666666666661</v>
-      </c>
-      <c r="AY7" s="23">
-        <f t="shared" si="10"/>
-        <v>9.6666666666666661</v>
       </c>
       <c r="AZ7" s="23">
         <f t="shared" si="11"/>
-        <v>9.3333333333333339</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="BA7" s="23">
         <f t="shared" si="12"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="BB7" s="23">
+        <f t="shared" si="13"/>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="BC7" s="23">
+        <f t="shared" si="14"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="BB7" s="24">
-        <f t="shared" si="13"/>
+      <c r="BD7" s="24">
+        <f t="shared" si="15"/>
         <v>0.66666666666666785</v>
       </c>
-      <c r="BC7" s="103">
-        <f t="shared" si="14"/>
+      <c r="BE7" s="103">
+        <f t="shared" si="16"/>
         <v>2.0000000000000004</v>
       </c>
-      <c r="BD7" s="110">
-        <f t="shared" si="15"/>
+      <c r="BF7" s="110">
+        <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="BE7" s="110">
+      <c r="BG7" s="110">
         <f t="shared" si="0"/>
         <v>6.6666666666666791E-2</v>
       </c>
-      <c r="BF7" s="110">
+      <c r="BH7" s="110">
         <f t="shared" si="0"/>
         <v>0.20000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
         <v>15</v>
       </c>
@@ -17524,9 +18394,9 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AR8" s="21">
+      <c r="AR8" s="146">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AS8" s="21">
         <f t="shared" si="4"/>
@@ -17534,58 +18404,66 @@
       </c>
       <c r="AT8" s="21">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AU8" s="19">
+        <v>3</v>
+      </c>
+      <c r="AU8" s="146">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AV8" s="19">
+        <v>3</v>
+      </c>
+      <c r="AV8" s="21">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AW8" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AX8" s="19">
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="AW8" s="22">
-        <f t="shared" si="8"/>
+      <c r="AY8" s="22">
+        <f t="shared" si="10"/>
         <v>6.666666666666667</v>
-      </c>
-      <c r="AX8" s="23">
-        <f t="shared" si="9"/>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="AY8" s="23">
-        <f t="shared" si="10"/>
-        <v>8.6666666666666661</v>
       </c>
       <c r="AZ8" s="23">
         <f t="shared" si="11"/>
-        <v>9.3333333333333339</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="BA8" s="23">
         <f t="shared" si="12"/>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="BB8" s="23">
+        <f t="shared" si="13"/>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="BC8" s="23">
+        <f t="shared" si="14"/>
         <v>1.9999999999999991</v>
       </c>
-      <c r="BB8" s="24">
-        <f t="shared" si="13"/>
+      <c r="BD8" s="24">
+        <f t="shared" si="15"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="BC8" s="103">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="BD8" s="110">
-        <f t="shared" si="15"/>
+      <c r="BE8" s="103">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="BF8" s="110">
+        <f t="shared" si="17"/>
         <v>0.1999999999999999</v>
       </c>
-      <c r="BE8" s="110">
+      <c r="BG8" s="110">
         <f t="shared" si="0"/>
         <v>0.20000000000000009</v>
       </c>
-      <c r="BF8" s="110">
+      <c r="BH8" s="110">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
         <v>16</v>
       </c>
@@ -17717,7 +18595,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AR9" s="21">
+      <c r="AR9" s="146">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -17727,58 +18605,66 @@
       </c>
       <c r="AT9" s="21">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AU9" s="146">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AV9" s="21">
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-      <c r="AU9" s="19">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AV9" s="19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AW9" s="22">
+      <c r="AW9" s="19">
         <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AX9" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AY9" s="22">
+        <f t="shared" si="10"/>
         <v>8</v>
-      </c>
-      <c r="AX9" s="23">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="AY9" s="23">
-        <f t="shared" si="10"/>
-        <v>9</v>
       </c>
       <c r="AZ9" s="23">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA9" s="23">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="BB9" s="24">
+        <v>9</v>
+      </c>
+      <c r="BB9" s="23">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="BC9" s="103">
+        <v>9</v>
+      </c>
+      <c r="BC9" s="23">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="BD9" s="110">
+      <c r="BD9" s="24">
         <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="BE9" s="103">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="BF9" s="110">
+        <f t="shared" si="17"/>
         <v>0.1</v>
       </c>
-      <c r="BE9" s="110">
+      <c r="BG9" s="110">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="BF9" s="110">
+      <c r="BH9" s="110">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
         <v>17</v>
       </c>
@@ -17910,9 +18796,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AR10" s="21">
+      <c r="AR10" s="146">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS10" s="21">
         <f t="shared" si="4"/>
@@ -17920,58 +18806,66 @@
       </c>
       <c r="AT10" s="21">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AU10" s="19">
+        <v>3</v>
+      </c>
+      <c r="AU10" s="146">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AV10" s="19">
+        <v>3</v>
+      </c>
+      <c r="AV10" s="21">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AW10" s="22">
+      <c r="AW10" s="19">
         <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AX10" s="19">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AY10" s="22">
+        <f t="shared" si="10"/>
         <v>2.6666666666666665</v>
-      </c>
-      <c r="AX10" s="23">
-        <f t="shared" si="9"/>
-        <v>6.333333333333333</v>
-      </c>
-      <c r="AY10" s="23">
-        <f t="shared" si="10"/>
-        <v>5.333333333333333</v>
       </c>
       <c r="AZ10" s="23">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="BA10" s="23">
         <f t="shared" si="12"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="BB10" s="23">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="BC10" s="23">
+        <f t="shared" si="14"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="BB10" s="24">
-        <f t="shared" si="13"/>
+      <c r="BD10" s="24">
+        <f t="shared" si="15"/>
         <v>-1.333333333333333</v>
       </c>
-      <c r="BC10" s="103">
-        <f t="shared" si="14"/>
+      <c r="BE10" s="103">
+        <f t="shared" si="16"/>
         <v>0.66666666666666674</v>
       </c>
-      <c r="BD10" s="110">
-        <f t="shared" si="15"/>
+      <c r="BF10" s="110">
+        <f t="shared" si="17"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="BE10" s="110">
+      <c r="BG10" s="110">
         <f t="shared" si="0"/>
         <v>-0.1333333333333333</v>
       </c>
-      <c r="BF10" s="110">
+      <c r="BH10" s="110">
         <f t="shared" si="0"/>
         <v>6.666666666666668E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" s="36">
         <v>22</v>
       </c>
@@ -18103,7 +18997,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AR11" s="21">
+      <c r="AR11" s="146">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -18113,58 +19007,66 @@
       </c>
       <c r="AT11" s="21">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AU11" s="19">
+        <v>3</v>
+      </c>
+      <c r="AU11" s="146">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AV11" s="19">
+        <v>3</v>
+      </c>
+      <c r="AV11" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AW11" s="22">
+      <c r="AW11" s="19">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AX11" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AY11" s="22">
+        <f t="shared" si="10"/>
         <v>7.333333333333333</v>
-      </c>
-      <c r="AX11" s="23">
-        <f t="shared" si="9"/>
-        <v>8.6666666666666661</v>
-      </c>
-      <c r="AY11" s="23">
-        <f t="shared" si="10"/>
-        <v>9.3333333333333339</v>
       </c>
       <c r="AZ11" s="23">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="BA11" s="23">
         <f t="shared" si="12"/>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="BB11" s="23">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="BC11" s="23">
+        <f t="shared" si="14"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="BB11" s="24">
-        <f t="shared" si="13"/>
+      <c r="BD11" s="24">
+        <f t="shared" si="15"/>
         <v>1.3333333333333339</v>
       </c>
-      <c r="BC11" s="103">
-        <f t="shared" si="14"/>
+      <c r="BE11" s="103">
+        <f t="shared" si="16"/>
         <v>1.6666666666666674</v>
       </c>
-      <c r="BD11" s="110">
-        <f t="shared" si="15"/>
+      <c r="BF11" s="110">
+        <f t="shared" si="17"/>
         <v>0.20000000000000009</v>
       </c>
-      <c r="BE11" s="110">
+      <c r="BG11" s="110">
         <f t="shared" si="0"/>
         <v>0.13333333333333339</v>
       </c>
-      <c r="BF11" s="110">
+      <c r="BH11" s="110">
         <f t="shared" si="0"/>
         <v>0.16666666666666674</v>
       </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" s="36">
         <v>23</v>
       </c>
@@ -18296,9 +19198,9 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AR12" s="21">
+      <c r="AR12" s="146">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS12" s="21">
         <f t="shared" si="4"/>
@@ -18306,58 +19208,66 @@
       </c>
       <c r="AT12" s="21">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AU12" s="19">
+        <v>3</v>
+      </c>
+      <c r="AU12" s="146">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AV12" s="19">
+        <v>3</v>
+      </c>
+      <c r="AV12" s="21">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AW12" s="22">
+      <c r="AW12" s="19">
         <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AX12" s="19">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY12" s="22">
+        <f t="shared" si="10"/>
         <v>5.333333333333333</v>
-      </c>
-      <c r="AX12" s="23">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="AY12" s="23">
-        <f t="shared" si="10"/>
-        <v>8.3333333333333339</v>
       </c>
       <c r="AZ12" s="23">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BA12" s="23">
         <f t="shared" si="12"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="BB12" s="23">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="BC12" s="23">
+        <f t="shared" si="14"/>
         <v>3.0000000000000009</v>
       </c>
-      <c r="BB12" s="24">
-        <f t="shared" si="13"/>
+      <c r="BD12" s="24">
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="BC12" s="103">
-        <f t="shared" si="14"/>
+      <c r="BE12" s="103">
+        <f t="shared" si="16"/>
         <v>3.0000000000000004</v>
       </c>
-      <c r="BD12" s="110">
-        <f t="shared" si="15"/>
+      <c r="BF12" s="110">
+        <f t="shared" si="17"/>
         <v>0.3000000000000001</v>
       </c>
-      <c r="BE12" s="110">
+      <c r="BG12" s="110">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="BF12" s="110">
+      <c r="BH12" s="110">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" s="36">
         <v>24</v>
       </c>
@@ -18489,9 +19399,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AR13" s="21">
+      <c r="AR13" s="146">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AS13" s="21">
         <f t="shared" si="4"/>
@@ -18501,56 +19411,64 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AU13" s="19">
+      <c r="AU13" s="146">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AV13" s="19">
+        <v>3</v>
+      </c>
+      <c r="AV13" s="21">
         <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AW13" s="19">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AX13" s="19">
+        <f t="shared" si="9"/>
         <v>2.5</v>
       </c>
-      <c r="AW13" s="22">
-        <f t="shared" si="8"/>
+      <c r="AY13" s="22">
+        <f t="shared" si="10"/>
         <v>6.333333333333333</v>
-      </c>
-      <c r="AX13" s="23">
-        <f t="shared" si="9"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="AY13" s="23">
-        <f t="shared" si="10"/>
-        <v>10</v>
       </c>
       <c r="AZ13" s="23">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="BA13" s="23">
         <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="BB13" s="23">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="BC13" s="23">
+        <f t="shared" si="14"/>
         <v>3.666666666666667</v>
       </c>
-      <c r="BB13" s="24">
-        <f t="shared" si="13"/>
+      <c r="BD13" s="24">
+        <f t="shared" si="15"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="BC13" s="103">
-        <f t="shared" si="14"/>
+      <c r="BE13" s="103">
+        <f t="shared" si="16"/>
         <v>3.5</v>
       </c>
-      <c r="BD13" s="110">
-        <f t="shared" si="15"/>
+      <c r="BF13" s="110">
+        <f t="shared" si="17"/>
         <v>0.3666666666666667</v>
       </c>
-      <c r="BE13" s="110">
+      <c r="BG13" s="110">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="BF13" s="110">
+      <c r="BH13" s="110">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" s="36">
         <v>25</v>
       </c>
@@ -18682,7 +19600,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AR14" s="21">
+      <c r="AR14" s="146">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -18692,58 +19610,66 @@
       </c>
       <c r="AT14" s="21">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AU14" s="19">
+        <v>3</v>
+      </c>
+      <c r="AU14" s="146">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AV14" s="19">
+        <v>3</v>
+      </c>
+      <c r="AV14" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AW14" s="22">
+      <c r="AW14" s="19">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AX14" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AY14" s="22">
+        <f t="shared" si="10"/>
         <v>6.666666666666667</v>
-      </c>
-      <c r="AX14" s="23">
-        <f t="shared" si="9"/>
-        <v>8.6666666666666661</v>
-      </c>
-      <c r="AY14" s="23">
-        <f t="shared" si="10"/>
-        <v>10</v>
       </c>
       <c r="AZ14" s="23">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="BA14" s="23">
         <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="BB14" s="23">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="BC14" s="23">
+        <f t="shared" si="14"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="BB14" s="24">
-        <f t="shared" si="13"/>
+      <c r="BD14" s="24">
+        <f t="shared" si="15"/>
         <v>1.3333333333333339</v>
       </c>
-      <c r="BC14" s="103">
-        <f t="shared" si="14"/>
+      <c r="BE14" s="103">
+        <f t="shared" si="16"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="BD14" s="110">
-        <f t="shared" si="15"/>
+      <c r="BF14" s="110">
+        <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="BE14" s="110">
+      <c r="BG14" s="110">
         <f t="shared" si="0"/>
         <v>0.13333333333333339</v>
       </c>
-      <c r="BF14" s="110">
+      <c r="BH14" s="110">
         <f t="shared" si="0"/>
         <v>0.23333333333333334</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
         <v>18</v>
       </c>
@@ -18875,7 +19801,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AR15" s="21">
+      <c r="AR15" s="146">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -18885,58 +19811,66 @@
       </c>
       <c r="AT15" s="21">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AU15" s="19">
+        <v>3</v>
+      </c>
+      <c r="AU15" s="146">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AV15" s="19">
+        <v>3</v>
+      </c>
+      <c r="AV15" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AW15" s="22">
+      <c r="AW15" s="19">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AX15" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AY15" s="22">
+        <f t="shared" si="10"/>
         <v>7.333333333333333</v>
-      </c>
-      <c r="AX15" s="23">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="AY15" s="23">
-        <f t="shared" si="10"/>
-        <v>10</v>
       </c>
       <c r="AZ15" s="23">
         <f t="shared" si="11"/>
-        <v>9.6666666666666661</v>
+        <v>9</v>
       </c>
       <c r="BA15" s="23">
         <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="BB15" s="23">
+        <f t="shared" si="13"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="BC15" s="23">
+        <f t="shared" si="14"/>
         <v>2.666666666666667</v>
       </c>
-      <c r="BB15" s="24">
-        <f t="shared" si="13"/>
+      <c r="BD15" s="24">
+        <f t="shared" si="15"/>
         <v>0.66666666666666607</v>
       </c>
-      <c r="BC15" s="103">
-        <f t="shared" si="14"/>
+      <c r="BE15" s="103">
+        <f t="shared" si="16"/>
         <v>1.6666666666666665</v>
       </c>
-      <c r="BD15" s="110">
-        <f t="shared" si="15"/>
+      <c r="BF15" s="110">
+        <f t="shared" si="17"/>
         <v>0.26666666666666672</v>
       </c>
-      <c r="BE15" s="110">
+      <c r="BG15" s="110">
         <f t="shared" si="0"/>
         <v>6.666666666666661E-2</v>
       </c>
-      <c r="BF15" s="110">
+      <c r="BH15" s="110">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
         <v>20</v>
       </c>
@@ -19066,68 +20000,76 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AR16" s="21">
+      <c r="AR16" s="146">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AS16" s="21">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT16" s="21">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AU16" s="19">
+        <v>3</v>
+      </c>
+      <c r="AU16" s="146">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AV16" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="AV16" s="21">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AW16" s="22">
+        <v>2</v>
+      </c>
+      <c r="AW16" s="19">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AX16" s="19">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY16" s="22">
+        <f t="shared" si="10"/>
         <v>2.5</v>
-      </c>
-      <c r="AX16" s="23">
-        <f t="shared" si="9"/>
-        <v>6.333333333333333</v>
-      </c>
-      <c r="AY16" s="23">
-        <f t="shared" si="10"/>
-        <v>8</v>
       </c>
       <c r="AZ16" s="23">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="BA16" s="23">
         <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="BB16" s="23">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="BC16" s="23">
+        <f t="shared" si="14"/>
         <v>5.5</v>
       </c>
-      <c r="BB16" s="24">
-        <f t="shared" si="13"/>
+      <c r="BD16" s="24">
+        <f t="shared" si="15"/>
         <v>0.66666666666666696</v>
       </c>
-      <c r="BC16" s="103">
-        <f t="shared" si="14"/>
+      <c r="BE16" s="103">
+        <f t="shared" si="16"/>
         <v>3.0833333333333335</v>
       </c>
-      <c r="BD16" s="110">
-        <f t="shared" si="15"/>
+      <c r="BF16" s="110">
+        <f t="shared" si="17"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="BE16" s="110">
+      <c r="BG16" s="110">
         <f t="shared" si="0"/>
         <v>6.6666666666666693E-2</v>
       </c>
-      <c r="BF16" s="110">
+      <c r="BH16" s="110">
         <f t="shared" si="0"/>
         <v>0.30833333333333335</v>
       </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
         <v>21</v>
       </c>
@@ -19259,68 +20201,76 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AR17" s="21">
+      <c r="AR17" s="146">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AS17" s="21">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT17" s="21">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AU17" s="19">
+        <v>2</v>
+      </c>
+      <c r="AU17" s="146">
         <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="AV17" s="21">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AW17" s="19">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="AV17" s="19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AW17" s="22">
-        <f t="shared" si="8"/>
+      <c r="AX17" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AY17" s="22">
+        <f t="shared" si="10"/>
         <v>5</v>
-      </c>
-      <c r="AX17" s="23">
-        <f t="shared" si="9"/>
-        <v>6.333333333333333</v>
-      </c>
-      <c r="AY17" s="23">
-        <f t="shared" si="10"/>
-        <v>9.6666666666666661</v>
       </c>
       <c r="AZ17" s="23">
         <f t="shared" si="11"/>
-        <v>9.3333333333333339</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="BA17" s="23">
         <f t="shared" si="12"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="BB17" s="23">
+        <f t="shared" si="13"/>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="BC17" s="23">
+        <f t="shared" si="14"/>
         <v>4.6666666666666661</v>
       </c>
-      <c r="BB17" s="24">
-        <f t="shared" si="13"/>
+      <c r="BD17" s="24">
+        <f t="shared" si="15"/>
         <v>3.0000000000000009</v>
       </c>
-      <c r="BC17" s="103">
-        <f t="shared" si="14"/>
+      <c r="BE17" s="103">
+        <f t="shared" si="16"/>
         <v>3.8333333333333335</v>
       </c>
-      <c r="BD17" s="110">
-        <f t="shared" si="15"/>
+      <c r="BF17" s="110">
+        <f t="shared" si="17"/>
         <v>0.46666666666666662</v>
       </c>
-      <c r="BE17" s="110">
+      <c r="BG17" s="110">
         <f t="shared" si="0"/>
         <v>0.3000000000000001</v>
       </c>
-      <c r="BF17" s="110">
+      <c r="BH17" s="110">
         <f t="shared" si="0"/>
         <v>0.38333333333333336</v>
       </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
         <v>22</v>
       </c>
@@ -19452,37 +20402,37 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AR18" s="21">
+      <c r="AR18" s="146">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AS18" s="21">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT18" s="21">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AU18" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="146">
         <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AV18" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AW18" s="19">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="AV18" s="19">
-        <f t="shared" si="7"/>
+      <c r="AX18" s="19">
+        <f t="shared" si="9"/>
         <v>-0.5</v>
       </c>
-      <c r="AW18" s="22">
-        <f t="shared" si="8"/>
+      <c r="AY18" s="22">
+        <f t="shared" si="10"/>
         <v>1.3333333333333333</v>
-      </c>
-      <c r="AX18" s="23">
-        <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="AY18" s="23">
-        <f t="shared" si="10"/>
-        <v>1.6666666666666667</v>
       </c>
       <c r="AZ18" s="23">
         <f t="shared" si="11"/>
@@ -19490,30 +20440,38 @@
       </c>
       <c r="BA18" s="23">
         <f t="shared" si="12"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="BB18" s="23">
+        <f t="shared" si="13"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="BC18" s="23">
+        <f t="shared" si="14"/>
         <v>0.33333333333333348</v>
       </c>
-      <c r="BB18" s="24">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BC18" s="103">
-        <f t="shared" si="14"/>
+      <c r="BD18" s="24">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BE18" s="103">
+        <f t="shared" si="16"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="BD18" s="110">
-        <f t="shared" si="15"/>
+      <c r="BF18" s="110">
+        <f t="shared" si="17"/>
         <v>3.3333333333333347E-2</v>
       </c>
-      <c r="BE18" s="110">
+      <c r="BG18" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BF18" s="110">
+      <c r="BH18" s="110">
         <f t="shared" si="0"/>
         <v>1.6666666666666673E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
         <v>23</v>
       </c>
@@ -19645,9 +20603,9 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AR19" s="21">
+      <c r="AR19" s="146">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AS19" s="21">
         <f t="shared" si="4"/>
@@ -19655,58 +20613,66 @@
       </c>
       <c r="AT19" s="21">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AU19" s="19">
+        <v>3</v>
+      </c>
+      <c r="AU19" s="146">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AV19" s="19">
+        <v>3</v>
+      </c>
+      <c r="AV19" s="21">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AW19" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AX19" s="19">
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="AW19" s="22">
-        <f t="shared" si="8"/>
+      <c r="AY19" s="22">
+        <f t="shared" si="10"/>
         <v>7.666666666666667</v>
-      </c>
-      <c r="AX19" s="23">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="AY19" s="23">
-        <f t="shared" si="10"/>
-        <v>10</v>
       </c>
       <c r="AZ19" s="23">
         <f t="shared" si="11"/>
-        <v>9.3333333333333339</v>
+        <v>7</v>
       </c>
       <c r="BA19" s="23">
         <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="BB19" s="23">
+        <f t="shared" si="13"/>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="BC19" s="23">
+        <f t="shared" si="14"/>
         <v>2.333333333333333</v>
       </c>
-      <c r="BB19" s="24">
-        <f t="shared" si="13"/>
+      <c r="BD19" s="24">
+        <f t="shared" si="15"/>
         <v>2.3333333333333339</v>
       </c>
-      <c r="BC19" s="103">
-        <f t="shared" si="14"/>
+      <c r="BE19" s="103">
+        <f t="shared" si="16"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="BD19" s="110">
-        <f t="shared" si="15"/>
+      <c r="BF19" s="110">
+        <f t="shared" si="17"/>
         <v>0.23333333333333331</v>
       </c>
-      <c r="BE19" s="110">
-        <f t="shared" ref="BE19:BE27" si="16">BB19/10</f>
+      <c r="BG19" s="110">
+        <f t="shared" ref="BG19:BG27" si="18">BD19/10</f>
         <v>0.23333333333333339</v>
       </c>
-      <c r="BF19" s="110">
-        <f t="shared" ref="BF19:BF27" si="17">BC19/10</f>
+      <c r="BH19" s="110">
+        <f t="shared" ref="BH19:BH27" si="19">BE19/10</f>
         <v>0.23333333333333334</v>
       </c>
     </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
         <v>24</v>
       </c>
@@ -19838,9 +20804,9 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AR20" s="21">
+      <c r="AR20" s="146">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AS20" s="21">
         <f t="shared" si="4"/>
@@ -19848,58 +20814,66 @@
       </c>
       <c r="AT20" s="21">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AU20" s="19">
+        <v>3</v>
+      </c>
+      <c r="AU20" s="146">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AV20" s="19">
+        <v>3</v>
+      </c>
+      <c r="AV20" s="21">
         <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AW20" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AX20" s="19">
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="AW20" s="22">
-        <f t="shared" si="8"/>
+      <c r="AY20" s="22">
+        <f t="shared" si="10"/>
         <v>8</v>
-      </c>
-      <c r="AX20" s="23">
-        <f t="shared" si="9"/>
-        <v>9.3333333333333339</v>
-      </c>
-      <c r="AY20" s="23">
-        <f t="shared" si="10"/>
-        <v>10</v>
       </c>
       <c r="AZ20" s="23">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="BA20" s="23">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="BB20" s="24">
+        <v>10</v>
+      </c>
+      <c r="BB20" s="23">
         <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="BC20" s="23">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="BD20" s="24">
+        <f t="shared" si="15"/>
         <v>0.66666666666666607</v>
       </c>
-      <c r="BC20" s="103">
-        <f t="shared" si="14"/>
+      <c r="BE20" s="103">
+        <f t="shared" si="16"/>
         <v>1.333333333333333</v>
-      </c>
-      <c r="BD20" s="110">
-        <f t="shared" si="15"/>
-        <v>0.2</v>
-      </c>
-      <c r="BE20" s="110">
-        <f t="shared" si="16"/>
-        <v>6.666666666666661E-2</v>
       </c>
       <c r="BF20" s="110">
         <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="BG20" s="110">
+        <f t="shared" si="18"/>
+        <v>6.666666666666661E-2</v>
+      </c>
+      <c r="BH20" s="110">
+        <f t="shared" si="19"/>
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
         <v>25</v>
       </c>
@@ -20031,9 +21005,9 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AR21" s="21">
+      <c r="AR21" s="146">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AS21" s="21">
         <f t="shared" si="4"/>
@@ -20041,58 +21015,66 @@
       </c>
       <c r="AT21" s="21">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AU21" s="19">
+        <v>3</v>
+      </c>
+      <c r="AU21" s="146">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AV21" s="19">
+        <v>3</v>
+      </c>
+      <c r="AV21" s="21">
         <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AW21" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AX21" s="19">
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="AW21" s="22">
-        <f t="shared" si="8"/>
+      <c r="AY21" s="22">
+        <f t="shared" si="10"/>
         <v>4.333333333333333</v>
-      </c>
-      <c r="AX21" s="23">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="AY21" s="23">
-        <f t="shared" si="10"/>
-        <v>8.3333333333333339</v>
       </c>
       <c r="AZ21" s="23">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA21" s="23">
         <f t="shared" si="12"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="BB21" s="23">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="BC21" s="23">
+        <f t="shared" si="14"/>
         <v>4.0000000000000009</v>
       </c>
-      <c r="BB21" s="24">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="BC21" s="103">
-        <f t="shared" si="14"/>
+      <c r="BD21" s="24">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="BE21" s="103">
+        <f t="shared" si="16"/>
         <v>2.5000000000000004</v>
-      </c>
-      <c r="BD21" s="110">
-        <f t="shared" si="15"/>
-        <v>0.40000000000000008</v>
-      </c>
-      <c r="BE21" s="110">
-        <f t="shared" si="16"/>
-        <v>0.1</v>
       </c>
       <c r="BF21" s="110">
         <f t="shared" si="17"/>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="BG21" s="110">
+        <f t="shared" si="18"/>
+        <v>0.1</v>
+      </c>
+      <c r="BH21" s="110">
+        <f t="shared" si="19"/>
         <v>0.25000000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
         <v>26</v>
       </c>
@@ -20224,7 +21206,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AR22" s="21">
+      <c r="AR22" s="146">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -20234,58 +21216,66 @@
       </c>
       <c r="AT22" s="21">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AU22" s="19">
+        <v>3</v>
+      </c>
+      <c r="AU22" s="146">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AV22" s="19">
+        <v>3</v>
+      </c>
+      <c r="AV22" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AW22" s="22">
+      <c r="AW22" s="19">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AX22" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AY22" s="22">
+        <f t="shared" si="10"/>
         <v>7.333333333333333</v>
-      </c>
-      <c r="AX22" s="23">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="AY22" s="23">
-        <f t="shared" si="10"/>
-        <v>9</v>
       </c>
       <c r="AZ22" s="23">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA22" s="23">
         <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="BB22" s="23">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="BC22" s="23">
+        <f t="shared" si="14"/>
         <v>1.666666666666667</v>
       </c>
-      <c r="BB22" s="24">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="BC22" s="103">
-        <f t="shared" si="14"/>
+      <c r="BD22" s="24">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="BE22" s="103">
+        <f t="shared" si="16"/>
         <v>1.3333333333333335</v>
-      </c>
-      <c r="BD22" s="110">
-        <f t="shared" si="15"/>
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="BE22" s="110">
-        <f t="shared" si="16"/>
-        <v>0.1</v>
       </c>
       <c r="BF22" s="110">
         <f t="shared" si="17"/>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="BG22" s="110">
+        <f t="shared" si="18"/>
+        <v>0.1</v>
+      </c>
+      <c r="BH22" s="110">
+        <f t="shared" si="19"/>
         <v>0.13333333333333336</v>
       </c>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
         <v>27</v>
       </c>
@@ -20417,9 +21407,9 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AR23" s="21">
+      <c r="AR23" s="146">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AS23" s="21">
         <f t="shared" si="4"/>
@@ -20427,58 +21417,66 @@
       </c>
       <c r="AT23" s="21">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AU23" s="19">
+        <v>3</v>
+      </c>
+      <c r="AU23" s="146">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AV23" s="19">
+        <v>3</v>
+      </c>
+      <c r="AV23" s="21">
         <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AW23" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AX23" s="19">
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="AW23" s="22">
-        <f t="shared" si="8"/>
+      <c r="AY23" s="22">
+        <f t="shared" si="10"/>
         <v>5.666666666666667</v>
-      </c>
-      <c r="AX23" s="23">
-        <f t="shared" si="9"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="AY23" s="23">
-        <f t="shared" si="10"/>
-        <v>6.333333333333333</v>
       </c>
       <c r="AZ23" s="23">
         <f t="shared" si="11"/>
-        <v>5.666666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="BA23" s="23">
         <f t="shared" si="12"/>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="BB23" s="23">
+        <f t="shared" si="13"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="BC23" s="23">
+        <f t="shared" si="14"/>
         <v>0.66666666666666607</v>
       </c>
-      <c r="BB23" s="24">
-        <f t="shared" si="13"/>
+      <c r="BD23" s="24">
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
-      <c r="BC23" s="103">
-        <f t="shared" si="14"/>
+      <c r="BE23" s="103">
+        <f t="shared" si="16"/>
         <v>-0.16666666666666696</v>
-      </c>
-      <c r="BD23" s="110">
-        <f t="shared" si="15"/>
-        <v>6.666666666666661E-2</v>
-      </c>
-      <c r="BE23" s="110">
-        <f t="shared" si="16"/>
-        <v>-0.1</v>
       </c>
       <c r="BF23" s="110">
         <f t="shared" si="17"/>
+        <v>6.666666666666661E-2</v>
+      </c>
+      <c r="BG23" s="110">
+        <f t="shared" si="18"/>
+        <v>-0.1</v>
+      </c>
+      <c r="BH23" s="110">
+        <f t="shared" si="19"/>
         <v>-1.6666666666666698E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
         <v>28</v>
       </c>
@@ -20610,9 +21608,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AR24" s="21">
+      <c r="AR24" s="146">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AS24" s="21">
         <f t="shared" si="4"/>
@@ -20620,58 +21618,66 @@
       </c>
       <c r="AT24" s="21">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AU24" s="19">
+        <v>3</v>
+      </c>
+      <c r="AU24" s="146">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AV24" s="19">
+        <v>3</v>
+      </c>
+      <c r="AV24" s="21">
         <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AW24" s="19">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AX24" s="19">
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="AW24" s="22">
-        <f t="shared" si="8"/>
+      <c r="AY24" s="22">
+        <f t="shared" si="10"/>
         <v>4.333333333333333</v>
-      </c>
-      <c r="AX24" s="23">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="AY24" s="23">
-        <f t="shared" si="10"/>
-        <v>8</v>
       </c>
       <c r="AZ24" s="23">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA24" s="23">
         <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="BB24" s="23">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="BC24" s="23">
+        <f t="shared" si="14"/>
         <v>3.666666666666667</v>
       </c>
-      <c r="BB24" s="24">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="BC24" s="103">
-        <f t="shared" si="14"/>
+      <c r="BD24" s="24">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="BE24" s="103">
+        <f t="shared" si="16"/>
         <v>2.8333333333333335</v>
-      </c>
-      <c r="BD24" s="110">
-        <f t="shared" si="15"/>
-        <v>0.3666666666666667</v>
-      </c>
-      <c r="BE24" s="110">
-        <f t="shared" si="16"/>
-        <v>0.2</v>
       </c>
       <c r="BF24" s="110">
         <f t="shared" si="17"/>
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="BG24" s="110">
+        <f t="shared" si="18"/>
+        <v>0.2</v>
+      </c>
+      <c r="BH24" s="110">
+        <f t="shared" si="19"/>
         <v>0.28333333333333333</v>
       </c>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A25" s="36">
         <v>21</v>
       </c>
@@ -20803,68 +21809,76 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AR25" s="21">
+      <c r="AR25" s="146">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AS25" s="21">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT25" s="21">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AU25" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU25" s="146">
         <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AV25" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AW25" s="19">
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
-      <c r="AV25" s="19">
-        <f t="shared" si="7"/>
+      <c r="AX25" s="19">
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="AW25" s="22">
-        <f t="shared" si="8"/>
+      <c r="AY25" s="22">
+        <f t="shared" si="10"/>
         <v>5</v>
-      </c>
-      <c r="AX25" s="23">
-        <f t="shared" si="9"/>
-        <v>5.333333333333333</v>
-      </c>
-      <c r="AY25" s="23">
-        <f t="shared" si="10"/>
-        <v>7.333333333333333</v>
       </c>
       <c r="AZ25" s="23">
         <f t="shared" si="11"/>
-        <v>3.3333333333333335</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="BA25" s="23">
         <f t="shared" si="12"/>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="BB25" s="23">
+        <f t="shared" si="13"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="BC25" s="23">
+        <f t="shared" si="14"/>
         <v>2.333333333333333</v>
       </c>
-      <c r="BB25" s="24">
-        <f t="shared" si="13"/>
+      <c r="BD25" s="24">
+        <f t="shared" si="15"/>
         <v>-1.9999999999999996</v>
       </c>
-      <c r="BC25" s="103">
-        <f t="shared" si="14"/>
+      <c r="BE25" s="103">
+        <f t="shared" si="16"/>
         <v>0.16666666666666674</v>
-      </c>
-      <c r="BD25" s="110">
-        <f t="shared" si="15"/>
-        <v>0.23333333333333331</v>
-      </c>
-      <c r="BE25" s="110">
-        <f t="shared" si="16"/>
-        <v>-0.19999999999999996</v>
       </c>
       <c r="BF25" s="110">
         <f t="shared" si="17"/>
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="BG25" s="110">
+        <f t="shared" si="18"/>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="BH25" s="110">
+        <f t="shared" si="19"/>
         <v>1.6666666666666673E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:58" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:60" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36">
         <v>26</v>
       </c>
@@ -20996,9 +22010,9 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AR26" s="21">
+      <c r="AR26" s="146">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AS26" s="21">
         <f t="shared" si="4"/>
@@ -21006,58 +22020,66 @@
       </c>
       <c r="AT26" s="21">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AU26" s="19">
+        <v>3</v>
+      </c>
+      <c r="AU26" s="146">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AV26" s="19">
+        <v>3</v>
+      </c>
+      <c r="AV26" s="21">
         <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AW26" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AX26" s="19">
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="AW26" s="22">
-        <f t="shared" si="8"/>
+      <c r="AY26" s="22">
+        <f t="shared" si="10"/>
         <v>5.666666666666667</v>
-      </c>
-      <c r="AX26" s="23">
-        <f t="shared" si="9"/>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="AY26" s="23">
-        <f t="shared" si="10"/>
-        <v>8.6666666666666661</v>
       </c>
       <c r="AZ26" s="23">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="BA26" s="23">
         <f t="shared" si="12"/>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="BB26" s="23">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="BC26" s="23">
+        <f t="shared" si="14"/>
         <v>2.9999999999999991</v>
       </c>
-      <c r="BB26" s="24">
-        <f t="shared" si="13"/>
+      <c r="BD26" s="24">
+        <f t="shared" si="15"/>
         <v>0.66666666666666607</v>
       </c>
-      <c r="BC26" s="103">
-        <f t="shared" si="14"/>
+      <c r="BE26" s="103">
+        <f t="shared" si="16"/>
         <v>1.8333333333333326</v>
-      </c>
-      <c r="BD26" s="110">
-        <f t="shared" si="15"/>
-        <v>0.29999999999999993</v>
-      </c>
-      <c r="BE26" s="110">
-        <f t="shared" si="16"/>
-        <v>6.666666666666661E-2</v>
       </c>
       <c r="BF26" s="110">
         <f t="shared" si="17"/>
+        <v>0.29999999999999993</v>
+      </c>
+      <c r="BG26" s="110">
+        <f t="shared" si="18"/>
+        <v>6.666666666666661E-2</v>
+      </c>
+      <c r="BH26" s="110">
+        <f t="shared" si="19"/>
         <v>0.18333333333333326</v>
       </c>
     </row>
-    <row r="27" spans="1:58" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:60" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
       <c r="B27" s="37" t="s">
         <v>119</v>
@@ -21105,52 +22127,54 @@
       <c r="AQ27" s="21"/>
       <c r="AR27" s="21"/>
       <c r="AS27" s="21"/>
-      <c r="AT27" s="82">
-        <f>AVERAGE(AT3:AT26)</f>
+      <c r="AT27" s="21"/>
+      <c r="AU27" s="21"/>
+      <c r="AV27" s="82">
+        <f>AVERAGE(AV3:AV26)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AU27" s="83">
-        <f>AVERAGE(AU3:AU26)</f>
+      <c r="AW27" s="83">
+        <f>AVERAGE(AW3:AW26)</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="AV27" s="24">
-        <f>AVERAGE(AV3:AV26)</f>
+      <c r="AX27" s="24">
+        <f>AVERAGE(AX3:AX26)</f>
         <v>0.6875</v>
       </c>
-      <c r="AW27" s="22"/>
-      <c r="AX27" s="23"/>
-      <c r="AY27" s="23"/>
+      <c r="AY27" s="22"/>
       <c r="AZ27" s="23"/>
-      <c r="BA27" s="23">
-        <f>AVERAGE(BA3:BA26)</f>
+      <c r="BA27" s="23"/>
+      <c r="BB27" s="23"/>
+      <c r="BC27" s="23">
+        <f>AVERAGE(BC3:BC26)</f>
         <v>2.6458333333333335</v>
       </c>
-      <c r="BB27" s="24">
-        <f>AVERAGE(BB3:BB26)</f>
+      <c r="BD27" s="24">
+        <f>AVERAGE(BD3:BD26)</f>
         <v>1.2499999999999998</v>
       </c>
-      <c r="BC27" s="103">
-        <f t="shared" si="14"/>
+      <c r="BE27" s="103">
+        <f t="shared" si="16"/>
         <v>1.9479166666666665</v>
-      </c>
-      <c r="BD27" s="110">
-        <f t="shared" si="15"/>
-        <v>0.26458333333333334</v>
-      </c>
-      <c r="BE27" s="110">
-        <f t="shared" si="16"/>
-        <v>0.12499999999999997</v>
       </c>
       <c r="BF27" s="110">
         <f t="shared" si="17"/>
+        <v>0.26458333333333334</v>
+      </c>
+      <c r="BG27" s="110">
+        <f t="shared" si="18"/>
+        <v>0.12499999999999997</v>
+      </c>
+      <c r="BH27" s="110">
+        <f t="shared" si="19"/>
         <v>0.19479166666666664</v>
       </c>
     </row>
-    <row r="28" spans="1:58" s="31" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="117" t="s">
+    <row r="28" spans="1:60" s="31" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="118"/>
+      <c r="B28" s="120"/>
       <c r="C28" s="33" t="s">
         <v>71</v>
       </c>
@@ -21266,37 +22290,37 @@
         <f>SUM(AQ3:AQ26)</f>
         <v>52</v>
       </c>
-      <c r="AR28" s="31">
-        <f>SUM(AR3:AR26)</f>
-        <v>66</v>
-      </c>
       <c r="AS28" s="31">
         <f>SUM(AS3:AS26)</f>
+        <v>66</v>
+      </c>
+      <c r="AT28" s="31">
+        <f>SUM(AT3:AT26)</f>
         <v>65</v>
       </c>
-      <c r="AT28" s="82">
-        <f t="shared" si="5"/>
+      <c r="AV28" s="82">
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="AU28" s="83">
-        <f t="shared" si="6"/>
+      <c r="AW28" s="83">
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="AV28" s="98">
-        <f t="shared" ref="AV28" si="18">SUM(AT28, AU28)</f>
+      <c r="AX28" s="98">
+        <f t="shared" ref="AX28" si="20">SUM(AV28, AW28)</f>
         <v>33</v>
       </c>
-      <c r="AW28" s="58"/>
-      <c r="AX28" s="32"/>
-      <c r="AY28" s="32"/>
+      <c r="AY28" s="58"/>
       <c r="AZ28" s="32"/>
       <c r="BA28" s="32"/>
-      <c r="BB28" s="35"/>
-      <c r="BC28" s="104"/>
-    </row>
-    <row r="29" spans="1:58" s="31" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="119"/>
-      <c r="B29" s="120"/>
+      <c r="BB28" s="32"/>
+      <c r="BC28" s="32"/>
+      <c r="BD28" s="35"/>
+      <c r="BE28" s="104"/>
+    </row>
+    <row r="29" spans="1:60" s="31" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="121"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="65" t="s">
         <v>103</v>
       </c>
@@ -21377,69 +22401,69 @@
       <c r="AM29" s="71"/>
       <c r="AN29" s="72"/>
       <c r="AO29" s="67">
-        <f t="shared" ref="AO29:AU29" si="19">AVERAGE(AO3:AO26)</f>
+        <f t="shared" ref="AO29:AW29" si="21">AVERAGE(AO3:AO26)</f>
         <v>8.5416666666666661</v>
       </c>
       <c r="AP29" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.9166666666666667</v>
       </c>
       <c r="AQ29" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="AR29" s="31">
-        <f t="shared" si="19"/>
+      <c r="AS29" s="31">
+        <f t="shared" si="21"/>
         <v>2.75</v>
       </c>
-      <c r="AS29" s="31">
-        <f t="shared" si="19"/>
+      <c r="AT29" s="31">
+        <f t="shared" si="21"/>
         <v>2.7083333333333335</v>
       </c>
-      <c r="AT29" s="82">
-        <f t="shared" si="19"/>
+      <c r="AV29" s="82">
+        <f t="shared" si="21"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AU29" s="83">
-        <f t="shared" si="19"/>
+      <c r="AW29" s="83">
+        <f t="shared" si="21"/>
         <v>0.54166666666666663</v>
       </c>
-      <c r="AV29" s="99">
-        <f>AVERAGE(AT29:AU29)</f>
+      <c r="AX29" s="99">
+        <f>AVERAGE(AV29:AW29)</f>
         <v>0.6875</v>
       </c>
-      <c r="AW29" s="34">
+      <c r="AY29" s="34">
         <f>AVERAGE(H29,K29,N29)</f>
         <v>5.6630434782608701</v>
       </c>
-      <c r="AX29" s="31">
+      <c r="AZ29" s="31">
         <f>AVERAGE(Q29,T29,W29)</f>
         <v>6.9027777777777777</v>
       </c>
-      <c r="AY29" s="31">
+      <c r="BA29" s="31">
         <f>AVERAGE(Z29,AC29,AF29)</f>
         <v>8.2638888888888875</v>
       </c>
-      <c r="AZ29" s="31">
+      <c r="BB29" s="31">
         <f>AVERAGE(AI29,AL29,AO29)</f>
         <v>8.1527777777777786</v>
       </c>
-      <c r="BA29" s="82">
-        <f>AY29-AW29</f>
+      <c r="BC29" s="82">
+        <f>BA29-AY29</f>
         <v>2.6008454106280174</v>
       </c>
-      <c r="BB29" s="83">
-        <f>AZ29-AX29</f>
+      <c r="BD29" s="83">
+        <f>BB29-AZ29</f>
         <v>1.2500000000000009</v>
       </c>
-      <c r="BC29" s="99">
-        <f>AVERAGE(BA29:BB29)</f>
+      <c r="BE29" s="99">
+        <f>AVERAGE(BC29:BD29)</f>
         <v>1.9254227053140092</v>
       </c>
     </row>
-    <row r="30" spans="1:58" s="73" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="119"/>
-      <c r="B30" s="120"/>
+    <row r="30" spans="1:60" s="73" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="121"/>
+      <c r="B30" s="122"/>
       <c r="C30" s="65" t="s">
         <v>104</v>
       </c>
@@ -21527,50 +22551,52 @@
       <c r="AQ30" s="72"/>
       <c r="AR30" s="72"/>
       <c r="AS30" s="72"/>
-      <c r="AT30" s="82">
-        <f>AVERAGE(AT3:AT14)</f>
+      <c r="AT30" s="72"/>
+      <c r="AU30" s="72"/>
+      <c r="AV30" s="82">
+        <f>AVERAGE(AV3:AV14)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AU30" s="83">
-        <f>AVERAGE(AU3:AU14)</f>
-        <v>1</v>
-      </c>
-      <c r="AV30" s="99">
-        <f t="shared" ref="AV30:AV31" si="20">AVERAGE(AT30:AU30)</f>
+      <c r="AW30" s="83">
+        <f>AVERAGE(AW3:AW14)</f>
+        <v>1</v>
+      </c>
+      <c r="AX30" s="99">
+        <f t="shared" ref="AX30:AX31" si="22">AVERAGE(AV30:AW30)</f>
         <v>0.91666666666666674</v>
       </c>
-      <c r="AW30" s="34">
-        <f t="shared" ref="AW30:AW31" si="21">AVERAGE(H30,K30,N30)</f>
+      <c r="AY30" s="34">
+        <f t="shared" ref="AY30:AY31" si="23">AVERAGE(H30,K30,N30)</f>
         <v>5.8888888888888884</v>
       </c>
-      <c r="AX30" s="31">
-        <f t="shared" ref="AX30:AX31" si="22">AVERAGE(Q30,T30,W30)</f>
+      <c r="AZ30" s="31">
+        <f t="shared" ref="AZ30:AZ31" si="24">AVERAGE(Q30,T30,W30)</f>
         <v>7.166666666666667</v>
       </c>
-      <c r="AY30" s="31">
-        <f t="shared" ref="AY30:AY31" si="23">AVERAGE(Z30,AC30,AF30)</f>
+      <c r="BA30" s="31">
+        <f t="shared" ref="BA30:BA31" si="25">AVERAGE(Z30,AC30,AF30)</f>
         <v>8.4444444444444446</v>
       </c>
-      <c r="AZ30" s="31">
-        <f t="shared" ref="AZ30:AZ31" si="24">AVERAGE(AI30,AL30,AO30)</f>
+      <c r="BB30" s="31">
+        <f t="shared" ref="BB30:BB31" si="26">AVERAGE(AI30,AL30,AO30)</f>
         <v>8.9166666666666661</v>
       </c>
-      <c r="BA30" s="82">
-        <f t="shared" ref="BA30:BA31" si="25">AY30-AW30</f>
+      <c r="BC30" s="82">
+        <f t="shared" ref="BC30:BC31" si="27">BA30-AY30</f>
         <v>2.5555555555555562</v>
       </c>
-      <c r="BB30" s="83">
-        <f t="shared" ref="BB30:BB31" si="26">AZ30-AX30</f>
+      <c r="BD30" s="83">
+        <f t="shared" ref="BD30:BD31" si="28">BB30-AZ30</f>
         <v>1.7499999999999991</v>
       </c>
-      <c r="BC30" s="99">
-        <f t="shared" ref="BC30:BC31" si="27">AVERAGE(BA30:BB30)</f>
+      <c r="BE30" s="99">
+        <f t="shared" ref="BE30:BE31" si="29">AVERAGE(BC30:BD30)</f>
         <v>2.1527777777777777</v>
       </c>
     </row>
-    <row r="31" spans="1:58" s="76" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="121"/>
-      <c r="B31" s="122"/>
+    <row r="31" spans="1:60" s="76" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="123"/>
+      <c r="B31" s="124"/>
       <c r="C31" s="28" t="s">
         <v>105</v>
       </c>
@@ -21658,55 +22684,57 @@
       <c r="AQ31" s="75"/>
       <c r="AR31" s="75"/>
       <c r="AS31" s="75"/>
-      <c r="AT31" s="84">
-        <f>AVERAGE(AT15:AT26)</f>
+      <c r="AT31" s="75"/>
+      <c r="AU31" s="75"/>
+      <c r="AV31" s="84">
+        <f>AVERAGE(AV15:AV26)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AU31" s="85">
-        <f>AVERAGE(AU15:AU26)</f>
+      <c r="AW31" s="85">
+        <f>AVERAGE(AW15:AW26)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="AV31" s="100">
-        <f t="shared" si="20"/>
+      <c r="AX31" s="100">
+        <f t="shared" si="22"/>
         <v>0.45833333333333337</v>
       </c>
-      <c r="AW31" s="25">
-        <f t="shared" si="21"/>
+      <c r="AY31" s="25">
+        <f t="shared" si="23"/>
         <v>5.4116161616161618</v>
-      </c>
-      <c r="AX31" s="26">
-        <f t="shared" si="22"/>
-        <v>6.6388888888888893</v>
-      </c>
-      <c r="AY31" s="26">
-        <f t="shared" si="23"/>
-        <v>8.0833333333333321</v>
       </c>
       <c r="AZ31" s="26">
         <f t="shared" si="24"/>
+        <v>6.6388888888888893</v>
+      </c>
+      <c r="BA31" s="26">
+        <f t="shared" si="25"/>
+        <v>8.0833333333333321</v>
+      </c>
+      <c r="BB31" s="26">
+        <f t="shared" si="26"/>
         <v>7.3888888888888893</v>
       </c>
-      <c r="BA31" s="84">
-        <f t="shared" si="25"/>
+      <c r="BC31" s="84">
+        <f t="shared" si="27"/>
         <v>2.6717171717171704</v>
       </c>
-      <c r="BB31" s="85">
-        <f t="shared" si="26"/>
+      <c r="BD31" s="85">
+        <f t="shared" si="28"/>
         <v>0.75</v>
       </c>
-      <c r="BC31" s="100">
-        <f t="shared" si="27"/>
+      <c r="BE31" s="100">
+        <f t="shared" si="29"/>
         <v>1.7108585858585852</v>
       </c>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B32"/>
       <c r="C32"/>
-      <c r="AT32" s="68"/>
-      <c r="AU32" s="68"/>
       <c r="AV32" s="68"/>
-    </row>
-    <row r="33" spans="1:48" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AW32" s="68"/>
+      <c r="AX32" s="68"/>
+    </row>
+    <row r="33" spans="1:50" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -21715,11 +22743,11 @@
       <c r="I33"/>
       <c r="AH33"/>
       <c r="AI33"/>
-      <c r="AT33" s="68"/>
-      <c r="AU33" s="68"/>
       <c r="AV33" s="68"/>
-    </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="AW33" s="68"/>
+      <c r="AX33" s="68"/>
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A34" s="90" t="s">
         <v>110</v>
       </c>
@@ -21735,13 +22763,13 @@
       <c r="I34"/>
       <c r="AH34"/>
       <c r="AI34"/>
-      <c r="AT34" s="123" t="s">
+      <c r="AV34" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="AU34" s="124"/>
-      <c r="AV34" s="96"/>
-    </row>
-    <row r="35" spans="1:48" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AW34" s="126"/>
+      <c r="AX34" s="96"/>
+    </row>
+    <row r="35" spans="1:50" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="s">
         <v>111</v>
       </c>
@@ -21757,11 +22785,11 @@
       <c r="I35"/>
       <c r="AH35"/>
       <c r="AI35"/>
-      <c r="AT35" s="125"/>
-      <c r="AU35" s="126"/>
-      <c r="AV35" s="96"/>
-    </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="AV35" s="127"/>
+      <c r="AW35" s="128"/>
+      <c r="AX35" s="96"/>
+    </row>
+    <row r="36" spans="1:50" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>112</v>
       </c>
@@ -21771,22 +22799,28 @@
       <c r="I36"/>
       <c r="AH36"/>
       <c r="AI36"/>
-      <c r="AT36" s="125"/>
-      <c r="AU36" s="126"/>
-      <c r="AV36" s="96"/>
-    </row>
-    <row r="37" spans="1:48" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AV36" s="127"/>
+      <c r="AW36" s="128"/>
+      <c r="AX36" s="96"/>
+    </row>
+    <row r="37" spans="1:50" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D37"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
+      <c r="Q37" s="86" t="s">
+        <v>123</v>
+      </c>
+      <c r="R37" s="13">
+        <v>0</v>
+      </c>
       <c r="AH37"/>
       <c r="AI37"/>
-      <c r="AT37" s="125"/>
-      <c r="AU37" s="126"/>
-      <c r="AV37" s="96"/>
-    </row>
-    <row r="38" spans="1:48" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AV37" s="127"/>
+      <c r="AW37" s="128"/>
+      <c r="AX37" s="96"/>
+    </row>
+    <row r="38" spans="1:50" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C38" s="107" t="s">
         <v>113</v>
       </c>
@@ -21807,11 +22841,11 @@
       <c r="R38" s="13">
         <v>1</v>
       </c>
-      <c r="AT38" s="125"/>
-      <c r="AU38" s="126"/>
-      <c r="AV38" s="96"/>
-    </row>
-    <row r="39" spans="1:48" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AV38" s="127"/>
+      <c r="AW38" s="128"/>
+      <c r="AX38" s="96"/>
+    </row>
+    <row r="39" spans="1:50" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C39" s="108" t="s">
         <v>113</v>
       </c>
@@ -21832,11 +22866,11 @@
       <c r="R39" s="13">
         <v>2</v>
       </c>
-      <c r="AT39" s="127"/>
-      <c r="AU39" s="128"/>
-      <c r="AV39" s="96"/>
-    </row>
-    <row r="40" spans="1:48" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AV39" s="129"/>
+      <c r="AW39" s="130"/>
+      <c r="AX39" s="96"/>
+    </row>
+    <row r="40" spans="1:50" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C40" s="108" t="s">
         <v>113</v>
       </c>
@@ -21855,8 +22889,14 @@
       <c r="R40" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:48" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN40" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:50" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C41" s="108" t="s">
         <v>113</v>
       </c>
@@ -21875,8 +22915,14 @@
       <c r="R41" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:48" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN41" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:50" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C42" s="108" t="s">
         <v>113</v>
       </c>
@@ -21895,8 +22941,14 @@
       <c r="R42" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:48" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN42" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:50" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C43" s="108" t="s">
         <v>113</v>
       </c>
@@ -21915,8 +22967,14 @@
       <c r="R43" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="44" spans="1:48" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN43" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C44" s="108" t="s">
         <v>113</v>
       </c>
@@ -21935,8 +22993,14 @@
       <c r="R44" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:48" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN44" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C45" s="108" t="s">
         <v>113</v>
       </c>
@@ -21955,8 +23019,14 @@
       <c r="R45" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:48" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN45" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:50" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C46" s="108" t="s">
         <v>113</v>
       </c>
@@ -21975,8 +23045,14 @@
       <c r="R46" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:48" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN46" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:50" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C47" s="108" t="s">
         <v>113</v>
       </c>
@@ -21995,8 +23071,14 @@
       <c r="R47" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:48" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN47" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:50" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C48" s="108" t="s">
         <v>113</v>
       </c>
@@ -22015,8 +23097,14 @@
       <c r="R48" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN48" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C49" s="108" t="s">
         <v>113</v>
       </c>
@@ -22035,8 +23123,14 @@
       <c r="R49" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN49" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C50" s="108" t="s">
         <v>113</v>
       </c>
@@ -22055,8 +23149,14 @@
       <c r="R50" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN50" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C51" s="108" t="s">
         <v>113</v>
       </c>
@@ -22075,8 +23175,14 @@
       <c r="R51" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN51" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C52" s="108" t="s">
         <v>113</v>
       </c>
@@ -22095,8 +23201,14 @@
       <c r="R52" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN52" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C53" s="108" t="s">
         <v>113</v>
       </c>
@@ -22115,8 +23227,14 @@
       <c r="R53" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN53" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C54" s="108" t="s">
         <v>113</v>
       </c>
@@ -22135,8 +23253,14 @@
       <c r="R54" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN54" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C55" s="108" t="s">
         <v>113</v>
       </c>
@@ -22155,8 +23279,14 @@
       <c r="R55" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN55" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C56" s="108" t="s">
         <v>113</v>
       </c>
@@ -22175,8 +23305,14 @@
       <c r="R56" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN56" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C57" s="108" t="s">
         <v>113</v>
       </c>
@@ -22195,8 +23331,14 @@
       <c r="R57" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN57" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C58" s="108" t="s">
         <v>113</v>
       </c>
@@ -22215,8 +23357,14 @@
       <c r="R58" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN58" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C59" s="108" t="s">
         <v>113</v>
       </c>
@@ -22235,8 +23383,14 @@
       <c r="R59" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN59" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C60" s="108" t="s">
         <v>113</v>
       </c>
@@ -22255,8 +23409,14 @@
       <c r="R60" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN60" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C61" s="108" t="s">
         <v>113</v>
       </c>
@@ -22269,14 +23429,20 @@
       <c r="J61" s="18">
         <v>36</v>
       </c>
-      <c r="Q61" s="144" t="s">
+      <c r="Q61" s="111" t="s">
         <v>124</v>
       </c>
       <c r="R61" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AN61" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C62" s="108" t="s">
         <v>114</v>
       </c>
@@ -22289,14 +23455,20 @@
       <c r="J62" s="21">
         <v>12</v>
       </c>
-      <c r="Q62" s="144" t="s">
+      <c r="Q62" s="111" t="s">
         <v>124</v>
       </c>
       <c r="R62" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="AN62" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C63" s="108" t="s">
         <v>114</v>
       </c>
@@ -22309,14 +23481,20 @@
       <c r="J63" s="21">
         <v>10</v>
       </c>
-      <c r="Q63" s="144" t="s">
+      <c r="Q63" s="111" t="s">
         <v>124</v>
       </c>
       <c r="R63" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AN63" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C64" s="108" t="s">
         <v>114</v>
       </c>
@@ -22329,14 +23507,20 @@
       <c r="J64" s="21">
         <v>15</v>
       </c>
-      <c r="Q64" s="144" t="s">
+      <c r="Q64" s="111" t="s">
         <v>124</v>
       </c>
       <c r="R64" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AN64" s="147" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C65" s="108" t="s">
         <v>114</v>
       </c>
@@ -22349,14 +23533,20 @@
       <c r="J65" s="21">
         <v>12</v>
       </c>
-      <c r="Q65" s="144" t="s">
+      <c r="Q65" s="111" t="s">
         <v>124</v>
       </c>
       <c r="R65" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="AN65" s="147" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C66" s="108" t="s">
         <v>114</v>
       </c>
@@ -22369,14 +23559,20 @@
       <c r="J66" s="21">
         <v>20</v>
       </c>
-      <c r="Q66" s="144" t="s">
+      <c r="Q66" s="111" t="s">
         <v>124</v>
       </c>
       <c r="R66" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN66" s="147" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C67" s="108" t="s">
         <v>114</v>
       </c>
@@ -22389,14 +23585,20 @@
       <c r="J67" s="21">
         <v>11</v>
       </c>
-      <c r="Q67" s="144" t="s">
+      <c r="Q67" s="111" t="s">
         <v>124</v>
       </c>
       <c r="R67" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AN67" s="147" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C68" s="108" t="s">
         <v>114</v>
       </c>
@@ -22409,14 +23611,20 @@
       <c r="J68" s="21">
         <v>40</v>
       </c>
-      <c r="Q68" s="144" t="s">
+      <c r="Q68" s="111" t="s">
         <v>124</v>
       </c>
       <c r="R68" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="AN68" s="147" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C69" s="108" t="s">
         <v>114</v>
       </c>
@@ -22429,14 +23637,20 @@
       <c r="J69" s="21">
         <v>15</v>
       </c>
-      <c r="Q69" s="144" t="s">
+      <c r="Q69" s="111" t="s">
         <v>124</v>
       </c>
       <c r="R69" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AN69" s="147" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C70" s="108" t="s">
         <v>114</v>
       </c>
@@ -22449,14 +23663,20 @@
       <c r="J70" s="21">
         <v>12</v>
       </c>
-      <c r="Q70" s="144" t="s">
+      <c r="Q70" s="111" t="s">
         <v>124</v>
       </c>
       <c r="R70" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AN70" s="147" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C71" s="108" t="s">
         <v>114</v>
       </c>
@@ -22469,14 +23689,20 @@
       <c r="J71" s="21">
         <v>10</v>
       </c>
-      <c r="Q71" s="144" t="s">
+      <c r="Q71" s="111" t="s">
         <v>124</v>
       </c>
       <c r="R71" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="AN71" s="147" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C72" s="108" t="s">
         <v>114</v>
       </c>
@@ -22489,14 +23715,20 @@
       <c r="J72" s="21">
         <v>18</v>
       </c>
-      <c r="Q72" s="144" t="s">
+      <c r="Q72" s="111" t="s">
         <v>124</v>
       </c>
       <c r="R72" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN72" s="147" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C73" s="108" t="s">
         <v>114</v>
       </c>
@@ -22509,14 +23741,20 @@
       <c r="J73" s="21">
         <v>12</v>
       </c>
-      <c r="Q73" s="144" t="s">
+      <c r="Q73" s="111" t="s">
         <v>124</v>
       </c>
       <c r="R73" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN73" s="147" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C74" s="108" t="s">
         <v>115</v>
       </c>
@@ -22529,14 +23767,20 @@
       <c r="J74" s="21">
         <v>10</v>
       </c>
-      <c r="Q74" s="144" t="s">
+      <c r="Q74" s="111" t="s">
         <v>124</v>
       </c>
       <c r="R74" s="13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="75" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AN74" s="147" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C75" s="108" t="s">
         <v>115</v>
       </c>
@@ -22549,14 +23793,20 @@
       <c r="J75" s="21">
         <v>14</v>
       </c>
-      <c r="Q75" s="144" t="s">
+      <c r="Q75" s="111" t="s">
         <v>124</v>
       </c>
       <c r="R75" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="76" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN75" s="147" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C76" s="108" t="s">
         <v>115</v>
       </c>
@@ -22569,14 +23819,20 @@
       <c r="J76" s="21">
         <v>11</v>
       </c>
-      <c r="Q76" s="144" t="s">
+      <c r="Q76" s="111" t="s">
         <v>124</v>
       </c>
       <c r="R76" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="AN76" s="147" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C77" s="108" t="s">
         <v>115</v>
       </c>
@@ -22589,14 +23845,20 @@
       <c r="J77" s="21">
         <v>58</v>
       </c>
-      <c r="Q77" s="144" t="s">
+      <c r="Q77" s="111" t="s">
         <v>124</v>
       </c>
       <c r="R77" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AN77" s="147" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C78" s="108" t="s">
         <v>115</v>
       </c>
@@ -22609,14 +23871,20 @@
       <c r="J78" s="21">
         <v>11</v>
       </c>
-      <c r="Q78" s="144" t="s">
+      <c r="Q78" s="111" t="s">
         <v>124</v>
       </c>
       <c r="R78" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AN78" s="147" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C79" s="108" t="s">
         <v>115</v>
       </c>
@@ -22629,14 +23897,20 @@
       <c r="J79" s="21">
         <v>15</v>
       </c>
-      <c r="Q79" s="144" t="s">
+      <c r="Q79" s="111" t="s">
         <v>124</v>
       </c>
       <c r="R79" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AN79" s="147" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C80" s="108" t="s">
         <v>115</v>
       </c>
@@ -22649,14 +23923,20 @@
       <c r="J80" s="21">
         <v>23</v>
       </c>
-      <c r="Q80" s="144" t="s">
+      <c r="Q80" s="111" t="s">
         <v>124</v>
       </c>
       <c r="R80" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AN80" s="147" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C81" s="108" t="s">
         <v>115</v>
       </c>
@@ -22669,14 +23949,20 @@
       <c r="J81" s="21">
         <v>11</v>
       </c>
-      <c r="Q81" s="144" t="s">
+      <c r="Q81" s="111" t="s">
         <v>124</v>
       </c>
       <c r="R81" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AN81" s="147" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C82" s="108" t="s">
         <v>115</v>
       </c>
@@ -22689,14 +23975,20 @@
       <c r="J82" s="21">
         <v>19</v>
       </c>
-      <c r="Q82" s="144" t="s">
+      <c r="Q82" s="111" t="s">
         <v>124</v>
       </c>
       <c r="R82" s="13">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="83" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="AN82" s="147" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C83" s="108" t="s">
         <v>115</v>
       </c>
@@ -22709,14 +24001,20 @@
       <c r="J83" s="21">
         <v>21</v>
       </c>
-      <c r="Q83" s="144" t="s">
+      <c r="Q83" s="111" t="s">
         <v>124</v>
       </c>
       <c r="R83" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+        <v>-2</v>
+      </c>
+      <c r="AN83" s="147" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C84" s="108" t="s">
         <v>115</v>
       </c>
@@ -22729,14 +24027,20 @@
       <c r="J84" s="21">
         <v>9</v>
       </c>
-      <c r="Q84" s="145" t="s">
-        <v>122</v>
+      <c r="Q84" s="111" t="s">
+        <v>124</v>
       </c>
       <c r="R84" s="13">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="85" spans="3:18" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AN84" s="147" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C85" s="108" t="s">
         <v>115</v>
       </c>
@@ -22749,529 +24053,1298 @@
       <c r="J85" s="21">
         <v>13</v>
       </c>
-      <c r="Q85" s="145" t="s">
+      <c r="Q85" s="112" t="s">
         <v>122</v>
       </c>
       <c r="R85" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="3:18" ht="44" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AN85" s="147" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="3:41" ht="44" x14ac:dyDescent="0.2">
       <c r="C86" s="108" t="s">
         <v>116</v>
       </c>
       <c r="D86" s="19">
         <v>12</v>
       </c>
-      <c r="Q86" s="145" t="s">
+      <c r="Q86" s="112" t="s">
         <v>122</v>
       </c>
       <c r="R86" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="3:18" ht="44" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+      <c r="AN86" s="147" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="3:41" ht="44" x14ac:dyDescent="0.2">
       <c r="C87" s="108" t="s">
         <v>116</v>
       </c>
       <c r="D87" s="19">
         <v>10</v>
       </c>
-      <c r="Q87" s="145" t="s">
+      <c r="Q87" s="112" t="s">
         <v>122</v>
       </c>
       <c r="R87" s="13">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="88" spans="3:18" ht="44" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="AN87" s="147" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="3:41" ht="44" x14ac:dyDescent="0.2">
       <c r="C88" s="108" t="s">
         <v>116</v>
       </c>
       <c r="D88" s="19">
         <v>15</v>
       </c>
-      <c r="Q88" s="145" t="s">
+      <c r="Q88" s="112" t="s">
         <v>122</v>
       </c>
       <c r="R88" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="89" spans="3:18" ht="44" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="AN88" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="3:41" ht="44" x14ac:dyDescent="0.2">
       <c r="C89" s="108" t="s">
         <v>116</v>
       </c>
       <c r="D89" s="19">
         <v>12</v>
       </c>
-      <c r="Q89" s="145" t="s">
+      <c r="Q89" s="112" t="s">
         <v>122</v>
       </c>
       <c r="R89" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" ht="44" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+      <c r="AN89" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO89">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:41" ht="44" x14ac:dyDescent="0.2">
       <c r="C90" s="108" t="s">
         <v>116</v>
       </c>
       <c r="D90" s="19">
         <v>20</v>
       </c>
-      <c r="Q90" s="145" t="s">
+      <c r="Q90" s="112" t="s">
         <v>122</v>
       </c>
       <c r="R90" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="3:18" ht="44" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+      <c r="AN90" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="3:41" ht="44" x14ac:dyDescent="0.2">
       <c r="C91" s="108" t="s">
         <v>116</v>
       </c>
       <c r="D91" s="19">
         <v>11</v>
       </c>
-      <c r="Q91" s="145" t="s">
+      <c r="Q91" s="112" t="s">
         <v>122</v>
       </c>
       <c r="R91" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" ht="44" x14ac:dyDescent="0.2">
+      <c r="AN91" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO91">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:41" ht="44" x14ac:dyDescent="0.2">
       <c r="C92" s="108" t="s">
         <v>116</v>
       </c>
       <c r="D92" s="19">
         <v>40</v>
       </c>
-      <c r="Q92" s="145" t="s">
+      <c r="Q92" s="112" t="s">
         <v>122</v>
       </c>
       <c r="R92" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="3:18" ht="44" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AN92" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO92">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="93" spans="3:41" ht="44" x14ac:dyDescent="0.2">
       <c r="C93" s="108" t="s">
         <v>116</v>
       </c>
       <c r="D93" s="19">
         <v>15</v>
       </c>
-      <c r="Q93" s="145" t="s">
+      <c r="Q93" s="112" t="s">
         <v>122</v>
       </c>
       <c r="R93" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN93" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO93">
         <v>2.5</v>
       </c>
     </row>
-    <row r="94" spans="3:18" ht="44" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:41" ht="44" x14ac:dyDescent="0.2">
       <c r="C94" s="108" t="s">
         <v>116</v>
       </c>
       <c r="D94" s="19">
         <v>12</v>
       </c>
-      <c r="Q94" s="145" t="s">
+      <c r="Q94" s="112" t="s">
         <v>122</v>
       </c>
       <c r="R94" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" ht="44" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="AN94" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="3:41" ht="44" x14ac:dyDescent="0.2">
       <c r="C95" s="108" t="s">
         <v>116</v>
       </c>
       <c r="D95" s="19">
         <v>10</v>
       </c>
-      <c r="Q95" s="145" t="s">
+      <c r="Q95" s="112" t="s">
         <v>122</v>
       </c>
       <c r="R95" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="3:18" ht="44" x14ac:dyDescent="0.2">
+        <v>2.5</v>
+      </c>
+      <c r="AN95" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="3:41" ht="44" x14ac:dyDescent="0.2">
       <c r="C96" s="108" t="s">
         <v>116</v>
       </c>
       <c r="D96" s="19">
         <v>18</v>
       </c>
-      <c r="Q96" s="145" t="s">
+      <c r="Q96" s="112" t="s">
         <v>122</v>
       </c>
       <c r="R96" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" ht="44" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AN96" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="3:41" ht="44" x14ac:dyDescent="0.2">
       <c r="C97" s="108" t="s">
         <v>116</v>
       </c>
       <c r="D97" s="19">
         <v>12</v>
       </c>
-      <c r="Q97" s="145" t="s">
+      <c r="Q97" s="112" t="s">
         <v>122</v>
       </c>
       <c r="R97" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" ht="44" x14ac:dyDescent="0.2">
+      <c r="AN97" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="3:41" ht="44" x14ac:dyDescent="0.2">
       <c r="C98" s="108" t="s">
         <v>116</v>
       </c>
       <c r="D98" s="19">
         <v>10</v>
       </c>
-      <c r="Q98" s="145" t="s">
+      <c r="Q98" s="112" t="s">
         <v>122</v>
       </c>
       <c r="R98" s="13">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="99" spans="3:18" ht="44" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="AN98" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO98">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="99" spans="3:41" ht="44" x14ac:dyDescent="0.2">
       <c r="C99" s="108" t="s">
         <v>116</v>
       </c>
       <c r="D99" s="19">
         <v>14</v>
       </c>
-      <c r="Q99" s="145" t="s">
+      <c r="Q99" s="112" t="s">
         <v>122</v>
       </c>
       <c r="R99" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="100" spans="3:18" ht="44" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AN99" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="3:41" ht="44" x14ac:dyDescent="0.2">
       <c r="C100" s="108" t="s">
         <v>116</v>
       </c>
       <c r="D100" s="19">
         <v>11</v>
       </c>
-      <c r="Q100" s="145" t="s">
+      <c r="Q100" s="112" t="s">
         <v>122</v>
       </c>
       <c r="R100" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" ht="44" x14ac:dyDescent="0.2">
+        <v>-0.5</v>
+      </c>
+      <c r="AN100" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:41" ht="44" x14ac:dyDescent="0.2">
       <c r="C101" s="108" t="s">
         <v>116</v>
       </c>
       <c r="D101" s="19">
         <v>58</v>
       </c>
-      <c r="Q101" s="145" t="s">
+      <c r="Q101" s="112" t="s">
         <v>122</v>
       </c>
       <c r="R101" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AN101" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO101">
         <v>1.5</v>
       </c>
     </row>
-    <row r="102" spans="3:18" ht="44" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:41" ht="44" x14ac:dyDescent="0.2">
       <c r="C102" s="108" t="s">
         <v>116</v>
       </c>
       <c r="D102" s="19">
         <v>11</v>
       </c>
-      <c r="Q102" s="145" t="s">
+      <c r="Q102" s="112" t="s">
         <v>122</v>
       </c>
       <c r="R102" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="3:18" ht="44" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+      <c r="AN102" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO102">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="103" spans="3:41" ht="44" x14ac:dyDescent="0.2">
       <c r="C103" s="108" t="s">
         <v>116</v>
       </c>
       <c r="D103" s="19">
         <v>15</v>
       </c>
-      <c r="Q103" s="145" t="s">
+      <c r="Q103" s="112" t="s">
         <v>122</v>
       </c>
       <c r="R103" s="13">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="104" spans="3:18" ht="44" x14ac:dyDescent="0.2">
+      <c r="AN103" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="3:41" ht="44" x14ac:dyDescent="0.2">
       <c r="C104" s="108" t="s">
         <v>116</v>
       </c>
       <c r="D104" s="19">
         <v>23</v>
       </c>
-      <c r="Q104" s="145" t="s">
+      <c r="Q104" s="112" t="s">
         <v>122</v>
       </c>
       <c r="R104" s="13">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="105" spans="3:18" ht="44" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AN104" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO104">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="105" spans="3:41" ht="44" x14ac:dyDescent="0.2">
       <c r="C105" s="108" t="s">
         <v>116</v>
       </c>
       <c r="D105" s="19">
         <v>11</v>
       </c>
-      <c r="Q105" s="145" t="s">
+      <c r="Q105" s="112" t="s">
         <v>122</v>
       </c>
       <c r="R105" s="13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="106" spans="3:18" ht="44" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+      <c r="AN105" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO105">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="106" spans="3:41" ht="44" x14ac:dyDescent="0.2">
       <c r="C106" s="108" t="s">
         <v>116</v>
       </c>
       <c r="D106" s="19">
         <v>19</v>
       </c>
-      <c r="Q106" s="145" t="s">
+      <c r="Q106" s="112" t="s">
         <v>122</v>
       </c>
       <c r="R106" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="107" spans="3:18" ht="44" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+      <c r="AN106" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO106">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="107" spans="3:41" ht="44" x14ac:dyDescent="0.2">
       <c r="C107" s="108" t="s">
         <v>116</v>
       </c>
       <c r="D107" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="108" spans="3:18" ht="44" x14ac:dyDescent="0.2">
+      <c r="Q107" s="112" t="s">
+        <v>122</v>
+      </c>
+      <c r="R107" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AN107" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="3:41" ht="44" x14ac:dyDescent="0.2">
       <c r="C108" s="108" t="s">
         <v>116</v>
       </c>
       <c r="D108" s="19">
         <v>9</v>
       </c>
-    </row>
-    <row r="109" spans="3:18" ht="44" x14ac:dyDescent="0.2">
+      <c r="Q108" s="112" t="s">
+        <v>122</v>
+      </c>
+      <c r="R108" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AN108" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO108">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="109" spans="3:41" ht="44" x14ac:dyDescent="0.2">
       <c r="C109" s="108" t="s">
         <v>116</v>
       </c>
       <c r="D109" s="19">
         <v>13</v>
       </c>
-    </row>
-    <row r="110" spans="3:18" ht="44" x14ac:dyDescent="0.2">
+      <c r="AN109" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO109">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="110" spans="3:41" ht="44" x14ac:dyDescent="0.2">
       <c r="C110" s="108" t="s">
         <v>117</v>
       </c>
       <c r="D110" s="19">
         <v>12</v>
       </c>
-    </row>
-    <row r="111" spans="3:18" ht="44" x14ac:dyDescent="0.2">
+      <c r="AN110" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO110">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="111" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C111" s="108" t="s">
         <v>117</v>
       </c>
       <c r="D111" s="19">
         <v>10</v>
       </c>
-    </row>
-    <row r="112" spans="3:18" ht="44" x14ac:dyDescent="0.2">
+      <c r="AN111" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO111">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="112" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C112" s="108" t="s">
         <v>117</v>
       </c>
       <c r="D112" s="19">
         <v>15</v>
       </c>
-    </row>
-    <row r="113" spans="3:4" ht="44" x14ac:dyDescent="0.2">
+      <c r="AN112" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C113" s="108" t="s">
         <v>117</v>
       </c>
       <c r="D113" s="19">
         <v>12</v>
       </c>
-    </row>
-    <row r="114" spans="3:4" ht="44" x14ac:dyDescent="0.2">
+      <c r="AN113" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C114" s="108" t="s">
         <v>117</v>
       </c>
       <c r="D114" s="19">
         <v>20</v>
       </c>
-    </row>
-    <row r="115" spans="3:4" ht="44" x14ac:dyDescent="0.2">
+      <c r="AN114" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C115" s="108" t="s">
         <v>117</v>
       </c>
       <c r="D115" s="19">
         <v>11</v>
       </c>
-    </row>
-    <row r="116" spans="3:4" ht="44" x14ac:dyDescent="0.2">
+      <c r="AN115" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C116" s="108" t="s">
         <v>117</v>
       </c>
       <c r="D116" s="19">
         <v>40</v>
       </c>
-    </row>
-    <row r="117" spans="3:4" ht="44" x14ac:dyDescent="0.2">
+      <c r="AN116" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C117" s="108" t="s">
         <v>117</v>
       </c>
       <c r="D117" s="19">
         <v>15</v>
       </c>
-    </row>
-    <row r="118" spans="3:4" ht="44" x14ac:dyDescent="0.2">
+      <c r="AN117" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C118" s="108" t="s">
         <v>117</v>
       </c>
       <c r="D118" s="19">
         <v>12</v>
       </c>
-    </row>
-    <row r="119" spans="3:4" ht="44" x14ac:dyDescent="0.2">
+      <c r="AN118" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C119" s="108" t="s">
         <v>117</v>
       </c>
       <c r="D119" s="19">
         <v>10</v>
       </c>
-    </row>
-    <row r="120" spans="3:4" ht="44" x14ac:dyDescent="0.2">
+      <c r="AN119" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C120" s="108" t="s">
         <v>117</v>
       </c>
       <c r="D120" s="19">
         <v>18</v>
       </c>
-    </row>
-    <row r="121" spans="3:4" ht="44" x14ac:dyDescent="0.2">
+      <c r="AN120" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C121" s="108" t="s">
         <v>117</v>
       </c>
       <c r="D121" s="19">
         <v>12</v>
       </c>
-    </row>
-    <row r="122" spans="3:4" ht="44" x14ac:dyDescent="0.2">
+      <c r="AN121" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C122" s="108" t="s">
         <v>118</v>
       </c>
       <c r="D122" s="19">
         <v>10</v>
       </c>
-    </row>
-    <row r="123" spans="3:4" ht="44" x14ac:dyDescent="0.2">
+      <c r="AN122" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C123" s="108" t="s">
         <v>118</v>
       </c>
       <c r="D123" s="19">
         <v>14</v>
       </c>
-    </row>
-    <row r="124" spans="3:4" ht="44" x14ac:dyDescent="0.2">
+      <c r="AN123" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C124" s="108" t="s">
         <v>118</v>
       </c>
       <c r="D124" s="19">
         <v>11</v>
       </c>
-    </row>
-    <row r="125" spans="3:4" ht="44" x14ac:dyDescent="0.2">
+      <c r="AN124" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C125" s="108" t="s">
         <v>118</v>
       </c>
       <c r="D125" s="19">
         <v>58</v>
       </c>
-    </row>
-    <row r="126" spans="3:4" ht="44" x14ac:dyDescent="0.2">
+      <c r="AN125" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C126" s="108" t="s">
         <v>118</v>
       </c>
       <c r="D126" s="19">
         <v>11</v>
       </c>
-    </row>
-    <row r="127" spans="3:4" ht="44" x14ac:dyDescent="0.2">
+      <c r="AN126" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C127" s="108" t="s">
         <v>118</v>
       </c>
       <c r="D127" s="19">
         <v>15</v>
       </c>
-    </row>
-    <row r="128" spans="3:4" ht="44" x14ac:dyDescent="0.2">
+      <c r="AN127" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C128" s="108" t="s">
         <v>118</v>
       </c>
       <c r="D128" s="19">
         <v>23</v>
       </c>
-    </row>
-    <row r="129" spans="3:4" ht="44" x14ac:dyDescent="0.2">
+      <c r="AN128" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C129" s="108" t="s">
         <v>118</v>
       </c>
       <c r="D129" s="19">
         <v>11</v>
       </c>
-    </row>
-    <row r="130" spans="3:4" ht="44" x14ac:dyDescent="0.2">
+      <c r="AN129" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO129" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C130" s="108" t="s">
         <v>118</v>
       </c>
       <c r="D130" s="19">
         <v>19</v>
       </c>
-    </row>
-    <row r="131" spans="3:4" ht="44" x14ac:dyDescent="0.2">
+      <c r="AN130" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO130" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C131" s="108" t="s">
         <v>118</v>
       </c>
       <c r="D131" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="132" spans="3:4" ht="44" x14ac:dyDescent="0.2">
+      <c r="AN131" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO131" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C132" s="108" t="s">
         <v>118</v>
       </c>
       <c r="D132" s="19">
         <v>9</v>
       </c>
-    </row>
-    <row r="133" spans="3:4" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN132" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO132" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C133" s="109" t="s">
         <v>118</v>
       </c>
       <c r="D133" s="105">
         <v>13</v>
       </c>
+      <c r="AN133" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO133" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN134" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO134" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN135" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO135" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="3:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN136" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO136" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="3:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN137" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO137" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="3:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN138" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO138" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="3:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN139" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO139" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="3:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN140" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO140" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="3:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN141" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO141" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="3:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN142" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO142" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="3:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN143" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO143" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="3:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN144" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO144" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN145" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO145" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN146" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO146" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN147" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO147" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN148" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO148" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN149" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO149" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN150" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO150" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN151" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO151" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN152" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO152" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN153" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO153" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN154" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO154" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN155" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO155" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN156" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO156" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN157" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO157" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN158" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO158" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN159" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO159" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN160" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO160" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN161" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO161" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN162" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO162" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN163" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO163" s="13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="164" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN164" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO164" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN165" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO165" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN166" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO166" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN167" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO167" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN168" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO168" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN169" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO169" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN170" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO170" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN171" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO171" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN172" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO172" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN173" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO173" s="13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="174" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN174" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO174" s="13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="175" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN175" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO175" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="176" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN176" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO176" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN177" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO177" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN178" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO178" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN179" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO179" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN180" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO180" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN181" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO181" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN182" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO182" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="183" spans="40:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="AN183" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO183" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="40:41" x14ac:dyDescent="0.2">
+      <c r="AN184"/>
+    </row>
+    <row r="185" spans="40:41" x14ac:dyDescent="0.2">
+      <c r="AN185"/>
+    </row>
+    <row r="186" spans="40:41" x14ac:dyDescent="0.2">
+      <c r="AN186"/>
+    </row>
+    <row r="187" spans="40:41" x14ac:dyDescent="0.2">
+      <c r="AN187"/>
+    </row>
+    <row r="188" spans="40:41" x14ac:dyDescent="0.2">
+      <c r="AN188"/>
+    </row>
+    <row r="189" spans="40:41" x14ac:dyDescent="0.2">
+      <c r="AN189"/>
+    </row>
+    <row r="190" spans="40:41" x14ac:dyDescent="0.2">
+      <c r="AN190"/>
+    </row>
+    <row r="191" spans="40:41" x14ac:dyDescent="0.2">
+      <c r="AN191"/>
+    </row>
+    <row r="192" spans="40:41" x14ac:dyDescent="0.2">
+      <c r="AN192"/>
+    </row>
+    <row r="193" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN193"/>
+    </row>
+    <row r="194" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN194"/>
+    </row>
+    <row r="195" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN195"/>
+    </row>
+    <row r="196" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN196"/>
+    </row>
+    <row r="197" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN197"/>
+    </row>
+    <row r="198" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN198"/>
+    </row>
+    <row r="199" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN199"/>
+    </row>
+    <row r="200" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN200"/>
+    </row>
+    <row r="201" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN201"/>
+    </row>
+    <row r="202" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN202"/>
+    </row>
+    <row r="203" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN203"/>
+    </row>
+    <row r="204" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN204"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="AP1:AU1"/>
-    <mergeCell ref="AW1:BB1"/>
+    <mergeCell ref="AP1:AW1"/>
+    <mergeCell ref="AY1:BD1"/>
     <mergeCell ref="A28:B31"/>
-    <mergeCell ref="AT34:AU39"/>
+    <mergeCell ref="AV34:AW39"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:N1"/>
@@ -23280,7 +25353,7 @@
     <mergeCell ref="AG1:AO1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="AT3:AV3 AT4:AU26 BA3:BC28 AV4:AV28">
+  <conditionalFormatting sqref="AV3:AX3 AV4:AW26 BC3:BE28 AX4:AX28">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="-4"/>
@@ -23292,14 +25365,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT3:AV3 BA3:BC27 AT4:AU26 AV4:AV28">
-    <cfRule type="cellIs" dxfId="5" priority="18" operator="lessThan">
+  <conditionalFormatting sqref="AV3:AX3 BC3:BE27 AV4:AW26 AX4:AX28">
+    <cfRule type="cellIs" dxfId="2" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/notebooks/user_data/response_book.xlsx
+++ b/notebooks/user_data/response_book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liamroy/Documents/Studies/Monash_31194990/PHD/repos/RL_audio/notebooks/user_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F2EF81-5F7B-714D-9DA9-A0ACE0C17737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADF3FE0-D5A9-F145-8DF3-DD67099393FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="-640" windowWidth="38400" windowHeight="21100" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35900" yWindow="-640" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="extra_box_plots" sheetId="40" r:id="rId1"/>
@@ -50,37 +50,20 @@
     <sheet name="user_26" sheetId="28" r:id="rId35"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'results no ref'!$AN$40:$AN$183</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'results no ref'!$AO$40:$AO$183</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'results no ref'!$R$37:$R$108</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'results no ref'!$R$37:$R$38</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'results no ref'!$R$37:$R$43</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'results no ref'!$R$38:$R$108</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'results no ref'!$S$37:$S$43</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'results no ref'!$AN$40:$AN$183</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'results no ref'!$AO$40:$AO$183</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'results no ref'!$Q$37:$Q$108</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'results no ref'!$R$37:$R$108</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'results no ref'!$Q$37:$Q$108</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'results no ref'!$Q$37:$Q$108</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'results no ref'!$R$37:$R$108</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'results no ref'!$C$38:$C$133</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'results no ref'!$D$38:$D$133</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'results no ref'!$I$38:$I$85</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'results no ref'!$J$38:$J$85</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'results no ref'!$Q$37:$Q$108</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'results no ref'!$R$37:$R$108</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'results no ref'!$AN$40:$AN$183</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'results no ref'!$AO$40:$AO$183</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'results no ref'!$Q$37:$Q$108</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'results no ref'!$R$37:$R$108</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'results no ref'!$I$38:$I$85</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'results no ref'!$J$38:$J$85</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'results no ref'!$C$38:$C$133</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'results no ref'!$D$38:$D$133</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'results no ref'!$I$38:$I$85</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'results no ref'!$R$37:$R$108</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'results no ref'!$J$38:$J$85</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'results no ref'!$Q$37:$Q$108</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'results no ref'!$R$37:$R$108</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'results no ref'!$Q$37:$Q$108</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'results no ref'!$Q$37:$Q$38</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'results no ref'!$Q$37:$Q$43</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'results no ref'!$Q$38:$Q$108</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'results no ref'!$I$38:$I$85</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'results no ref'!$J$38:$J$85</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'results no ref'!$I$38:$I$85</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'results no ref'!$J$38:$J$85</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'results no ref'!$AN$40:$AN$183</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'results no ref'!$AO$40:$AO$183</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -486,27 +469,27 @@
     <t>Spot (1B/3B)</t>
   </si>
   <si>
-    <t>Jackal (1A/3A)
+    <t>Jackal (1A)
 Before</t>
   </si>
   <si>
-    <t>Spot (1B/3B)
+    <t>Spot (1B)
 Before</t>
   </si>
   <si>
-    <t>Average 
+    <t>Ave (1A/1B) 
 Before</t>
   </si>
   <si>
-    <t>Average 
+    <t>Jackal (3A)
 After</t>
   </si>
   <si>
-    <t>Jackal (1A/3A)
+    <t>Spot (3B)
 After</t>
   </si>
   <si>
-    <t>Spot (1B/3B)
+    <t>Ave (3A/3B) 
 After</t>
   </si>
 </sst>
@@ -947,7 +930,7 @@
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1230,9 +1213,6 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1280,6 +1260,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1379,15 +1368,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3614,10 +3594,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3782,10 +3762,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3812,7 +3792,7 @@
                 <a:effectLst/>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>    States from Sect 1 to Sect 3</a:t>
+              <a:t>    States Section 1 to Section 3</a:t>
             </a:r>
             <a:endParaRPr lang="en-CA" sz="3200">
               <a:effectLst/>
@@ -3952,10 +3932,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3972,7 +3952,7 @@
                 <a:effectLst/>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>   Number of Correctly Identified</a:t>
+              <a:t>      Number of Correctly Identified</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3982,7 +3962,7 @@
                 <a:effectLst/>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>      States in Sect 1 and Sect 3</a:t>
+              <a:t>     States in Section 1 and Section 3</a:t>
             </a:r>
             <a:endParaRPr lang="en-CA" sz="3200">
               <a:effectLst/>
@@ -4102,10 +4082,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.28</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4256,10 +4236,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.30</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8355,8 +8335,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11772347" y="9252226"/>
-              <a:ext cx="5486400" cy="5486400"/>
+              <a:off x="11733695" y="9387509"/>
+              <a:ext cx="5469835" cy="5566465"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8433,8 +8413,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5354686" y="9234594"/>
-              <a:ext cx="5943600" cy="5486400"/>
+              <a:off x="5338121" y="9369877"/>
+              <a:ext cx="5924274" cy="5566465"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8511,8 +8491,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5378174" y="3666435"/>
-              <a:ext cx="11887200" cy="5486400"/>
+              <a:off x="5361609" y="3718892"/>
+              <a:ext cx="11848548" cy="5566465"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8615,7 +8595,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A419778-B618-9A07-B7CB-B3CCDEE7355A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{832042A5-8F89-942A-D3C7-226B16D6F584}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -8726,7 +8706,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CE0683A-2880-00CE-91FF-90273CF738EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2156988A-37A0-259F-9CAD-9A3977829C7A}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -9132,8 +9112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689A3AC2-F3FD-CC43-AE33-71A4AAE7341C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="D30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W60" sqref="W60"/>
+    <sheetView tabSelected="1" topLeftCell="D35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W53" sqref="W53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16986,11 +16966,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371632C3-F948-294F-B34F-AE31BF1D8D0A}">
   <dimension ref="A1:BH204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AM8" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="AI158" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL161" sqref="AL161"/>
+      <selection pane="bottomRight" activeCell="AN160" sqref="AN160:AN183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -17009,79 +16989,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="17" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="133" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="135" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="134"/>
-      <c r="F1" s="135" t="s">
+      <c r="E1" s="136"/>
+      <c r="F1" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="138" t="s">
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="141" t="s">
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="141"/>
+      <c r="S1" s="141"/>
+      <c r="T1" s="141"/>
+      <c r="U1" s="141"/>
+      <c r="V1" s="141"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="142"/>
-      <c r="AA1" s="142"/>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="142"/>
-      <c r="AD1" s="142"/>
-      <c r="AE1" s="142"/>
-      <c r="AF1" s="143"/>
-      <c r="AG1" s="144" t="s">
+      <c r="Y1" s="144"/>
+      <c r="Z1" s="144"/>
+      <c r="AA1" s="144"/>
+      <c r="AB1" s="144"/>
+      <c r="AC1" s="144"/>
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="144"/>
+      <c r="AF1" s="145"/>
+      <c r="AG1" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="145"/>
-      <c r="AJ1" s="145"/>
-      <c r="AK1" s="145"/>
-      <c r="AL1" s="145"/>
-      <c r="AM1" s="145"/>
-      <c r="AN1" s="145"/>
-      <c r="AO1" s="145"/>
-      <c r="AP1" s="113" t="s">
+      <c r="AH1" s="147"/>
+      <c r="AI1" s="147"/>
+      <c r="AJ1" s="147"/>
+      <c r="AK1" s="147"/>
+      <c r="AL1" s="147"/>
+      <c r="AM1" s="147"/>
+      <c r="AN1" s="147"/>
+      <c r="AO1" s="147"/>
+      <c r="AP1" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="AQ1" s="114"/>
-      <c r="AR1" s="114"/>
-      <c r="AS1" s="114"/>
-      <c r="AT1" s="114"/>
-      <c r="AU1" s="114"/>
-      <c r="AV1" s="114"/>
-      <c r="AW1" s="115"/>
+      <c r="AQ1" s="116"/>
+      <c r="AR1" s="116"/>
+      <c r="AS1" s="116"/>
+      <c r="AT1" s="116"/>
+      <c r="AU1" s="116"/>
+      <c r="AV1" s="116"/>
+      <c r="AW1" s="117"/>
       <c r="AX1" s="89"/>
-      <c r="AY1" s="116" t="s">
+      <c r="AY1" s="118" t="s">
         <v>92</v>
       </c>
-      <c r="AZ1" s="117"/>
-      <c r="BA1" s="117"/>
-      <c r="BB1" s="117"/>
-      <c r="BC1" s="117"/>
-      <c r="BD1" s="118"/>
-      <c r="BE1" s="101"/>
+      <c r="AZ1" s="119"/>
+      <c r="BA1" s="119"/>
+      <c r="BB1" s="119"/>
+      <c r="BC1" s="119"/>
+      <c r="BD1" s="120"/>
+      <c r="BE1" s="100"/>
     </row>
     <row r="2" spans="1:60" s="40" customFormat="1" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
@@ -17231,7 +17211,7 @@
       <c r="AW2" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="AX2" s="97" t="s">
+      <c r="AX2" s="96" t="s">
         <v>108</v>
       </c>
       <c r="AY2" s="41" t="s">
@@ -17252,7 +17232,7 @@
       <c r="BD2" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="BE2" s="102" t="s">
+      <c r="BE2" s="101" t="s">
         <v>109</v>
       </c>
       <c r="BF2" s="56"/>
@@ -17389,7 +17369,7 @@
         <f>COUNTIF(P3,"=0")+COUNTIF(S3,"=1")+COUNTIF(V3,"=2")</f>
         <v>3</v>
       </c>
-      <c r="AR3" s="146">
+      <c r="AR3" s="112">
         <f>AVERAGE(AP3:AQ3)</f>
         <v>3</v>
       </c>
@@ -17401,7 +17381,7 @@
         <f>COUNTIF(AH3,"=0")+COUNTIF(AK3,"=1")+COUNTIF(AN3,"=2")</f>
         <v>3</v>
       </c>
-      <c r="AU3" s="146">
+      <c r="AU3" s="112">
         <f>AVERAGE(AS3:AT3)</f>
         <v>3</v>
       </c>
@@ -17441,19 +17421,19 @@
         <f>BB3-AZ3</f>
         <v>1.9999999999999991</v>
       </c>
-      <c r="BE3" s="103">
+      <c r="BE3" s="102">
         <f>AVERAGE(BC3:BD3)</f>
         <v>2.1666666666666661</v>
       </c>
-      <c r="BF3" s="110">
+      <c r="BF3" s="109">
         <f>BC3/10</f>
         <v>0.23333333333333331</v>
       </c>
-      <c r="BG3" s="110">
+      <c r="BG3" s="109">
         <f t="shared" ref="BG3:BH18" si="0">BD3/10</f>
         <v>0.1999999999999999</v>
       </c>
-      <c r="BH3" s="110">
+      <c r="BH3" s="109">
         <f t="shared" si="0"/>
         <v>0.21666666666666662</v>
       </c>
@@ -17590,7 +17570,7 @@
         <f t="shared" ref="AQ4:AQ26" si="2">COUNTIF(P4,"=0")+COUNTIF(S4,"=1")+COUNTIF(V4,"=2")</f>
         <v>1</v>
       </c>
-      <c r="AR4" s="146">
+      <c r="AR4" s="112">
         <f t="shared" ref="AR4:AR26" si="3">AVERAGE(AP4:AQ4)</f>
         <v>1.5</v>
       </c>
@@ -17602,7 +17582,7 @@
         <f t="shared" ref="AT4:AT26" si="5">COUNTIF(AH4,"=0")+COUNTIF(AK4,"=1")+COUNTIF(AN4,"=2")</f>
         <v>3</v>
       </c>
-      <c r="AU4" s="146">
+      <c r="AU4" s="112">
         <f t="shared" ref="AU4:AU26" si="6">AVERAGE(AS4:AT4)</f>
         <v>3</v>
       </c>
@@ -17642,19 +17622,19 @@
         <f t="shared" ref="BD4:BD26" si="15">BB4-AZ4</f>
         <v>2.0000000000000009</v>
       </c>
-      <c r="BE4" s="103">
+      <c r="BE4" s="102">
         <f t="shared" ref="BE4:BE27" si="16">AVERAGE(BC4:BD4)</f>
         <v>2.666666666666667</v>
       </c>
-      <c r="BF4" s="110">
+      <c r="BF4" s="109">
         <f t="shared" ref="BF4:BF27" si="17">BC4/10</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="BG4" s="110">
+      <c r="BG4" s="109">
         <f t="shared" si="0"/>
         <v>0.20000000000000009</v>
       </c>
-      <c r="BH4" s="110">
+      <c r="BH4" s="109">
         <f t="shared" si="0"/>
         <v>0.26666666666666672</v>
       </c>
@@ -17791,7 +17771,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AR5" s="146">
+      <c r="AR5" s="112">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -17803,7 +17783,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AU5" s="146">
+      <c r="AU5" s="112">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -17843,19 +17823,19 @@
         <f t="shared" si="15"/>
         <v>1.333333333333333</v>
       </c>
-      <c r="BE5" s="103">
+      <c r="BE5" s="102">
         <f t="shared" si="16"/>
         <v>1.8333333333333333</v>
       </c>
-      <c r="BF5" s="110">
+      <c r="BF5" s="109">
         <f t="shared" si="17"/>
         <v>0.23333333333333334</v>
       </c>
-      <c r="BG5" s="110">
+      <c r="BG5" s="109">
         <f t="shared" si="0"/>
         <v>0.1333333333333333</v>
       </c>
-      <c r="BH5" s="110">
+      <c r="BH5" s="109">
         <f t="shared" si="0"/>
         <v>0.18333333333333332</v>
       </c>
@@ -17992,7 +17972,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AR6" s="146">
+      <c r="AR6" s="112">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
@@ -18004,7 +17984,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AU6" s="146">
+      <c r="AU6" s="112">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
@@ -18044,19 +18024,19 @@
         <f t="shared" si="15"/>
         <v>4.333333333333333</v>
       </c>
-      <c r="BE6" s="103">
+      <c r="BE6" s="102">
         <f t="shared" si="16"/>
         <v>2.9999999999999996</v>
       </c>
-      <c r="BF6" s="110">
+      <c r="BF6" s="109">
         <f t="shared" si="17"/>
         <v>0.1666666666666666</v>
       </c>
-      <c r="BG6" s="110">
+      <c r="BG6" s="109">
         <f t="shared" si="0"/>
         <v>0.43333333333333329</v>
       </c>
-      <c r="BH6" s="110">
+      <c r="BH6" s="109">
         <f t="shared" si="0"/>
         <v>0.29999999999999993</v>
       </c>
@@ -18193,7 +18173,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AR7" s="146">
+      <c r="AR7" s="112">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
@@ -18205,7 +18185,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AU7" s="146">
+      <c r="AU7" s="112">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -18245,19 +18225,19 @@
         <f t="shared" si="15"/>
         <v>0.66666666666666785</v>
       </c>
-      <c r="BE7" s="103">
+      <c r="BE7" s="102">
         <f t="shared" si="16"/>
         <v>2.0000000000000004</v>
       </c>
-      <c r="BF7" s="110">
+      <c r="BF7" s="109">
         <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="BG7" s="110">
+      <c r="BG7" s="109">
         <f t="shared" si="0"/>
         <v>6.6666666666666791E-2</v>
       </c>
-      <c r="BH7" s="110">
+      <c r="BH7" s="109">
         <f t="shared" si="0"/>
         <v>0.20000000000000004</v>
       </c>
@@ -18394,7 +18374,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AR8" s="146">
+      <c r="AR8" s="112">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
@@ -18406,7 +18386,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AU8" s="146">
+      <c r="AU8" s="112">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -18446,19 +18426,19 @@
         <f t="shared" si="15"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="BE8" s="103">
+      <c r="BE8" s="102">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="BF8" s="110">
+      <c r="BF8" s="109">
         <f t="shared" si="17"/>
         <v>0.1999999999999999</v>
       </c>
-      <c r="BG8" s="110">
+      <c r="BG8" s="109">
         <f t="shared" si="0"/>
         <v>0.20000000000000009</v>
       </c>
-      <c r="BH8" s="110">
+      <c r="BH8" s="109">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -18595,7 +18575,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AR9" s="146">
+      <c r="AR9" s="112">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -18607,7 +18587,7 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AU9" s="146">
+      <c r="AU9" s="112">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -18647,19 +18627,19 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="BE9" s="103">
+      <c r="BE9" s="102">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="BF9" s="110">
+      <c r="BF9" s="109">
         <f t="shared" si="17"/>
         <v>0.1</v>
       </c>
-      <c r="BG9" s="110">
+      <c r="BG9" s="109">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="BH9" s="110">
+      <c r="BH9" s="109">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -18796,7 +18776,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AR10" s="146">
+      <c r="AR10" s="112">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -18808,7 +18788,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AU10" s="146">
+      <c r="AU10" s="112">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -18848,19 +18828,19 @@
         <f t="shared" si="15"/>
         <v>-1.333333333333333</v>
       </c>
-      <c r="BE10" s="103">
+      <c r="BE10" s="102">
         <f t="shared" si="16"/>
         <v>0.66666666666666674</v>
       </c>
-      <c r="BF10" s="110">
+      <c r="BF10" s="109">
         <f t="shared" si="17"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="BG10" s="110">
+      <c r="BG10" s="109">
         <f t="shared" si="0"/>
         <v>-0.1333333333333333</v>
       </c>
-      <c r="BH10" s="110">
+      <c r="BH10" s="109">
         <f t="shared" si="0"/>
         <v>6.666666666666668E-2</v>
       </c>
@@ -18997,7 +18977,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AR11" s="146">
+      <c r="AR11" s="112">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -19009,7 +18989,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AU11" s="146">
+      <c r="AU11" s="112">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -19049,19 +19029,19 @@
         <f t="shared" si="15"/>
         <v>1.3333333333333339</v>
       </c>
-      <c r="BE11" s="103">
+      <c r="BE11" s="102">
         <f t="shared" si="16"/>
         <v>1.6666666666666674</v>
       </c>
-      <c r="BF11" s="110">
+      <c r="BF11" s="109">
         <f t="shared" si="17"/>
         <v>0.20000000000000009</v>
       </c>
-      <c r="BG11" s="110">
+      <c r="BG11" s="109">
         <f t="shared" si="0"/>
         <v>0.13333333333333339</v>
       </c>
-      <c r="BH11" s="110">
+      <c r="BH11" s="109">
         <f t="shared" si="0"/>
         <v>0.16666666666666674</v>
       </c>
@@ -19198,7 +19178,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AR12" s="146">
+      <c r="AR12" s="112">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -19210,7 +19190,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AU12" s="146">
+      <c r="AU12" s="112">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -19250,19 +19230,19 @@
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="BE12" s="103">
+      <c r="BE12" s="102">
         <f t="shared" si="16"/>
         <v>3.0000000000000004</v>
       </c>
-      <c r="BF12" s="110">
+      <c r="BF12" s="109">
         <f t="shared" si="17"/>
         <v>0.3000000000000001</v>
       </c>
-      <c r="BG12" s="110">
+      <c r="BG12" s="109">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="BH12" s="110">
+      <c r="BH12" s="109">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
@@ -19399,7 +19379,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AR13" s="146">
+      <c r="AR13" s="112">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
@@ -19411,7 +19391,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AU13" s="146">
+      <c r="AU13" s="112">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -19451,19 +19431,19 @@
         <f t="shared" si="15"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="BE13" s="103">
+      <c r="BE13" s="102">
         <f t="shared" si="16"/>
         <v>3.5</v>
       </c>
-      <c r="BF13" s="110">
+      <c r="BF13" s="109">
         <f t="shared" si="17"/>
         <v>0.3666666666666667</v>
       </c>
-      <c r="BG13" s="110">
+      <c r="BG13" s="109">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="BH13" s="110">
+      <c r="BH13" s="109">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
@@ -19600,7 +19580,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AR14" s="146">
+      <c r="AR14" s="112">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -19612,7 +19592,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AU14" s="146">
+      <c r="AU14" s="112">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -19652,19 +19632,19 @@
         <f t="shared" si="15"/>
         <v>1.3333333333333339</v>
       </c>
-      <c r="BE14" s="103">
+      <c r="BE14" s="102">
         <f t="shared" si="16"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="BF14" s="110">
+      <c r="BF14" s="109">
         <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="BG14" s="110">
+      <c r="BG14" s="109">
         <f t="shared" si="0"/>
         <v>0.13333333333333339</v>
       </c>
-      <c r="BH14" s="110">
+      <c r="BH14" s="109">
         <f t="shared" si="0"/>
         <v>0.23333333333333334</v>
       </c>
@@ -19801,7 +19781,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AR15" s="146">
+      <c r="AR15" s="112">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -19813,7 +19793,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AU15" s="146">
+      <c r="AU15" s="112">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -19853,19 +19833,19 @@
         <f t="shared" si="15"/>
         <v>0.66666666666666607</v>
       </c>
-      <c r="BE15" s="103">
+      <c r="BE15" s="102">
         <f t="shared" si="16"/>
         <v>1.6666666666666665</v>
       </c>
-      <c r="BF15" s="110">
+      <c r="BF15" s="109">
         <f t="shared" si="17"/>
         <v>0.26666666666666672</v>
       </c>
-      <c r="BG15" s="110">
+      <c r="BG15" s="109">
         <f t="shared" si="0"/>
         <v>6.666666666666661E-2</v>
       </c>
-      <c r="BH15" s="110">
+      <c r="BH15" s="109">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
@@ -20000,7 +19980,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AR16" s="146">
+      <c r="AR16" s="112">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
@@ -20012,7 +19992,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AU16" s="146">
+      <c r="AU16" s="112">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
@@ -20052,19 +20032,19 @@
         <f t="shared" si="15"/>
         <v>0.66666666666666696</v>
       </c>
-      <c r="BE16" s="103">
+      <c r="BE16" s="102">
         <f t="shared" si="16"/>
         <v>3.0833333333333335</v>
       </c>
-      <c r="BF16" s="110">
+      <c r="BF16" s="109">
         <f t="shared" si="17"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="BG16" s="110">
+      <c r="BG16" s="109">
         <f t="shared" si="0"/>
         <v>6.6666666666666693E-2</v>
       </c>
-      <c r="BH16" s="110">
+      <c r="BH16" s="109">
         <f t="shared" si="0"/>
         <v>0.30833333333333335</v>
       </c>
@@ -20201,7 +20181,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AR17" s="146">
+      <c r="AR17" s="112">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
@@ -20213,7 +20193,7 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AU17" s="146">
+      <c r="AU17" s="112">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
@@ -20253,19 +20233,19 @@
         <f t="shared" si="15"/>
         <v>3.0000000000000009</v>
       </c>
-      <c r="BE17" s="103">
+      <c r="BE17" s="102">
         <f t="shared" si="16"/>
         <v>3.8333333333333335</v>
       </c>
-      <c r="BF17" s="110">
+      <c r="BF17" s="109">
         <f t="shared" si="17"/>
         <v>0.46666666666666662</v>
       </c>
-      <c r="BG17" s="110">
+      <c r="BG17" s="109">
         <f t="shared" si="0"/>
         <v>0.3000000000000001</v>
       </c>
-      <c r="BH17" s="110">
+      <c r="BH17" s="109">
         <f t="shared" si="0"/>
         <v>0.38333333333333336</v>
       </c>
@@ -20402,7 +20382,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AR18" s="146">
+      <c r="AR18" s="112">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -20414,7 +20394,7 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AU18" s="146">
+      <c r="AU18" s="112">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
@@ -20454,19 +20434,19 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BE18" s="103">
+      <c r="BE18" s="102">
         <f t="shared" si="16"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="BF18" s="110">
+      <c r="BF18" s="109">
         <f t="shared" si="17"/>
         <v>3.3333333333333347E-2</v>
       </c>
-      <c r="BG18" s="110">
+      <c r="BG18" s="109">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BH18" s="110">
+      <c r="BH18" s="109">
         <f t="shared" si="0"/>
         <v>1.6666666666666673E-2</v>
       </c>
@@ -20603,7 +20583,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AR19" s="146">
+      <c r="AR19" s="112">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
@@ -20615,7 +20595,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AU19" s="146">
+      <c r="AU19" s="112">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -20655,19 +20635,19 @@
         <f t="shared" si="15"/>
         <v>2.3333333333333339</v>
       </c>
-      <c r="BE19" s="103">
+      <c r="BE19" s="102">
         <f t="shared" si="16"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="BF19" s="110">
+      <c r="BF19" s="109">
         <f t="shared" si="17"/>
         <v>0.23333333333333331</v>
       </c>
-      <c r="BG19" s="110">
+      <c r="BG19" s="109">
         <f t="shared" ref="BG19:BG27" si="18">BD19/10</f>
         <v>0.23333333333333339</v>
       </c>
-      <c r="BH19" s="110">
+      <c r="BH19" s="109">
         <f t="shared" ref="BH19:BH27" si="19">BE19/10</f>
         <v>0.23333333333333334</v>
       </c>
@@ -20804,7 +20784,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AR20" s="146">
+      <c r="AR20" s="112">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
@@ -20816,7 +20796,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AU20" s="146">
+      <c r="AU20" s="112">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -20856,19 +20836,19 @@
         <f t="shared" si="15"/>
         <v>0.66666666666666607</v>
       </c>
-      <c r="BE20" s="103">
+      <c r="BE20" s="102">
         <f t="shared" si="16"/>
         <v>1.333333333333333</v>
       </c>
-      <c r="BF20" s="110">
+      <c r="BF20" s="109">
         <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
-      <c r="BG20" s="110">
+      <c r="BG20" s="109">
         <f t="shared" si="18"/>
         <v>6.666666666666661E-2</v>
       </c>
-      <c r="BH20" s="110">
+      <c r="BH20" s="109">
         <f t="shared" si="19"/>
         <v>0.1333333333333333</v>
       </c>
@@ -21005,7 +20985,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AR21" s="146">
+      <c r="AR21" s="112">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
@@ -21017,7 +20997,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AU21" s="146">
+      <c r="AU21" s="112">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -21057,19 +21037,19 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="BE21" s="103">
+      <c r="BE21" s="102">
         <f t="shared" si="16"/>
         <v>2.5000000000000004</v>
       </c>
-      <c r="BF21" s="110">
+      <c r="BF21" s="109">
         <f t="shared" si="17"/>
         <v>0.40000000000000008</v>
       </c>
-      <c r="BG21" s="110">
+      <c r="BG21" s="109">
         <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
-      <c r="BH21" s="110">
+      <c r="BH21" s="109">
         <f t="shared" si="19"/>
         <v>0.25000000000000006</v>
       </c>
@@ -21206,7 +21186,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AR22" s="146">
+      <c r="AR22" s="112">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -21218,7 +21198,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AU22" s="146">
+      <c r="AU22" s="112">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -21258,19 +21238,19 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="BE22" s="103">
+      <c r="BE22" s="102">
         <f t="shared" si="16"/>
         <v>1.3333333333333335</v>
       </c>
-      <c r="BF22" s="110">
+      <c r="BF22" s="109">
         <f t="shared" si="17"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="BG22" s="110">
+      <c r="BG22" s="109">
         <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
-      <c r="BH22" s="110">
+      <c r="BH22" s="109">
         <f t="shared" si="19"/>
         <v>0.13333333333333336</v>
       </c>
@@ -21407,7 +21387,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AR23" s="146">
+      <c r="AR23" s="112">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
@@ -21419,7 +21399,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AU23" s="146">
+      <c r="AU23" s="112">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -21459,19 +21439,19 @@
         <f t="shared" si="15"/>
         <v>-1</v>
       </c>
-      <c r="BE23" s="103">
+      <c r="BE23" s="102">
         <f t="shared" si="16"/>
         <v>-0.16666666666666696</v>
       </c>
-      <c r="BF23" s="110">
+      <c r="BF23" s="109">
         <f t="shared" si="17"/>
         <v>6.666666666666661E-2</v>
       </c>
-      <c r="BG23" s="110">
+      <c r="BG23" s="109">
         <f t="shared" si="18"/>
         <v>-0.1</v>
       </c>
-      <c r="BH23" s="110">
+      <c r="BH23" s="109">
         <f t="shared" si="19"/>
         <v>-1.6666666666666698E-2</v>
       </c>
@@ -21608,7 +21588,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AR24" s="146">
+      <c r="AR24" s="112">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
@@ -21620,7 +21600,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AU24" s="146">
+      <c r="AU24" s="112">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -21660,19 +21640,19 @@
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="BE24" s="103">
+      <c r="BE24" s="102">
         <f t="shared" si="16"/>
         <v>2.8333333333333335</v>
       </c>
-      <c r="BF24" s="110">
+      <c r="BF24" s="109">
         <f t="shared" si="17"/>
         <v>0.3666666666666667</v>
       </c>
-      <c r="BG24" s="110">
+      <c r="BG24" s="109">
         <f t="shared" si="18"/>
         <v>0.2</v>
       </c>
-      <c r="BH24" s="110">
+      <c r="BH24" s="109">
         <f t="shared" si="19"/>
         <v>0.28333333333333333</v>
       </c>
@@ -21809,7 +21789,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AR25" s="146">
+      <c r="AR25" s="112">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
@@ -21821,7 +21801,7 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AU25" s="146">
+      <c r="AU25" s="112">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
@@ -21861,19 +21841,19 @@
         <f t="shared" si="15"/>
         <v>-1.9999999999999996</v>
       </c>
-      <c r="BE25" s="103">
+      <c r="BE25" s="102">
         <f t="shared" si="16"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="BF25" s="110">
+      <c r="BF25" s="109">
         <f t="shared" si="17"/>
         <v>0.23333333333333331</v>
       </c>
-      <c r="BG25" s="110">
+      <c r="BG25" s="109">
         <f t="shared" si="18"/>
         <v>-0.19999999999999996</v>
       </c>
-      <c r="BH25" s="110">
+      <c r="BH25" s="109">
         <f t="shared" si="19"/>
         <v>1.6666666666666673E-2</v>
       </c>
@@ -22010,7 +21990,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AR26" s="146">
+      <c r="AR26" s="112">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
@@ -22022,7 +22002,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AU26" s="146">
+      <c r="AU26" s="112">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -22062,19 +22042,19 @@
         <f t="shared" si="15"/>
         <v>0.66666666666666607</v>
       </c>
-      <c r="BE26" s="103">
+      <c r="BE26" s="102">
         <f t="shared" si="16"/>
         <v>1.8333333333333326</v>
       </c>
-      <c r="BF26" s="110">
+      <c r="BF26" s="109">
         <f t="shared" si="17"/>
         <v>0.29999999999999993</v>
       </c>
-      <c r="BG26" s="110">
+      <c r="BG26" s="109">
         <f t="shared" si="18"/>
         <v>6.666666666666661E-2</v>
       </c>
-      <c r="BH26" s="110">
+      <c r="BH26" s="109">
         <f t="shared" si="19"/>
         <v>0.18333333333333326</v>
       </c>
@@ -22153,28 +22133,28 @@
         <f>AVERAGE(BD3:BD26)</f>
         <v>1.2499999999999998</v>
       </c>
-      <c r="BE27" s="103">
+      <c r="BE27" s="102">
         <f t="shared" si="16"/>
         <v>1.9479166666666665</v>
       </c>
-      <c r="BF27" s="110">
+      <c r="BF27" s="109">
         <f t="shared" si="17"/>
         <v>0.26458333333333334</v>
       </c>
-      <c r="BG27" s="110">
+      <c r="BG27" s="109">
         <f t="shared" si="18"/>
         <v>0.12499999999999997</v>
       </c>
-      <c r="BH27" s="110">
+      <c r="BH27" s="109">
         <f t="shared" si="19"/>
         <v>0.19479166666666664</v>
       </c>
     </row>
     <row r="28" spans="1:60" s="31" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="119" t="s">
+      <c r="A28" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="120"/>
+      <c r="B28" s="122"/>
       <c r="C28" s="33" t="s">
         <v>71</v>
       </c>
@@ -22306,7 +22286,7 @@
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="AX28" s="98">
+      <c r="AX28" s="97">
         <f t="shared" ref="AX28" si="20">SUM(AV28, AW28)</f>
         <v>33</v>
       </c>
@@ -22316,11 +22296,11 @@
       <c r="BB28" s="32"/>
       <c r="BC28" s="32"/>
       <c r="BD28" s="35"/>
-      <c r="BE28" s="104"/>
+      <c r="BE28" s="103"/>
     </row>
     <row r="29" spans="1:60" s="31" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="121"/>
-      <c r="B29" s="122"/>
+      <c r="A29" s="123"/>
+      <c r="B29" s="124"/>
       <c r="C29" s="65" t="s">
         <v>103</v>
       </c>
@@ -22428,7 +22408,7 @@
         <f t="shared" si="21"/>
         <v>0.54166666666666663</v>
       </c>
-      <c r="AX29" s="99">
+      <c r="AX29" s="98">
         <f>AVERAGE(AV29:AW29)</f>
         <v>0.6875</v>
       </c>
@@ -22456,14 +22436,14 @@
         <f>BB29-AZ29</f>
         <v>1.2500000000000009</v>
       </c>
-      <c r="BE29" s="99">
+      <c r="BE29" s="98">
         <f>AVERAGE(BC29:BD29)</f>
         <v>1.9254227053140092</v>
       </c>
     </row>
     <row r="30" spans="1:60" s="73" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="121"/>
-      <c r="B30" s="122"/>
+      <c r="A30" s="123"/>
+      <c r="B30" s="124"/>
       <c r="C30" s="65" t="s">
         <v>104</v>
       </c>
@@ -22561,7 +22541,7 @@
         <f>AVERAGE(AW3:AW14)</f>
         <v>1</v>
       </c>
-      <c r="AX30" s="99">
+      <c r="AX30" s="98">
         <f t="shared" ref="AX30:AX31" si="22">AVERAGE(AV30:AW30)</f>
         <v>0.91666666666666674</v>
       </c>
@@ -22589,14 +22569,14 @@
         <f t="shared" ref="BD30:BD31" si="28">BB30-AZ30</f>
         <v>1.7499999999999991</v>
       </c>
-      <c r="BE30" s="99">
+      <c r="BE30" s="98">
         <f t="shared" ref="BE30:BE31" si="29">AVERAGE(BC30:BD30)</f>
         <v>2.1527777777777777</v>
       </c>
     </row>
     <row r="31" spans="1:60" s="76" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="123"/>
-      <c r="B31" s="124"/>
+      <c r="A31" s="125"/>
+      <c r="B31" s="126"/>
       <c r="C31" s="28" t="s">
         <v>105</v>
       </c>
@@ -22694,7 +22674,7 @@
         <f>AVERAGE(AW15:AW26)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="AX31" s="100">
+      <c r="AX31" s="99">
         <f t="shared" si="22"/>
         <v>0.45833333333333337</v>
       </c>
@@ -22722,7 +22702,7 @@
         <f t="shared" si="28"/>
         <v>0.75</v>
       </c>
-      <c r="BE31" s="100">
+      <c r="BE31" s="99">
         <f t="shared" si="29"/>
         <v>1.7108585858585852</v>
       </c>
@@ -22763,11 +22743,10 @@
       <c r="I34"/>
       <c r="AH34"/>
       <c r="AI34"/>
-      <c r="AV34" s="125" t="s">
+      <c r="AV34" s="127" t="s">
         <v>76</v>
       </c>
-      <c r="AW34" s="126"/>
-      <c r="AX34" s="96"/>
+      <c r="AW34" s="128"/>
     </row>
     <row r="35" spans="1:50" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="s">
@@ -22785,9 +22764,8 @@
       <c r="I35"/>
       <c r="AH35"/>
       <c r="AI35"/>
-      <c r="AV35" s="127"/>
-      <c r="AW35" s="128"/>
-      <c r="AX35" s="96"/>
+      <c r="AV35" s="129"/>
+      <c r="AW35" s="130"/>
     </row>
     <row r="36" spans="1:50" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
@@ -22799,9 +22777,8 @@
       <c r="I36"/>
       <c r="AH36"/>
       <c r="AI36"/>
-      <c r="AV36" s="127"/>
-      <c r="AW36" s="128"/>
-      <c r="AX36" s="96"/>
+      <c r="AV36" s="129"/>
+      <c r="AW36" s="130"/>
     </row>
     <row r="37" spans="1:50" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D37"/>
@@ -22816,15 +22793,14 @@
       </c>
       <c r="AH37"/>
       <c r="AI37"/>
-      <c r="AV37" s="127"/>
-      <c r="AW37" s="128"/>
-      <c r="AX37" s="96"/>
+      <c r="AV37" s="129"/>
+      <c r="AW37" s="130"/>
     </row>
     <row r="38" spans="1:50" ht="45" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="107" t="s">
+      <c r="C38" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="106">
+      <c r="D38" s="105">
         <v>36</v>
       </c>
       <c r="G38"/>
@@ -22841,12 +22817,11 @@
       <c r="R38" s="13">
         <v>1</v>
       </c>
-      <c r="AV38" s="127"/>
-      <c r="AW38" s="128"/>
-      <c r="AX38" s="96"/>
+      <c r="AV38" s="129"/>
+      <c r="AW38" s="130"/>
     </row>
     <row r="39" spans="1:50" ht="45" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="108" t="s">
+      <c r="C39" s="107" t="s">
         <v>113</v>
       </c>
       <c r="D39" s="19">
@@ -22866,12 +22841,11 @@
       <c r="R39" s="13">
         <v>2</v>
       </c>
-      <c r="AV39" s="129"/>
-      <c r="AW39" s="130"/>
-      <c r="AX39" s="96"/>
+      <c r="AV39" s="131"/>
+      <c r="AW39" s="132"/>
     </row>
     <row r="40" spans="1:50" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="108" t="s">
+      <c r="C40" s="107" t="s">
         <v>113</v>
       </c>
       <c r="D40" s="19">
@@ -22892,12 +22866,10 @@
       <c r="AN40" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="AO40">
-        <v>3</v>
-      </c>
+      <c r="AO40"/>
     </row>
     <row r="41" spans="1:50" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="108" t="s">
+      <c r="C41" s="107" t="s">
         <v>113</v>
       </c>
       <c r="D41" s="19">
@@ -22923,7 +22895,7 @@
       </c>
     </row>
     <row r="42" spans="1:50" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="108" t="s">
+      <c r="C42" s="107" t="s">
         <v>113</v>
       </c>
       <c r="D42" s="19">
@@ -22949,7 +22921,7 @@
       </c>
     </row>
     <row r="43" spans="1:50" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="108" t="s">
+      <c r="C43" s="107" t="s">
         <v>113</v>
       </c>
       <c r="D43" s="19">
@@ -22975,7 +22947,7 @@
       </c>
     </row>
     <row r="44" spans="1:50" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="108" t="s">
+      <c r="C44" s="107" t="s">
         <v>113</v>
       </c>
       <c r="D44" s="19">
@@ -23001,7 +22973,7 @@
       </c>
     </row>
     <row r="45" spans="1:50" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="108" t="s">
+      <c r="C45" s="107" t="s">
         <v>113</v>
       </c>
       <c r="D45" s="19">
@@ -23027,7 +22999,7 @@
       </c>
     </row>
     <row r="46" spans="1:50" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="108" t="s">
+      <c r="C46" s="107" t="s">
         <v>113</v>
       </c>
       <c r="D46" s="19">
@@ -23053,7 +23025,7 @@
       </c>
     </row>
     <row r="47" spans="1:50" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="108" t="s">
+      <c r="C47" s="107" t="s">
         <v>113</v>
       </c>
       <c r="D47" s="19">
@@ -23079,7 +23051,7 @@
       </c>
     </row>
     <row r="48" spans="1:50" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="108" t="s">
+      <c r="C48" s="107" t="s">
         <v>113</v>
       </c>
       <c r="D48" s="19">
@@ -23105,7 +23077,7 @@
       </c>
     </row>
     <row r="49" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="108" t="s">
+      <c r="C49" s="107" t="s">
         <v>113</v>
       </c>
       <c r="D49" s="19">
@@ -23131,7 +23103,7 @@
       </c>
     </row>
     <row r="50" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="108" t="s">
+      <c r="C50" s="107" t="s">
         <v>113</v>
       </c>
       <c r="D50" s="19">
@@ -23157,7 +23129,7 @@
       </c>
     </row>
     <row r="51" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="108" t="s">
+      <c r="C51" s="107" t="s">
         <v>113</v>
       </c>
       <c r="D51" s="19">
@@ -23183,7 +23155,7 @@
       </c>
     </row>
     <row r="52" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="108" t="s">
+      <c r="C52" s="107" t="s">
         <v>113</v>
       </c>
       <c r="D52" s="19">
@@ -23209,7 +23181,7 @@
       </c>
     </row>
     <row r="53" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="108" t="s">
+      <c r="C53" s="107" t="s">
         <v>113</v>
       </c>
       <c r="D53" s="19">
@@ -23235,7 +23207,7 @@
       </c>
     </row>
     <row r="54" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="108" t="s">
+      <c r="C54" s="107" t="s">
         <v>113</v>
       </c>
       <c r="D54" s="19">
@@ -23261,7 +23233,7 @@
       </c>
     </row>
     <row r="55" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="108" t="s">
+      <c r="C55" s="107" t="s">
         <v>113</v>
       </c>
       <c r="D55" s="19">
@@ -23287,7 +23259,7 @@
       </c>
     </row>
     <row r="56" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="108" t="s">
+      <c r="C56" s="107" t="s">
         <v>113</v>
       </c>
       <c r="D56" s="19">
@@ -23313,7 +23285,7 @@
       </c>
     </row>
     <row r="57" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="108" t="s">
+      <c r="C57" s="107" t="s">
         <v>113</v>
       </c>
       <c r="D57" s="19">
@@ -23339,7 +23311,7 @@
       </c>
     </row>
     <row r="58" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="108" t="s">
+      <c r="C58" s="107" t="s">
         <v>113</v>
       </c>
       <c r="D58" s="19">
@@ -23365,7 +23337,7 @@
       </c>
     </row>
     <row r="59" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="108" t="s">
+      <c r="C59" s="107" t="s">
         <v>113</v>
       </c>
       <c r="D59" s="19">
@@ -23391,7 +23363,7 @@
       </c>
     </row>
     <row r="60" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="108" t="s">
+      <c r="C60" s="107" t="s">
         <v>113</v>
       </c>
       <c r="D60" s="19">
@@ -23417,7 +23389,7 @@
       </c>
     </row>
     <row r="61" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="108" t="s">
+      <c r="C61" s="107" t="s">
         <v>113</v>
       </c>
       <c r="D61" s="19">
@@ -23429,7 +23401,7 @@
       <c r="J61" s="18">
         <v>36</v>
       </c>
-      <c r="Q61" s="111" t="s">
+      <c r="Q61" s="110" t="s">
         <v>124</v>
       </c>
       <c r="R61" s="13">
@@ -23443,7 +23415,7 @@
       </c>
     </row>
     <row r="62" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="108" t="s">
+      <c r="C62" s="107" t="s">
         <v>114</v>
       </c>
       <c r="D62" s="19">
@@ -23455,7 +23427,7 @@
       <c r="J62" s="21">
         <v>12</v>
       </c>
-      <c r="Q62" s="111" t="s">
+      <c r="Q62" s="110" t="s">
         <v>124</v>
       </c>
       <c r="R62" s="13">
@@ -23469,7 +23441,7 @@
       </c>
     </row>
     <row r="63" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="108" t="s">
+      <c r="C63" s="107" t="s">
         <v>114</v>
       </c>
       <c r="D63" s="19">
@@ -23481,7 +23453,7 @@
       <c r="J63" s="21">
         <v>10</v>
       </c>
-      <c r="Q63" s="111" t="s">
+      <c r="Q63" s="110" t="s">
         <v>124</v>
       </c>
       <c r="R63" s="13">
@@ -23495,7 +23467,7 @@
       </c>
     </row>
     <row r="64" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="108" t="s">
+      <c r="C64" s="107" t="s">
         <v>114</v>
       </c>
       <c r="D64" s="19">
@@ -23507,13 +23479,13 @@
       <c r="J64" s="21">
         <v>15</v>
       </c>
-      <c r="Q64" s="111" t="s">
+      <c r="Q64" s="110" t="s">
         <v>124</v>
       </c>
       <c r="R64" s="13">
         <v>1</v>
       </c>
-      <c r="AN64" s="147" t="s">
+      <c r="AN64" s="113" t="s">
         <v>126</v>
       </c>
       <c r="AO64">
@@ -23521,7 +23493,7 @@
       </c>
     </row>
     <row r="65" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="108" t="s">
+      <c r="C65" s="107" t="s">
         <v>114</v>
       </c>
       <c r="D65" s="19">
@@ -23533,13 +23505,13 @@
       <c r="J65" s="21">
         <v>12</v>
       </c>
-      <c r="Q65" s="111" t="s">
+      <c r="Q65" s="110" t="s">
         <v>124</v>
       </c>
       <c r="R65" s="13">
         <v>2</v>
       </c>
-      <c r="AN65" s="147" t="s">
+      <c r="AN65" s="113" t="s">
         <v>126</v>
       </c>
       <c r="AO65">
@@ -23547,7 +23519,7 @@
       </c>
     </row>
     <row r="66" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="108" t="s">
+      <c r="C66" s="107" t="s">
         <v>114</v>
       </c>
       <c r="D66" s="19">
@@ -23559,13 +23531,13 @@
       <c r="J66" s="21">
         <v>20</v>
       </c>
-      <c r="Q66" s="111" t="s">
+      <c r="Q66" s="110" t="s">
         <v>124</v>
       </c>
       <c r="R66" s="13">
         <v>1</v>
       </c>
-      <c r="AN66" s="147" t="s">
+      <c r="AN66" s="113" t="s">
         <v>126</v>
       </c>
       <c r="AO66">
@@ -23573,7 +23545,7 @@
       </c>
     </row>
     <row r="67" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="108" t="s">
+      <c r="C67" s="107" t="s">
         <v>114</v>
       </c>
       <c r="D67" s="19">
@@ -23585,13 +23557,13 @@
       <c r="J67" s="21">
         <v>11</v>
       </c>
-      <c r="Q67" s="111" t="s">
+      <c r="Q67" s="110" t="s">
         <v>124</v>
       </c>
       <c r="R67" s="13">
         <v>1</v>
       </c>
-      <c r="AN67" s="147" t="s">
+      <c r="AN67" s="113" t="s">
         <v>126</v>
       </c>
       <c r="AO67">
@@ -23599,7 +23571,7 @@
       </c>
     </row>
     <row r="68" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="108" t="s">
+      <c r="C68" s="107" t="s">
         <v>114</v>
       </c>
       <c r="D68" s="19">
@@ -23611,13 +23583,13 @@
       <c r="J68" s="21">
         <v>40</v>
       </c>
-      <c r="Q68" s="111" t="s">
+      <c r="Q68" s="110" t="s">
         <v>124</v>
       </c>
       <c r="R68" s="13">
         <v>2</v>
       </c>
-      <c r="AN68" s="147" t="s">
+      <c r="AN68" s="113" t="s">
         <v>126</v>
       </c>
       <c r="AO68">
@@ -23625,7 +23597,7 @@
       </c>
     </row>
     <row r="69" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="108" t="s">
+      <c r="C69" s="107" t="s">
         <v>114</v>
       </c>
       <c r="D69" s="19">
@@ -23637,13 +23609,13 @@
       <c r="J69" s="21">
         <v>15</v>
       </c>
-      <c r="Q69" s="111" t="s">
+      <c r="Q69" s="110" t="s">
         <v>124</v>
       </c>
       <c r="R69" s="13">
         <v>0</v>
       </c>
-      <c r="AN69" s="147" t="s">
+      <c r="AN69" s="113" t="s">
         <v>126</v>
       </c>
       <c r="AO69">
@@ -23651,7 +23623,7 @@
       </c>
     </row>
     <row r="70" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="108" t="s">
+      <c r="C70" s="107" t="s">
         <v>114</v>
       </c>
       <c r="D70" s="19">
@@ -23663,13 +23635,13 @@
       <c r="J70" s="21">
         <v>12</v>
       </c>
-      <c r="Q70" s="111" t="s">
+      <c r="Q70" s="110" t="s">
         <v>124</v>
       </c>
       <c r="R70" s="13">
         <v>1</v>
       </c>
-      <c r="AN70" s="147" t="s">
+      <c r="AN70" s="113" t="s">
         <v>126</v>
       </c>
       <c r="AO70">
@@ -23677,7 +23649,7 @@
       </c>
     </row>
     <row r="71" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="108" t="s">
+      <c r="C71" s="107" t="s">
         <v>114</v>
       </c>
       <c r="D71" s="19">
@@ -23689,13 +23661,13 @@
       <c r="J71" s="21">
         <v>10</v>
       </c>
-      <c r="Q71" s="111" t="s">
+      <c r="Q71" s="110" t="s">
         <v>124</v>
       </c>
       <c r="R71" s="13">
         <v>2</v>
       </c>
-      <c r="AN71" s="147" t="s">
+      <c r="AN71" s="113" t="s">
         <v>126</v>
       </c>
       <c r="AO71">
@@ -23703,7 +23675,7 @@
       </c>
     </row>
     <row r="72" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="108" t="s">
+      <c r="C72" s="107" t="s">
         <v>114</v>
       </c>
       <c r="D72" s="19">
@@ -23715,13 +23687,13 @@
       <c r="J72" s="21">
         <v>18</v>
       </c>
-      <c r="Q72" s="111" t="s">
+      <c r="Q72" s="110" t="s">
         <v>124</v>
       </c>
       <c r="R72" s="13">
         <v>0</v>
       </c>
-      <c r="AN72" s="147" t="s">
+      <c r="AN72" s="113" t="s">
         <v>126</v>
       </c>
       <c r="AO72">
@@ -23729,7 +23701,7 @@
       </c>
     </row>
     <row r="73" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="108" t="s">
+      <c r="C73" s="107" t="s">
         <v>114</v>
       </c>
       <c r="D73" s="19">
@@ -23741,13 +23713,13 @@
       <c r="J73" s="21">
         <v>12</v>
       </c>
-      <c r="Q73" s="111" t="s">
+      <c r="Q73" s="110" t="s">
         <v>124</v>
       </c>
       <c r="R73" s="13">
         <v>0</v>
       </c>
-      <c r="AN73" s="147" t="s">
+      <c r="AN73" s="113" t="s">
         <v>126</v>
       </c>
       <c r="AO73">
@@ -23755,7 +23727,7 @@
       </c>
     </row>
     <row r="74" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="108" t="s">
+      <c r="C74" s="107" t="s">
         <v>115</v>
       </c>
       <c r="D74" s="19">
@@ -23767,13 +23739,13 @@
       <c r="J74" s="21">
         <v>10</v>
       </c>
-      <c r="Q74" s="111" t="s">
+      <c r="Q74" s="110" t="s">
         <v>124</v>
       </c>
       <c r="R74" s="13">
         <v>0</v>
       </c>
-      <c r="AN74" s="147" t="s">
+      <c r="AN74" s="113" t="s">
         <v>126</v>
       </c>
       <c r="AO74">
@@ -23781,7 +23753,7 @@
       </c>
     </row>
     <row r="75" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="108" t="s">
+      <c r="C75" s="107" t="s">
         <v>115</v>
       </c>
       <c r="D75" s="19">
@@ -23793,13 +23765,13 @@
       <c r="J75" s="21">
         <v>14</v>
       </c>
-      <c r="Q75" s="111" t="s">
+      <c r="Q75" s="110" t="s">
         <v>124</v>
       </c>
       <c r="R75" s="13">
         <v>-1</v>
       </c>
-      <c r="AN75" s="147" t="s">
+      <c r="AN75" s="113" t="s">
         <v>126</v>
       </c>
       <c r="AO75">
@@ -23807,7 +23779,7 @@
       </c>
     </row>
     <row r="76" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="108" t="s">
+      <c r="C76" s="107" t="s">
         <v>115</v>
       </c>
       <c r="D76" s="19">
@@ -23819,13 +23791,13 @@
       <c r="J76" s="21">
         <v>11</v>
       </c>
-      <c r="Q76" s="111" t="s">
+      <c r="Q76" s="110" t="s">
         <v>124</v>
       </c>
       <c r="R76" s="13">
         <v>-1</v>
       </c>
-      <c r="AN76" s="147" t="s">
+      <c r="AN76" s="113" t="s">
         <v>126</v>
       </c>
       <c r="AO76">
@@ -23833,7 +23805,7 @@
       </c>
     </row>
     <row r="77" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="108" t="s">
+      <c r="C77" s="107" t="s">
         <v>115</v>
       </c>
       <c r="D77" s="19">
@@ -23845,13 +23817,13 @@
       <c r="J77" s="21">
         <v>58</v>
       </c>
-      <c r="Q77" s="111" t="s">
+      <c r="Q77" s="110" t="s">
         <v>124</v>
       </c>
       <c r="R77" s="13">
         <v>1</v>
       </c>
-      <c r="AN77" s="147" t="s">
+      <c r="AN77" s="113" t="s">
         <v>126</v>
       </c>
       <c r="AO77">
@@ -23859,7 +23831,7 @@
       </c>
     </row>
     <row r="78" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="108" t="s">
+      <c r="C78" s="107" t="s">
         <v>115</v>
       </c>
       <c r="D78" s="19">
@@ -23871,13 +23843,13 @@
       <c r="J78" s="21">
         <v>11</v>
       </c>
-      <c r="Q78" s="111" t="s">
+      <c r="Q78" s="110" t="s">
         <v>124</v>
       </c>
       <c r="R78" s="13">
         <v>0</v>
       </c>
-      <c r="AN78" s="147" t="s">
+      <c r="AN78" s="113" t="s">
         <v>126</v>
       </c>
       <c r="AO78">
@@ -23885,7 +23857,7 @@
       </c>
     </row>
     <row r="79" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="108" t="s">
+      <c r="C79" s="107" t="s">
         <v>115</v>
       </c>
       <c r="D79" s="19">
@@ -23897,13 +23869,13 @@
       <c r="J79" s="21">
         <v>15</v>
       </c>
-      <c r="Q79" s="111" t="s">
+      <c r="Q79" s="110" t="s">
         <v>124</v>
       </c>
       <c r="R79" s="13">
         <v>1</v>
       </c>
-      <c r="AN79" s="147" t="s">
+      <c r="AN79" s="113" t="s">
         <v>126</v>
       </c>
       <c r="AO79">
@@ -23911,7 +23883,7 @@
       </c>
     </row>
     <row r="80" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="108" t="s">
+      <c r="C80" s="107" t="s">
         <v>115</v>
       </c>
       <c r="D80" s="19">
@@ -23923,13 +23895,13 @@
       <c r="J80" s="21">
         <v>23</v>
       </c>
-      <c r="Q80" s="111" t="s">
+      <c r="Q80" s="110" t="s">
         <v>124</v>
       </c>
       <c r="R80" s="13">
         <v>0</v>
       </c>
-      <c r="AN80" s="147" t="s">
+      <c r="AN80" s="113" t="s">
         <v>126</v>
       </c>
       <c r="AO80">
@@ -23937,7 +23909,7 @@
       </c>
     </row>
     <row r="81" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="108" t="s">
+      <c r="C81" s="107" t="s">
         <v>115</v>
       </c>
       <c r="D81" s="19">
@@ -23949,13 +23921,13 @@
       <c r="J81" s="21">
         <v>11</v>
       </c>
-      <c r="Q81" s="111" t="s">
+      <c r="Q81" s="110" t="s">
         <v>124</v>
       </c>
       <c r="R81" s="13">
         <v>1</v>
       </c>
-      <c r="AN81" s="147" t="s">
+      <c r="AN81" s="113" t="s">
         <v>126</v>
       </c>
       <c r="AO81">
@@ -23963,7 +23935,7 @@
       </c>
     </row>
     <row r="82" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C82" s="108" t="s">
+      <c r="C82" s="107" t="s">
         <v>115</v>
       </c>
       <c r="D82" s="19">
@@ -23975,13 +23947,13 @@
       <c r="J82" s="21">
         <v>19</v>
       </c>
-      <c r="Q82" s="111" t="s">
+      <c r="Q82" s="110" t="s">
         <v>124</v>
       </c>
       <c r="R82" s="13">
         <v>2</v>
       </c>
-      <c r="AN82" s="147" t="s">
+      <c r="AN82" s="113" t="s">
         <v>126</v>
       </c>
       <c r="AO82">
@@ -23989,7 +23961,7 @@
       </c>
     </row>
     <row r="83" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="108" t="s">
+      <c r="C83" s="107" t="s">
         <v>115</v>
       </c>
       <c r="D83" s="19">
@@ -24001,13 +23973,13 @@
       <c r="J83" s="21">
         <v>21</v>
       </c>
-      <c r="Q83" s="111" t="s">
+      <c r="Q83" s="110" t="s">
         <v>124</v>
       </c>
       <c r="R83" s="13">
         <v>-2</v>
       </c>
-      <c r="AN83" s="147" t="s">
+      <c r="AN83" s="113" t="s">
         <v>126</v>
       </c>
       <c r="AO83">
@@ -24015,7 +23987,7 @@
       </c>
     </row>
     <row r="84" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="108" t="s">
+      <c r="C84" s="107" t="s">
         <v>115</v>
       </c>
       <c r="D84" s="19">
@@ -24027,13 +23999,13 @@
       <c r="J84" s="21">
         <v>9</v>
       </c>
-      <c r="Q84" s="111" t="s">
+      <c r="Q84" s="110" t="s">
         <v>124</v>
       </c>
       <c r="R84" s="13">
         <v>0</v>
       </c>
-      <c r="AN84" s="147" t="s">
+      <c r="AN84" s="113" t="s">
         <v>126</v>
       </c>
       <c r="AO84">
@@ -24041,7 +24013,7 @@
       </c>
     </row>
     <row r="85" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="108" t="s">
+      <c r="C85" s="107" t="s">
         <v>115</v>
       </c>
       <c r="D85" s="19">
@@ -24053,13 +24025,13 @@
       <c r="J85" s="21">
         <v>13</v>
       </c>
-      <c r="Q85" s="112" t="s">
+      <c r="Q85" s="111" t="s">
         <v>122</v>
       </c>
       <c r="R85" s="13">
         <v>0</v>
       </c>
-      <c r="AN85" s="147" t="s">
+      <c r="AN85" s="113" t="s">
         <v>126</v>
       </c>
       <c r="AO85">
@@ -24067,19 +24039,19 @@
       </c>
     </row>
     <row r="86" spans="3:41" ht="44" x14ac:dyDescent="0.2">
-      <c r="C86" s="108" t="s">
+      <c r="C86" s="107" t="s">
         <v>116</v>
       </c>
       <c r="D86" s="19">
         <v>12</v>
       </c>
-      <c r="Q86" s="112" t="s">
+      <c r="Q86" s="111" t="s">
         <v>122</v>
       </c>
       <c r="R86" s="13">
         <v>1.5</v>
       </c>
-      <c r="AN86" s="147" t="s">
+      <c r="AN86" s="113" t="s">
         <v>126</v>
       </c>
       <c r="AO86">
@@ -24087,19 +24059,19 @@
       </c>
     </row>
     <row r="87" spans="3:41" ht="44" x14ac:dyDescent="0.2">
-      <c r="C87" s="108" t="s">
+      <c r="C87" s="107" t="s">
         <v>116</v>
       </c>
       <c r="D87" s="19">
         <v>10</v>
       </c>
-      <c r="Q87" s="112" t="s">
+      <c r="Q87" s="111" t="s">
         <v>122</v>
       </c>
       <c r="R87" s="13">
         <v>1</v>
       </c>
-      <c r="AN87" s="147" t="s">
+      <c r="AN87" s="113" t="s">
         <v>126</v>
       </c>
       <c r="AO87">
@@ -24107,19 +24079,19 @@
       </c>
     </row>
     <row r="88" spans="3:41" ht="44" x14ac:dyDescent="0.2">
-      <c r="C88" s="108" t="s">
+      <c r="C88" s="107" t="s">
         <v>116</v>
       </c>
       <c r="D88" s="19">
         <v>15</v>
       </c>
-      <c r="Q88" s="112" t="s">
+      <c r="Q88" s="111" t="s">
         <v>122</v>
       </c>
       <c r="R88" s="13">
         <v>1</v>
       </c>
-      <c r="AN88" s="148" t="s">
+      <c r="AN88" s="114" t="s">
         <v>127</v>
       </c>
       <c r="AO88">
@@ -24127,19 +24099,19 @@
       </c>
     </row>
     <row r="89" spans="3:41" ht="44" x14ac:dyDescent="0.2">
-      <c r="C89" s="108" t="s">
+      <c r="C89" s="107" t="s">
         <v>116</v>
       </c>
       <c r="D89" s="19">
         <v>12</v>
       </c>
-      <c r="Q89" s="112" t="s">
+      <c r="Q89" s="111" t="s">
         <v>122</v>
       </c>
       <c r="R89" s="13">
         <v>1.5</v>
       </c>
-      <c r="AN89" s="148" t="s">
+      <c r="AN89" s="114" t="s">
         <v>127</v>
       </c>
       <c r="AO89">
@@ -24147,19 +24119,19 @@
       </c>
     </row>
     <row r="90" spans="3:41" ht="44" x14ac:dyDescent="0.2">
-      <c r="C90" s="108" t="s">
+      <c r="C90" s="107" t="s">
         <v>116</v>
       </c>
       <c r="D90" s="19">
         <v>20</v>
       </c>
-      <c r="Q90" s="112" t="s">
+      <c r="Q90" s="111" t="s">
         <v>122</v>
       </c>
       <c r="R90" s="13">
         <v>0.5</v>
       </c>
-      <c r="AN90" s="148" t="s">
+      <c r="AN90" s="114" t="s">
         <v>127</v>
       </c>
       <c r="AO90">
@@ -24167,19 +24139,19 @@
       </c>
     </row>
     <row r="91" spans="3:41" ht="44" x14ac:dyDescent="0.2">
-      <c r="C91" s="108" t="s">
+      <c r="C91" s="107" t="s">
         <v>116</v>
       </c>
       <c r="D91" s="19">
         <v>11</v>
       </c>
-      <c r="Q91" s="112" t="s">
+      <c r="Q91" s="111" t="s">
         <v>122</v>
       </c>
       <c r="R91" s="13">
         <v>0</v>
       </c>
-      <c r="AN91" s="148" t="s">
+      <c r="AN91" s="114" t="s">
         <v>127</v>
       </c>
       <c r="AO91">
@@ -24187,19 +24159,19 @@
       </c>
     </row>
     <row r="92" spans="3:41" ht="44" x14ac:dyDescent="0.2">
-      <c r="C92" s="108" t="s">
+      <c r="C92" s="107" t="s">
         <v>116</v>
       </c>
       <c r="D92" s="19">
         <v>40</v>
       </c>
-      <c r="Q92" s="112" t="s">
+      <c r="Q92" s="111" t="s">
         <v>122</v>
       </c>
       <c r="R92" s="13">
         <v>2</v>
       </c>
-      <c r="AN92" s="148" t="s">
+      <c r="AN92" s="114" t="s">
         <v>127</v>
       </c>
       <c r="AO92">
@@ -24207,19 +24179,19 @@
       </c>
     </row>
     <row r="93" spans="3:41" ht="44" x14ac:dyDescent="0.2">
-      <c r="C93" s="108" t="s">
+      <c r="C93" s="107" t="s">
         <v>116</v>
       </c>
       <c r="D93" s="19">
         <v>15</v>
       </c>
-      <c r="Q93" s="112" t="s">
+      <c r="Q93" s="111" t="s">
         <v>122</v>
       </c>
       <c r="R93" s="13">
         <v>0</v>
       </c>
-      <c r="AN93" s="148" t="s">
+      <c r="AN93" s="114" t="s">
         <v>127</v>
       </c>
       <c r="AO93">
@@ -24227,19 +24199,19 @@
       </c>
     </row>
     <row r="94" spans="3:41" ht="44" x14ac:dyDescent="0.2">
-      <c r="C94" s="108" t="s">
+      <c r="C94" s="107" t="s">
         <v>116</v>
       </c>
       <c r="D94" s="19">
         <v>12</v>
       </c>
-      <c r="Q94" s="112" t="s">
+      <c r="Q94" s="111" t="s">
         <v>122</v>
       </c>
       <c r="R94" s="13">
         <v>1</v>
       </c>
-      <c r="AN94" s="148" t="s">
+      <c r="AN94" s="114" t="s">
         <v>127</v>
       </c>
       <c r="AO94">
@@ -24247,19 +24219,19 @@
       </c>
     </row>
     <row r="95" spans="3:41" ht="44" x14ac:dyDescent="0.2">
-      <c r="C95" s="108" t="s">
+      <c r="C95" s="107" t="s">
         <v>116</v>
       </c>
       <c r="D95" s="19">
         <v>10</v>
       </c>
-      <c r="Q95" s="112" t="s">
+      <c r="Q95" s="111" t="s">
         <v>122</v>
       </c>
       <c r="R95" s="13">
         <v>2.5</v>
       </c>
-      <c r="AN95" s="148" t="s">
+      <c r="AN95" s="114" t="s">
         <v>127</v>
       </c>
       <c r="AO95">
@@ -24267,19 +24239,19 @@
       </c>
     </row>
     <row r="96" spans="3:41" ht="44" x14ac:dyDescent="0.2">
-      <c r="C96" s="108" t="s">
+      <c r="C96" s="107" t="s">
         <v>116</v>
       </c>
       <c r="D96" s="19">
         <v>18</v>
       </c>
-      <c r="Q96" s="112" t="s">
+      <c r="Q96" s="111" t="s">
         <v>122</v>
       </c>
       <c r="R96" s="13">
         <v>0</v>
       </c>
-      <c r="AN96" s="148" t="s">
+      <c r="AN96" s="114" t="s">
         <v>127</v>
       </c>
       <c r="AO96">
@@ -24287,19 +24259,19 @@
       </c>
     </row>
     <row r="97" spans="3:41" ht="44" x14ac:dyDescent="0.2">
-      <c r="C97" s="108" t="s">
+      <c r="C97" s="107" t="s">
         <v>116</v>
       </c>
       <c r="D97" s="19">
         <v>12</v>
       </c>
-      <c r="Q97" s="112" t="s">
+      <c r="Q97" s="111" t="s">
         <v>122</v>
       </c>
       <c r="R97" s="13">
         <v>0</v>
       </c>
-      <c r="AN97" s="148" t="s">
+      <c r="AN97" s="114" t="s">
         <v>127</v>
       </c>
       <c r="AO97">
@@ -24307,19 +24279,19 @@
       </c>
     </row>
     <row r="98" spans="3:41" ht="44" x14ac:dyDescent="0.2">
-      <c r="C98" s="108" t="s">
+      <c r="C98" s="107" t="s">
         <v>116</v>
       </c>
       <c r="D98" s="19">
         <v>10</v>
       </c>
-      <c r="Q98" s="112" t="s">
+      <c r="Q98" s="111" t="s">
         <v>122</v>
       </c>
       <c r="R98" s="13">
         <v>1</v>
       </c>
-      <c r="AN98" s="148" t="s">
+      <c r="AN98" s="114" t="s">
         <v>127</v>
       </c>
       <c r="AO98">
@@ -24327,19 +24299,19 @@
       </c>
     </row>
     <row r="99" spans="3:41" ht="44" x14ac:dyDescent="0.2">
-      <c r="C99" s="108" t="s">
+      <c r="C99" s="107" t="s">
         <v>116</v>
       </c>
       <c r="D99" s="19">
         <v>14</v>
       </c>
-      <c r="Q99" s="112" t="s">
+      <c r="Q99" s="111" t="s">
         <v>122</v>
       </c>
       <c r="R99" s="13">
         <v>0</v>
       </c>
-      <c r="AN99" s="148" t="s">
+      <c r="AN99" s="114" t="s">
         <v>127</v>
       </c>
       <c r="AO99">
@@ -24347,19 +24319,19 @@
       </c>
     </row>
     <row r="100" spans="3:41" ht="44" x14ac:dyDescent="0.2">
-      <c r="C100" s="108" t="s">
+      <c r="C100" s="107" t="s">
         <v>116</v>
       </c>
       <c r="D100" s="19">
         <v>11</v>
       </c>
-      <c r="Q100" s="112" t="s">
+      <c r="Q100" s="111" t="s">
         <v>122</v>
       </c>
       <c r="R100" s="13">
         <v>-0.5</v>
       </c>
-      <c r="AN100" s="148" t="s">
+      <c r="AN100" s="114" t="s">
         <v>127</v>
       </c>
       <c r="AO100">
@@ -24367,19 +24339,19 @@
       </c>
     </row>
     <row r="101" spans="3:41" ht="44" x14ac:dyDescent="0.2">
-      <c r="C101" s="108" t="s">
+      <c r="C101" s="107" t="s">
         <v>116</v>
       </c>
       <c r="D101" s="19">
         <v>58</v>
       </c>
-      <c r="Q101" s="112" t="s">
+      <c r="Q101" s="111" t="s">
         <v>122</v>
       </c>
       <c r="R101" s="13">
         <v>0.5</v>
       </c>
-      <c r="AN101" s="148" t="s">
+      <c r="AN101" s="114" t="s">
         <v>127</v>
       </c>
       <c r="AO101">
@@ -24387,19 +24359,19 @@
       </c>
     </row>
     <row r="102" spans="3:41" ht="44" x14ac:dyDescent="0.2">
-      <c r="C102" s="108" t="s">
+      <c r="C102" s="107" t="s">
         <v>116</v>
       </c>
       <c r="D102" s="19">
         <v>11</v>
       </c>
-      <c r="Q102" s="112" t="s">
+      <c r="Q102" s="111" t="s">
         <v>122</v>
       </c>
       <c r="R102" s="13">
         <v>0.5</v>
       </c>
-      <c r="AN102" s="148" t="s">
+      <c r="AN102" s="114" t="s">
         <v>127</v>
       </c>
       <c r="AO102">
@@ -24407,19 +24379,19 @@
       </c>
     </row>
     <row r="103" spans="3:41" ht="44" x14ac:dyDescent="0.2">
-      <c r="C103" s="108" t="s">
+      <c r="C103" s="107" t="s">
         <v>116</v>
       </c>
       <c r="D103" s="19">
         <v>15</v>
       </c>
-      <c r="Q103" s="112" t="s">
+      <c r="Q103" s="111" t="s">
         <v>122</v>
       </c>
       <c r="R103" s="13">
         <v>1.5</v>
       </c>
-      <c r="AN103" s="148" t="s">
+      <c r="AN103" s="114" t="s">
         <v>127</v>
       </c>
       <c r="AO103">
@@ -24427,19 +24399,19 @@
       </c>
     </row>
     <row r="104" spans="3:41" ht="44" x14ac:dyDescent="0.2">
-      <c r="C104" s="108" t="s">
+      <c r="C104" s="107" t="s">
         <v>116</v>
       </c>
       <c r="D104" s="19">
         <v>23</v>
       </c>
-      <c r="Q104" s="112" t="s">
+      <c r="Q104" s="111" t="s">
         <v>122</v>
       </c>
       <c r="R104" s="13">
         <v>0</v>
       </c>
-      <c r="AN104" s="148" t="s">
+      <c r="AN104" s="114" t="s">
         <v>127</v>
       </c>
       <c r="AO104">
@@ -24447,19 +24419,19 @@
       </c>
     </row>
     <row r="105" spans="3:41" ht="44" x14ac:dyDescent="0.2">
-      <c r="C105" s="108" t="s">
+      <c r="C105" s="107" t="s">
         <v>116</v>
       </c>
       <c r="D105" s="19">
         <v>11</v>
       </c>
-      <c r="Q105" s="112" t="s">
+      <c r="Q105" s="111" t="s">
         <v>122</v>
       </c>
       <c r="R105" s="13">
         <v>1.5</v>
       </c>
-      <c r="AN105" s="148" t="s">
+      <c r="AN105" s="114" t="s">
         <v>127</v>
       </c>
       <c r="AO105">
@@ -24467,19 +24439,19 @@
       </c>
     </row>
     <row r="106" spans="3:41" ht="44" x14ac:dyDescent="0.2">
-      <c r="C106" s="108" t="s">
+      <c r="C106" s="107" t="s">
         <v>116</v>
       </c>
       <c r="D106" s="19">
         <v>19</v>
       </c>
-      <c r="Q106" s="112" t="s">
+      <c r="Q106" s="111" t="s">
         <v>122</v>
       </c>
       <c r="R106" s="13">
         <v>1.5</v>
       </c>
-      <c r="AN106" s="148" t="s">
+      <c r="AN106" s="114" t="s">
         <v>127</v>
       </c>
       <c r="AO106">
@@ -24487,19 +24459,19 @@
       </c>
     </row>
     <row r="107" spans="3:41" ht="44" x14ac:dyDescent="0.2">
-      <c r="C107" s="108" t="s">
+      <c r="C107" s="107" t="s">
         <v>116</v>
       </c>
       <c r="D107" s="19">
         <v>21</v>
       </c>
-      <c r="Q107" s="112" t="s">
+      <c r="Q107" s="111" t="s">
         <v>122</v>
       </c>
       <c r="R107" s="13">
         <v>-1</v>
       </c>
-      <c r="AN107" s="148" t="s">
+      <c r="AN107" s="114" t="s">
         <v>127</v>
       </c>
       <c r="AO107">
@@ -24507,19 +24479,19 @@
       </c>
     </row>
     <row r="108" spans="3:41" ht="44" x14ac:dyDescent="0.2">
-      <c r="C108" s="108" t="s">
+      <c r="C108" s="107" t="s">
         <v>116</v>
       </c>
       <c r="D108" s="19">
         <v>9</v>
       </c>
-      <c r="Q108" s="112" t="s">
+      <c r="Q108" s="111" t="s">
         <v>122</v>
       </c>
       <c r="R108" s="13">
         <v>0.5</v>
       </c>
-      <c r="AN108" s="148" t="s">
+      <c r="AN108" s="114" t="s">
         <v>127</v>
       </c>
       <c r="AO108">
@@ -24527,13 +24499,13 @@
       </c>
     </row>
     <row r="109" spans="3:41" ht="44" x14ac:dyDescent="0.2">
-      <c r="C109" s="108" t="s">
+      <c r="C109" s="107" t="s">
         <v>116</v>
       </c>
       <c r="D109" s="19">
         <v>13</v>
       </c>
-      <c r="AN109" s="148" t="s">
+      <c r="AN109" s="114" t="s">
         <v>127</v>
       </c>
       <c r="AO109">
@@ -24541,13 +24513,13 @@
       </c>
     </row>
     <row r="110" spans="3:41" ht="44" x14ac:dyDescent="0.2">
-      <c r="C110" s="108" t="s">
+      <c r="C110" s="107" t="s">
         <v>117</v>
       </c>
       <c r="D110" s="19">
         <v>12</v>
       </c>
-      <c r="AN110" s="148" t="s">
+      <c r="AN110" s="114" t="s">
         <v>127</v>
       </c>
       <c r="AO110">
@@ -24555,13 +24527,13 @@
       </c>
     </row>
     <row r="111" spans="3:41" ht="45" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C111" s="108" t="s">
+      <c r="C111" s="107" t="s">
         <v>117</v>
       </c>
       <c r="D111" s="19">
         <v>10</v>
       </c>
-      <c r="AN111" s="148" t="s">
+      <c r="AN111" s="114" t="s">
         <v>127</v>
       </c>
       <c r="AO111">
@@ -24569,308 +24541,308 @@
       </c>
     </row>
     <row r="112" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C112" s="108" t="s">
+      <c r="C112" s="107" t="s">
         <v>117</v>
       </c>
       <c r="D112" s="19">
         <v>15</v>
       </c>
       <c r="AN112" s="86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO112">
         <v>3</v>
       </c>
     </row>
     <row r="113" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="108" t="s">
+      <c r="C113" s="107" t="s">
         <v>117</v>
       </c>
       <c r="D113" s="19">
         <v>12</v>
       </c>
       <c r="AN113" s="86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO113">
         <v>3</v>
       </c>
     </row>
     <row r="114" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C114" s="108" t="s">
+      <c r="C114" s="107" t="s">
         <v>117</v>
       </c>
       <c r="D114" s="19">
         <v>20</v>
       </c>
       <c r="AN114" s="86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO114">
         <v>3</v>
       </c>
     </row>
     <row r="115" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C115" s="108" t="s">
+      <c r="C115" s="107" t="s">
         <v>117</v>
       </c>
       <c r="D115" s="19">
         <v>11</v>
       </c>
       <c r="AN115" s="86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO115">
         <v>2</v>
       </c>
     </row>
     <row r="116" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C116" s="108" t="s">
+      <c r="C116" s="107" t="s">
         <v>117</v>
       </c>
       <c r="D116" s="19">
         <v>40</v>
       </c>
       <c r="AN116" s="86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO116">
         <v>3</v>
       </c>
     </row>
     <row r="117" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C117" s="108" t="s">
+      <c r="C117" s="107" t="s">
         <v>117</v>
       </c>
       <c r="D117" s="19">
         <v>15</v>
       </c>
       <c r="AN117" s="86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO117">
         <v>3</v>
       </c>
     </row>
     <row r="118" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C118" s="108" t="s">
+      <c r="C118" s="107" t="s">
         <v>117</v>
       </c>
       <c r="D118" s="19">
         <v>12</v>
       </c>
       <c r="AN118" s="86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO118">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C119" s="108" t="s">
+      <c r="C119" s="107" t="s">
         <v>117</v>
       </c>
       <c r="D119" s="19">
         <v>10</v>
       </c>
       <c r="AN119" s="86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO119">
         <v>3</v>
       </c>
     </row>
     <row r="120" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C120" s="108" t="s">
+      <c r="C120" s="107" t="s">
         <v>117</v>
       </c>
       <c r="D120" s="19">
         <v>18</v>
       </c>
       <c r="AN120" s="86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO120">
         <v>3</v>
       </c>
     </row>
     <row r="121" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C121" s="108" t="s">
+      <c r="C121" s="107" t="s">
         <v>117</v>
       </c>
       <c r="D121" s="19">
         <v>12</v>
       </c>
       <c r="AN121" s="86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO121">
         <v>3</v>
       </c>
     </row>
     <row r="122" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C122" s="108" t="s">
+      <c r="C122" s="107" t="s">
         <v>118</v>
       </c>
       <c r="D122" s="19">
         <v>10</v>
       </c>
       <c r="AN122" s="86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO122">
         <v>3</v>
       </c>
     </row>
     <row r="123" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="108" t="s">
+      <c r="C123" s="107" t="s">
         <v>118</v>
       </c>
       <c r="D123" s="19">
         <v>14</v>
       </c>
       <c r="AN123" s="86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO123">
         <v>3</v>
       </c>
     </row>
     <row r="124" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="108" t="s">
+      <c r="C124" s="107" t="s">
         <v>118</v>
       </c>
       <c r="D124" s="19">
         <v>11</v>
       </c>
       <c r="AN124" s="86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO124">
         <v>3</v>
       </c>
     </row>
     <row r="125" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C125" s="108" t="s">
+      <c r="C125" s="107" t="s">
         <v>118</v>
       </c>
       <c r="D125" s="19">
         <v>58</v>
       </c>
       <c r="AN125" s="86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO125">
         <v>2</v>
       </c>
     </row>
     <row r="126" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C126" s="108" t="s">
+      <c r="C126" s="107" t="s">
         <v>118</v>
       </c>
       <c r="D126" s="19">
         <v>11</v>
       </c>
       <c r="AN126" s="86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO126">
         <v>3</v>
       </c>
     </row>
     <row r="127" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C127" s="108" t="s">
+      <c r="C127" s="107" t="s">
         <v>118</v>
       </c>
       <c r="D127" s="19">
         <v>15</v>
       </c>
       <c r="AN127" s="86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO127">
         <v>2</v>
       </c>
     </row>
     <row r="128" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="108" t="s">
+      <c r="C128" s="107" t="s">
         <v>118</v>
       </c>
       <c r="D128" s="19">
         <v>23</v>
       </c>
       <c r="AN128" s="86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO128">
         <v>3</v>
       </c>
     </row>
     <row r="129" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C129" s="108" t="s">
+      <c r="C129" s="107" t="s">
         <v>118</v>
       </c>
       <c r="D129" s="19">
         <v>11</v>
       </c>
       <c r="AN129" s="86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO129" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="130" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C130" s="108" t="s">
+      <c r="C130" s="107" t="s">
         <v>118</v>
       </c>
       <c r="D130" s="19">
         <v>19</v>
       </c>
       <c r="AN130" s="86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO130" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="131" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C131" s="108" t="s">
+      <c r="C131" s="107" t="s">
         <v>118</v>
       </c>
       <c r="D131" s="19">
         <v>21</v>
       </c>
       <c r="AN131" s="86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO131" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="132" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C132" s="108" t="s">
+      <c r="C132" s="107" t="s">
         <v>118</v>
       </c>
       <c r="D132" s="19">
         <v>9</v>
       </c>
       <c r="AN132" s="86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO132" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="133" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C133" s="109" t="s">
+      <c r="C133" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="D133" s="105">
+      <c r="D133" s="104">
         <v>13</v>
       </c>
       <c r="AN133" s="86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO133" s="13">
         <v>3</v>
@@ -24878,7 +24850,7 @@
     </row>
     <row r="134" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AN134" s="86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO134" s="13">
         <v>2</v>
@@ -24886,391 +24858,391 @@
     </row>
     <row r="135" spans="3:41" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AN135" s="86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO135" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="136" spans="3:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN136" s="147" t="s">
-        <v>130</v>
+      <c r="AN136" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="AO136" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="137" spans="3:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN137" s="147" t="s">
-        <v>130</v>
+      <c r="AN137" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="AO137" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="138" spans="3:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN138" s="147" t="s">
-        <v>130</v>
+      <c r="AN138" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="AO138" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="139" spans="3:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN139" s="147" t="s">
-        <v>130</v>
+      <c r="AN139" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="AO139" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="140" spans="3:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN140" s="147" t="s">
-        <v>130</v>
+      <c r="AN140" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="AO140" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="141" spans="3:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN141" s="147" t="s">
-        <v>130</v>
+      <c r="AN141" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="AO141" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="142" spans="3:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN142" s="147" t="s">
-        <v>130</v>
+      <c r="AN142" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="AO142" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="3:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN143" s="147" t="s">
-        <v>130</v>
+      <c r="AN143" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="AO143" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="144" spans="3:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN144" s="147" t="s">
-        <v>130</v>
+      <c r="AN144" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="AO144" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="145" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN145" s="147" t="s">
-        <v>130</v>
+      <c r="AN145" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="AO145" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="146" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN146" s="147" t="s">
-        <v>130</v>
+      <c r="AN146" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="AO146" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="147" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN147" s="147" t="s">
-        <v>130</v>
+      <c r="AN147" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="AO147" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="148" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN148" s="147" t="s">
-        <v>130</v>
+      <c r="AN148" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="AO148" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="149" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN149" s="147" t="s">
-        <v>130</v>
+      <c r="AN149" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="AO149" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="150" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN150" s="147" t="s">
-        <v>130</v>
+      <c r="AN150" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="AO150" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="151" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN151" s="147" t="s">
-        <v>130</v>
+      <c r="AN151" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="AO151" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN152" s="147" t="s">
-        <v>130</v>
+      <c r="AN152" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="AO152" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="153" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN153" s="147" t="s">
-        <v>130</v>
+      <c r="AN153" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="AO153" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="154" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN154" s="147" t="s">
-        <v>130</v>
+      <c r="AN154" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="AO154" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="155" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN155" s="147" t="s">
-        <v>130</v>
+      <c r="AN155" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="AO155" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="156" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN156" s="147" t="s">
-        <v>130</v>
+      <c r="AN156" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="AO156" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="157" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN157" s="147" t="s">
-        <v>130</v>
+      <c r="AN157" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="AO157" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="158" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN158" s="147" t="s">
-        <v>130</v>
+      <c r="AN158" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="AO158" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN159" s="147" t="s">
-        <v>130</v>
+      <c r="AN159" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="AO159" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="160" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN160" s="148" t="s">
-        <v>128</v>
+      <c r="AN160" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="AO160" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="161" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN161" s="148" t="s">
-        <v>128</v>
+      <c r="AN161" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="AO161" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="162" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN162" s="148" t="s">
-        <v>128</v>
+      <c r="AN162" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="AO162" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="163" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN163" s="148" t="s">
-        <v>128</v>
+      <c r="AN163" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="AO163" s="13">
         <v>2.5</v>
       </c>
     </row>
     <row r="164" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN164" s="148" t="s">
-        <v>128</v>
+      <c r="AN164" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="AO164" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="165" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN165" s="148" t="s">
-        <v>128</v>
+      <c r="AN165" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="AO165" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="166" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN166" s="148" t="s">
-        <v>128</v>
+      <c r="AN166" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="AO166" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="167" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN167" s="148" t="s">
-        <v>128</v>
+      <c r="AN167" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="AO167" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="168" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN168" s="148" t="s">
-        <v>128</v>
+      <c r="AN168" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="AO168" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="169" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN169" s="148" t="s">
-        <v>128</v>
+      <c r="AN169" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="AO169" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="170" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN170" s="148" t="s">
-        <v>128</v>
+      <c r="AN170" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="AO170" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="171" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN171" s="148" t="s">
-        <v>128</v>
+      <c r="AN171" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="AO171" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="172" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN172" s="148" t="s">
-        <v>128</v>
+      <c r="AN172" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="AO172" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="173" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN173" s="148" t="s">
-        <v>128</v>
+      <c r="AN173" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="AO173" s="13">
         <v>2.5</v>
       </c>
     </row>
     <row r="174" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN174" s="148" t="s">
-        <v>128</v>
+      <c r="AN174" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="AO174" s="13">
         <v>2.5</v>
       </c>
     </row>
     <row r="175" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN175" s="148" t="s">
-        <v>128</v>
+      <c r="AN175" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="AO175" s="13">
         <v>1.5</v>
       </c>
     </row>
     <row r="176" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN176" s="148" t="s">
-        <v>128</v>
+      <c r="AN176" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="AO176" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="177" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN177" s="148" t="s">
-        <v>128</v>
+      <c r="AN177" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="AO177" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="178" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN178" s="148" t="s">
-        <v>128</v>
+      <c r="AN178" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="AO178" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="179" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN179" s="148" t="s">
-        <v>128</v>
+      <c r="AN179" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="AO179" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="180" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN180" s="148" t="s">
-        <v>128</v>
+      <c r="AN180" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="AO180" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="181" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN181" s="148" t="s">
-        <v>128</v>
+      <c r="AN181" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="AO181" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="182" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN182" s="148" t="s">
-        <v>128</v>
+      <c r="AN182" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="AO182" s="13">
         <v>1.5</v>
       </c>
     </row>
     <row r="183" spans="40:41" ht="34" x14ac:dyDescent="0.2">
-      <c r="AN183" s="148" t="s">
-        <v>128</v>
+      <c r="AN183" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="AO183" s="13">
         <v>3</v>

--- a/notebooks/user_data/response_book.xlsx
+++ b/notebooks/user_data/response_book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liamroy/Documents/Studies/Monash_31194990/PHD/repos/RL_audio/notebooks/user_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADF3FE0-D5A9-F145-8DF3-DD67099393FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ECFFA9-3FFD-E940-9801-EB0CEC7C0C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35900" yWindow="-640" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="extra_box_plots" sheetId="40" r:id="rId1"/>
@@ -52,18 +52,14 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'results no ref'!$Q$37:$Q$108</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'results no ref'!$R$37:$R$108</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'results no ref'!$C$38:$C$133</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'results no ref'!$D$38:$D$133</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'results no ref'!$I$38:$I$85</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'results no ref'!$J$38:$J$85</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'results no ref'!$Q$37:$Q$108</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'results no ref'!$R$37:$R$108</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'results no ref'!$I$38:$I$85</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'results no ref'!$J$38:$J$85</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'results no ref'!$I$38:$I$85</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'results no ref'!$J$38:$J$85</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'results no ref'!$AN$40:$AN$183</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'results no ref'!$AO$40:$AO$183</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'results no ref'!$I$38:$I$85</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'results no ref'!$J$38:$J$85</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'results no ref'!$AN$40:$AN$183</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'results no ref'!$AO$40:$AO$183</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'results no ref'!$C$38:$C$133</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'results no ref'!$D$38:$D$133</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'results no ref'!$I$38:$I$85</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'results no ref'!$J$38:$J$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -86,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="140">
   <si>
     <t>user_ID</t>
   </si>
@@ -492,6 +488,33 @@
     <t>Ave (3A/3B) 
 After</t>
   </si>
+  <si>
+    <t>JACKAL SHIFT A</t>
+  </si>
+  <si>
+    <t>JACKAL SHIFT B</t>
+  </si>
+  <si>
+    <t>SPOT SHIFT A</t>
+  </si>
+  <si>
+    <t>SPOT SHIFT B</t>
+  </si>
+  <si>
+    <t>JACKAL SPOT BEFORE SHIFT</t>
+  </si>
+  <si>
+    <t>JACKAL SPOT AFTER SHIFT A</t>
+  </si>
+  <si>
+    <t>JACKAL SPOT AFTER SHIFT B</t>
+  </si>
+  <si>
+    <t>Shift condA</t>
+  </si>
+  <si>
+    <t>Shift condB</t>
+  </si>
 </sst>
 </file>
 
@@ -562,7 +585,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,6 +708,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -930,7 +959,7 @@
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1270,6 +1299,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="22" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="22" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1367,6 +1414,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2222,7 +2272,7 @@
             <c:numRef>
               <c:f>'results no ref'!$AX$3:$AX$27</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3594,10 +3644,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3762,10 +3812,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3932,10 +3982,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4082,10 +4132,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4236,10 +4286,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8595,7 +8645,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{832042A5-8F89-942A-D3C7-226B16D6F584}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61053290-24C9-B8F2-0841-72C2CE2C83F3}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -8706,7 +8756,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2156988A-37A0-259F-9CAD-9A3977829C7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB92182-7CF8-CD6D-9B9F-F265E06866FB}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -9112,7 +9162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689A3AC2-F3FD-CC43-AE33-71A4AAE7341C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="D35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="W53" sqref="W53"/>
     </sheetView>
   </sheetViews>
@@ -16966,11 +17016,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371632C3-F948-294F-B34F-AE31BF1D8D0A}">
   <dimension ref="A1:BH204"/>
   <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AI158" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AN160" sqref="AN160:AN183"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -16989,78 +17039,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="17" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="139" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="135" t="s">
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="141" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="136"/>
-      <c r="F1" s="137" t="s">
+      <c r="E1" s="142"/>
+      <c r="F1" s="143" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="140" t="s">
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="146" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="141"/>
-      <c r="S1" s="141"/>
-      <c r="T1" s="141"/>
-      <c r="U1" s="141"/>
-      <c r="V1" s="141"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="143" t="s">
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="149" t="s">
         <v>89</v>
       </c>
-      <c r="Y1" s="144"/>
-      <c r="Z1" s="144"/>
-      <c r="AA1" s="144"/>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="144"/>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="146" t="s">
+      <c r="Y1" s="150"/>
+      <c r="Z1" s="150"/>
+      <c r="AA1" s="150"/>
+      <c r="AB1" s="150"/>
+      <c r="AC1" s="150"/>
+      <c r="AD1" s="150"/>
+      <c r="AE1" s="150"/>
+      <c r="AF1" s="151"/>
+      <c r="AG1" s="152" t="s">
         <v>90</v>
       </c>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="147"/>
-      <c r="AJ1" s="147"/>
-      <c r="AK1" s="147"/>
-      <c r="AL1" s="147"/>
-      <c r="AM1" s="147"/>
-      <c r="AN1" s="147"/>
-      <c r="AO1" s="147"/>
-      <c r="AP1" s="115" t="s">
+      <c r="AH1" s="153"/>
+      <c r="AI1" s="153"/>
+      <c r="AJ1" s="153"/>
+      <c r="AK1" s="153"/>
+      <c r="AL1" s="153"/>
+      <c r="AM1" s="153"/>
+      <c r="AN1" s="153"/>
+      <c r="AO1" s="153"/>
+      <c r="AP1" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="AQ1" s="116"/>
-      <c r="AR1" s="116"/>
-      <c r="AS1" s="116"/>
-      <c r="AT1" s="116"/>
-      <c r="AU1" s="116"/>
-      <c r="AV1" s="116"/>
-      <c r="AW1" s="117"/>
+      <c r="AQ1" s="122"/>
+      <c r="AR1" s="122"/>
+      <c r="AS1" s="122"/>
+      <c r="AT1" s="122"/>
+      <c r="AU1" s="122"/>
+      <c r="AV1" s="122"/>
+      <c r="AW1" s="123"/>
       <c r="AX1" s="89"/>
-      <c r="AY1" s="118" t="s">
+      <c r="AY1" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="AZ1" s="119"/>
-      <c r="BA1" s="119"/>
-      <c r="BB1" s="119"/>
-      <c r="BC1" s="119"/>
-      <c r="BD1" s="120"/>
+      <c r="AZ1" s="125"/>
+      <c r="BA1" s="125"/>
+      <c r="BB1" s="125"/>
+      <c r="BC1" s="125"/>
+      <c r="BD1" s="126"/>
       <c r="BE1" s="100"/>
     </row>
     <row r="2" spans="1:60" s="40" customFormat="1" ht="45" thickBot="1" x14ac:dyDescent="0.25">
@@ -17393,7 +17443,7 @@
         <f>AT3-AQ3</f>
         <v>0</v>
       </c>
-      <c r="AX3" s="19">
+      <c r="AX3" s="115">
         <f>SUM(AV3, AW3)/2</f>
         <v>0</v>
       </c>
@@ -17594,7 +17644,7 @@
         <f t="shared" ref="AW4:AW28" si="8">AT4-AQ4</f>
         <v>2</v>
       </c>
-      <c r="AX4" s="19">
+      <c r="AX4" s="115">
         <f t="shared" ref="AX4:AX26" si="9">SUM(AV4, AW4)/2</f>
         <v>1.5</v>
       </c>
@@ -17795,7 +17845,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AX5" s="19">
+      <c r="AX5" s="115">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -17996,7 +18046,7 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AX6" s="19">
+      <c r="AX6" s="115">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -18197,7 +18247,7 @@
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AX7" s="19">
+      <c r="AX7" s="115">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
@@ -18398,7 +18448,7 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AX8" s="19">
+      <c r="AX8" s="115">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
@@ -18599,7 +18649,7 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AX9" s="19">
+      <c r="AX9" s="115">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -18800,7 +18850,7 @@
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AX10" s="19">
+      <c r="AX10" s="115">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
@@ -19001,7 +19051,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AX11" s="19">
+      <c r="AX11" s="115">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -19202,7 +19252,7 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AX12" s="19">
+      <c r="AX12" s="115">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -19403,8 +19453,8 @@
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AX13" s="19">
-        <f t="shared" si="9"/>
+      <c r="AX13" s="115">
+        <f>SUM(AV13, AW13)/2</f>
         <v>2.5</v>
       </c>
       <c r="AY13" s="22">
@@ -19604,7 +19654,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AX14" s="19">
+      <c r="AX14" s="115">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -19805,7 +19855,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AX15" s="19">
+      <c r="AX15" s="115">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -20004,7 +20054,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AX16" s="19">
+      <c r="AX16" s="115">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -20205,7 +20255,7 @@
         <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="AX17" s="19">
+      <c r="AX17" s="115">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -20406,7 +20456,7 @@
         <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="AX18" s="19">
+      <c r="AX18" s="115">
         <f t="shared" si="9"/>
         <v>-0.5</v>
       </c>
@@ -20607,7 +20657,7 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AX19" s="19">
+      <c r="AX19" s="115">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
@@ -20808,7 +20858,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AX20" s="19">
+      <c r="AX20" s="115">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
@@ -21009,7 +21059,7 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AX21" s="19">
+      <c r="AX21" s="115">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
@@ -21210,7 +21260,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AX22" s="19">
+      <c r="AX22" s="115">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -21411,7 +21461,7 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AX23" s="19">
+      <c r="AX23" s="115">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
@@ -21612,7 +21662,7 @@
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AX24" s="19">
+      <c r="AX24" s="115">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
@@ -21806,15 +21856,15 @@
         <v>1.5</v>
       </c>
       <c r="AV25" s="21">
-        <f t="shared" si="7"/>
+        <f>AS25-AP25</f>
         <v>0</v>
       </c>
       <c r="AW25" s="19">
-        <f t="shared" si="8"/>
+        <f>AT25-AQ25</f>
         <v>-2</v>
       </c>
-      <c r="AX25" s="19">
-        <f t="shared" si="9"/>
+      <c r="AX25" s="115">
+        <f>SUM(AV25, AW25)/2</f>
         <v>-1</v>
       </c>
       <c r="AY25" s="22">
@@ -22014,7 +22064,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AX26" s="19">
+      <c r="AX26" s="115">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
@@ -22151,10 +22201,10 @@
       </c>
     </row>
     <row r="28" spans="1:60" s="31" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="121" t="s">
+      <c r="A28" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="122"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="33" t="s">
         <v>71</v>
       </c>
@@ -22299,8 +22349,8 @@
       <c r="BE28" s="103"/>
     </row>
     <row r="29" spans="1:60" s="31" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="123"/>
-      <c r="B29" s="124"/>
+      <c r="A29" s="129"/>
+      <c r="B29" s="130"/>
       <c r="C29" s="65" t="s">
         <v>103</v>
       </c>
@@ -22442,8 +22492,8 @@
       </c>
     </row>
     <row r="30" spans="1:60" s="73" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="123"/>
-      <c r="B30" s="124"/>
+      <c r="A30" s="129"/>
+      <c r="B30" s="130"/>
       <c r="C30" s="65" t="s">
         <v>104</v>
       </c>
@@ -22527,11 +22577,23 @@
         <f>AVERAGE(AO3:AO14)</f>
         <v>9.25</v>
       </c>
-      <c r="AP30" s="71"/>
-      <c r="AQ30" s="72"/>
+      <c r="AP30" s="118">
+        <f>AVERAGE(AP3:AP14)</f>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="AQ30" s="118">
+        <f>AVERAGE(AQ3:AQ14)</f>
+        <v>1.8333333333333333</v>
+      </c>
       <c r="AR30" s="72"/>
-      <c r="AS30" s="72"/>
-      <c r="AT30" s="72"/>
+      <c r="AS30" s="117">
+        <f>AVERAGE(AS3:AS14)</f>
+        <v>2.75</v>
+      </c>
+      <c r="AT30" s="117">
+        <f>AVERAGE(AT3:AT14)</f>
+        <v>2.8333333333333335</v>
+      </c>
       <c r="AU30" s="72"/>
       <c r="AV30" s="82">
         <f>AVERAGE(AV3:AV14)</f>
@@ -22575,8 +22637,8 @@
       </c>
     </row>
     <row r="31" spans="1:60" s="76" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="125"/>
-      <c r="B31" s="126"/>
+      <c r="A31" s="131"/>
+      <c r="B31" s="132"/>
       <c r="C31" s="28" t="s">
         <v>105</v>
       </c>
@@ -22660,11 +22722,23 @@
         <f>AVERAGE(AO15:AO26)</f>
         <v>7.833333333333333</v>
       </c>
-      <c r="AP31" s="74"/>
-      <c r="AQ31" s="75"/>
+      <c r="AP31" s="119">
+        <f>AVERAGE(AP15:AP26)</f>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="AQ31" s="119">
+        <f>AVERAGE(AQ15:AQ26)</f>
+        <v>2.5</v>
+      </c>
       <c r="AR31" s="75"/>
-      <c r="AS31" s="75"/>
-      <c r="AT31" s="75"/>
+      <c r="AS31" s="116">
+        <f>AVERAGE(AS15:AS26)</f>
+        <v>2.75</v>
+      </c>
+      <c r="AT31" s="116">
+        <f>AVERAGE(AT15:AT26)</f>
+        <v>2.5833333333333335</v>
+      </c>
       <c r="AU31" s="75"/>
       <c r="AV31" s="84">
         <f>AVERAGE(AV15:AV26)</f>
@@ -22718,11 +22792,26 @@
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
+      <c r="E33" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="23">
+        <f>D30-E30</f>
+        <v>23.5</v>
+      </c>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
       <c r="AH33"/>
       <c r="AI33"/>
+      <c r="AP33" s="154" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ33" s="154"/>
+      <c r="AR33" s="23">
+        <f>AS30-AP30</f>
+        <v>0.83333333333333326</v>
+      </c>
       <c r="AV33" s="68"/>
       <c r="AW33" s="68"/>
       <c r="AX33" s="68"/>
@@ -22738,15 +22827,30 @@
         <v>74</v>
       </c>
       <c r="D34"/>
+      <c r="E34" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="23">
+        <f>D31-E31</f>
+        <v>23.333333333333332</v>
+      </c>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="AH34"/>
       <c r="AI34"/>
-      <c r="AV34" s="127" t="s">
+      <c r="AP34" s="154" t="s">
+        <v>132</v>
+      </c>
+      <c r="AQ34" s="154"/>
+      <c r="AR34" s="23">
+        <f>AS31-AP31</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="AV34" s="133" t="s">
         <v>76</v>
       </c>
-      <c r="AW34" s="128"/>
+      <c r="AW34" s="134"/>
     </row>
     <row r="35" spans="1:50" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="s">
@@ -22764,8 +22868,16 @@
       <c r="I35"/>
       <c r="AH35"/>
       <c r="AI35"/>
-      <c r="AV35" s="129"/>
-      <c r="AW35" s="130"/>
+      <c r="AP35" s="154" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ35" s="154"/>
+      <c r="AR35" s="23">
+        <f>AT30-AQ30</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="AV35" s="135"/>
+      <c r="AW35" s="136"/>
     </row>
     <row r="36" spans="1:50" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
@@ -22777,8 +22889,16 @@
       <c r="I36"/>
       <c r="AH36"/>
       <c r="AI36"/>
-      <c r="AV36" s="129"/>
-      <c r="AW36" s="130"/>
+      <c r="AP36" s="154" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ36" s="154"/>
+      <c r="AR36" s="23">
+        <f>AT31-AQ31</f>
+        <v>8.3333333333333481E-2</v>
+      </c>
+      <c r="AV36" s="135"/>
+      <c r="AW36" s="136"/>
     </row>
     <row r="37" spans="1:50" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D37"/>
@@ -22793,8 +22913,16 @@
       </c>
       <c r="AH37"/>
       <c r="AI37"/>
-      <c r="AV37" s="129"/>
-      <c r="AW37" s="130"/>
+      <c r="AP37" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ37" s="120"/>
+      <c r="AR37" s="23">
+        <f>AQ29-AP29</f>
+        <v>0.24999999999999978</v>
+      </c>
+      <c r="AV37" s="135"/>
+      <c r="AW37" s="136"/>
     </row>
     <row r="38" spans="1:50" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C38" s="106" t="s">
@@ -22817,8 +22945,16 @@
       <c r="R38" s="13">
         <v>1</v>
       </c>
-      <c r="AV38" s="129"/>
-      <c r="AW38" s="130"/>
+      <c r="AP38" s="120" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ38" s="120"/>
+      <c r="AR38" s="23">
+        <f>AT30-AS30</f>
+        <v>8.3333333333333481E-2</v>
+      </c>
+      <c r="AV38" s="135"/>
+      <c r="AW38" s="136"/>
     </row>
     <row r="39" spans="1:50" ht="45" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C39" s="107" t="s">
@@ -22841,8 +22977,16 @@
       <c r="R39" s="13">
         <v>2</v>
       </c>
-      <c r="AV39" s="131"/>
-      <c r="AW39" s="132"/>
+      <c r="AP39" s="120" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ39" s="120"/>
+      <c r="AR39" s="23">
+        <f>AT31-AS31</f>
+        <v>-0.16666666666666652</v>
+      </c>
+      <c r="AV39" s="137"/>
+      <c r="AW39" s="138"/>
     </row>
     <row r="40" spans="1:50" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C40" s="107" t="s">
@@ -25312,7 +25456,9 @@
       <c r="AN204"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="17">
+    <mergeCell ref="AP38:AQ38"/>
+    <mergeCell ref="AP39:AQ39"/>
     <mergeCell ref="AP1:AW1"/>
     <mergeCell ref="AY1:BD1"/>
     <mergeCell ref="A28:B31"/>
@@ -25323,6 +25469,11 @@
     <mergeCell ref="O1:W1"/>
     <mergeCell ref="X1:AF1"/>
     <mergeCell ref="AG1:AO1"/>
+    <mergeCell ref="AP33:AQ33"/>
+    <mergeCell ref="AP34:AQ34"/>
+    <mergeCell ref="AP35:AQ35"/>
+    <mergeCell ref="AP36:AQ36"/>
+    <mergeCell ref="AP37:AQ37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="AV3:AX3 AV4:AW26 BC3:BE28 AX4:AX28">
